--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Uva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Uva.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T763"/>
+  <dimension ref="A1:T764"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49607,7 +49607,7 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44321</v>
+        <v>44543</v>
       </c>
       <c r="E616" t="n">
         <v>13</v>
@@ -49635,7 +49635,7 @@
       </c>
       <c r="K616" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L616" t="inlineStr">
@@ -49644,20 +49644,20 @@
         </is>
       </c>
       <c r="M616" t="n">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="N616" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O616" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P616" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="Q616" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R616" t="inlineStr">
@@ -49666,10 +49666,10 @@
         </is>
       </c>
       <c r="S616" t="n">
-        <v>417</v>
+        <v>1000</v>
       </c>
       <c r="T616" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="617">
@@ -49715,7 +49715,7 @@
       </c>
       <c r="K617" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L617" t="inlineStr">
@@ -49724,16 +49724,16 @@
         </is>
       </c>
       <c r="M617" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="N617" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O617" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P617" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="Q617" t="inlineStr">
         <is>
@@ -49742,11 +49742,11 @@
       </c>
       <c r="R617" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S617" t="n">
-        <v>806</v>
+        <v>417</v>
       </c>
       <c r="T617" t="n">
         <v>18</v>
@@ -49795,7 +49795,7 @@
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L618" t="inlineStr">
@@ -49804,7 +49804,7 @@
         </is>
       </c>
       <c r="M618" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="N618" t="n">
         <v>14000</v>
@@ -49847,7 +49847,7 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E619" t="n">
         <v>13</v>
@@ -49875,41 +49875,41 @@
       </c>
       <c r="K619" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M619" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="N619" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O619" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P619" t="n">
-        <v>6000</v>
+        <v>14500</v>
       </c>
       <c r="Q619" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R619" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S619" t="n">
-        <v>750</v>
+        <v>806</v>
       </c>
       <c r="T619" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="620">
@@ -49955,7 +49955,7 @@
       </c>
       <c r="K620" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L620" t="inlineStr">
@@ -49964,7 +49964,7 @@
         </is>
       </c>
       <c r="M620" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="N620" t="n">
         <v>6000</v>
@@ -50035,7 +50035,7 @@
       </c>
       <c r="K621" t="inlineStr">
         <is>
-          <t>Timco</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L621" t="inlineStr">
@@ -50044,7 +50044,7 @@
         </is>
       </c>
       <c r="M621" t="n">
-        <v>650</v>
+        <v>240</v>
       </c>
       <c r="N621" t="n">
         <v>6000</v>
@@ -50087,7 +50087,7 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E622" t="n">
         <v>13</v>
@@ -50115,29 +50115,29 @@
       </c>
       <c r="K622" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Timco</t>
         </is>
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M622" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="N622" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O622" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P622" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q622" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R622" t="inlineStr">
@@ -50146,10 +50146,10 @@
         </is>
       </c>
       <c r="S622" t="n">
-        <v>444</v>
+        <v>750</v>
       </c>
       <c r="T622" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="623">
@@ -50195,7 +50195,7 @@
       </c>
       <c r="K623" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L623" t="inlineStr">
@@ -50210,10 +50210,10 @@
         <v>8000</v>
       </c>
       <c r="O623" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P623" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="Q623" t="inlineStr">
         <is>
@@ -50226,7 +50226,7 @@
         </is>
       </c>
       <c r="S623" t="n">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="T623" t="n">
         <v>18</v>
@@ -50284,16 +50284,16 @@
         </is>
       </c>
       <c r="M624" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N624" t="n">
         <v>8000</v>
       </c>
       <c r="O624" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P624" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q624" t="inlineStr">
         <is>
@@ -50302,11 +50302,11 @@
       </c>
       <c r="R624" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S624" t="n">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="T624" t="n">
         <v>18</v>
@@ -50355,7 +50355,7 @@
       </c>
       <c r="K625" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L625" t="inlineStr">
@@ -50364,32 +50364,32 @@
         </is>
       </c>
       <c r="M625" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="N625" t="n">
         <v>8000</v>
       </c>
       <c r="O625" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P625" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="Q625" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R625" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S625" t="n">
-        <v>850</v>
+        <v>444</v>
       </c>
       <c r="T625" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="626">
@@ -50435,7 +50435,7 @@
       </c>
       <c r="K626" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L626" t="inlineStr">
@@ -50444,32 +50444,32 @@
         </is>
       </c>
       <c r="M626" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="N626" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O626" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P626" t="n">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="Q626" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R626" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S626" t="n">
-        <v>611</v>
+        <v>850</v>
       </c>
       <c r="T626" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="627">
@@ -50515,7 +50515,7 @@
       </c>
       <c r="K627" t="inlineStr">
         <is>
-          <t>Timco</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L627" t="inlineStr">
@@ -50524,16 +50524,16 @@
         </is>
       </c>
       <c r="M627" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="N627" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O627" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P627" t="n">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="Q627" t="inlineStr">
         <is>
@@ -50546,7 +50546,7 @@
         </is>
       </c>
       <c r="S627" t="n">
-        <v>417</v>
+        <v>611</v>
       </c>
       <c r="T627" t="n">
         <v>18</v>
@@ -50567,7 +50567,7 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E628" t="n">
         <v>13</v>
@@ -50595,7 +50595,7 @@
       </c>
       <c r="K628" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Timco</t>
         </is>
       </c>
       <c r="L628" t="inlineStr">
@@ -50604,16 +50604,16 @@
         </is>
       </c>
       <c r="M628" t="n">
-        <v>540</v>
+        <v>120</v>
       </c>
       <c r="N628" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O628" t="n">
         <v>8000</v>
       </c>
       <c r="P628" t="n">
-        <v>7306</v>
+        <v>7500</v>
       </c>
       <c r="Q628" t="inlineStr">
         <is>
@@ -50622,11 +50622,11 @@
       </c>
       <c r="R628" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S628" t="n">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="T628" t="n">
         <v>18</v>
@@ -50675,25 +50675,25 @@
       </c>
       <c r="K629" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M629" t="n">
-        <v>200</v>
+        <v>540</v>
       </c>
       <c r="N629" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="O629" t="n">
         <v>8000</v>
       </c>
       <c r="P629" t="n">
-        <v>8000</v>
+        <v>7306</v>
       </c>
       <c r="Q629" t="inlineStr">
         <is>
@@ -50702,11 +50702,11 @@
       </c>
       <c r="R629" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S629" t="n">
-        <v>444</v>
+        <v>406</v>
       </c>
       <c r="T629" t="n">
         <v>18</v>
@@ -50760,20 +50760,20 @@
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M630" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N630" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="O630" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P630" t="n">
-        <v>6750</v>
+        <v>8000</v>
       </c>
       <c r="Q630" t="inlineStr">
         <is>
@@ -50786,7 +50786,7 @@
         </is>
       </c>
       <c r="S630" t="n">
-        <v>375</v>
+        <v>444</v>
       </c>
       <c r="T630" t="n">
         <v>18</v>
@@ -50840,20 +50840,20 @@
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M631" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N631" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="O631" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P631" t="n">
-        <v>5500</v>
+        <v>6750</v>
       </c>
       <c r="Q631" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="S631" t="n">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="T631" t="n">
         <v>18</v>
@@ -50915,25 +50915,25 @@
       </c>
       <c r="K632" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M632" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N632" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O632" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P632" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="Q632" t="inlineStr">
         <is>
@@ -50946,7 +50946,7 @@
         </is>
       </c>
       <c r="S632" t="n">
-        <v>556</v>
+        <v>306</v>
       </c>
       <c r="T632" t="n">
         <v>18</v>
@@ -50995,25 +50995,25 @@
       </c>
       <c r="K633" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M633" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N633" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O633" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P633" t="n">
-        <v>14500</v>
+        <v>10000</v>
       </c>
       <c r="Q633" t="inlineStr">
         <is>
@@ -51026,7 +51026,7 @@
         </is>
       </c>
       <c r="S633" t="n">
-        <v>806</v>
+        <v>556</v>
       </c>
       <c r="T633" t="n">
         <v>18</v>
@@ -51075,7 +51075,7 @@
       </c>
       <c r="K634" t="inlineStr">
         <is>
-          <t>Timco</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L634" t="inlineStr">
@@ -51084,16 +51084,16 @@
         </is>
       </c>
       <c r="M634" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N634" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="O634" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P634" t="n">
-        <v>6750</v>
+        <v>14500</v>
       </c>
       <c r="Q634" t="inlineStr">
         <is>
@@ -51106,7 +51106,7 @@
         </is>
       </c>
       <c r="S634" t="n">
-        <v>375</v>
+        <v>806</v>
       </c>
       <c r="T634" t="n">
         <v>18</v>
@@ -51127,7 +51127,7 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44281</v>
+        <v>44308</v>
       </c>
       <c r="E635" t="n">
         <v>13</v>
@@ -51155,7 +51155,7 @@
       </c>
       <c r="K635" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Timco</t>
         </is>
       </c>
       <c r="L635" t="inlineStr">
@@ -51164,16 +51164,16 @@
         </is>
       </c>
       <c r="M635" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="N635" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O635" t="n">
         <v>7000</v>
       </c>
-      <c r="O635" t="n">
-        <v>8000</v>
-      </c>
       <c r="P635" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="Q635" t="inlineStr">
         <is>
@@ -51186,7 +51186,7 @@
         </is>
       </c>
       <c r="S635" t="n">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="T635" t="n">
         <v>18</v>
@@ -51235,7 +51235,7 @@
       </c>
       <c r="K636" t="inlineStr">
         <is>
-          <t>Moscatel rosada</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L636" t="inlineStr">
@@ -51244,20 +51244,20 @@
         </is>
       </c>
       <c r="M636" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="N636" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O636" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P636" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="Q636" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R636" t="inlineStr">
@@ -51266,10 +51266,10 @@
         </is>
       </c>
       <c r="S636" t="n">
-        <v>633</v>
+        <v>417</v>
       </c>
       <c r="T636" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="637">
@@ -51315,7 +51315,7 @@
       </c>
       <c r="K637" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Moscatel rosada</t>
         </is>
       </c>
       <c r="L637" t="inlineStr">
@@ -51324,32 +51324,32 @@
         </is>
       </c>
       <c r="M637" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N637" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O637" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P637" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="Q637" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R637" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S637" t="n">
-        <v>361</v>
+        <v>633</v>
       </c>
       <c r="T637" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="638">
@@ -51404,16 +51404,16 @@
         </is>
       </c>
       <c r="M638" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N638" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O638" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P638" t="n">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="Q638" t="inlineStr">
         <is>
@@ -51422,11 +51422,11 @@
       </c>
       <c r="R638" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S638" t="n">
-        <v>306</v>
+        <v>361</v>
       </c>
       <c r="T638" t="n">
         <v>18</v>
@@ -51480,20 +51480,20 @@
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M639" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N639" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O639" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P639" t="n">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="Q639" t="inlineStr">
         <is>
@@ -51506,7 +51506,7 @@
         </is>
       </c>
       <c r="S639" t="n">
-        <v>222</v>
+        <v>306</v>
       </c>
       <c r="T639" t="n">
         <v>18</v>
@@ -51555,25 +51555,25 @@
       </c>
       <c r="K640" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M640" t="n">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="N640" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="O640" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="P640" t="n">
-        <v>12500</v>
+        <v>4000</v>
       </c>
       <c r="Q640" t="inlineStr">
         <is>
@@ -51586,7 +51586,7 @@
         </is>
       </c>
       <c r="S640" t="n">
-        <v>694</v>
+        <v>222</v>
       </c>
       <c r="T640" t="n">
         <v>18</v>
@@ -51635,7 +51635,7 @@
       </c>
       <c r="K641" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L641" t="inlineStr">
@@ -51644,16 +51644,16 @@
         </is>
       </c>
       <c r="M641" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="N641" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O641" t="n">
         <v>13000</v>
       </c>
-      <c r="O641" t="n">
-        <v>14000</v>
-      </c>
       <c r="P641" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="Q641" t="inlineStr">
         <is>
@@ -51662,11 +51662,11 @@
       </c>
       <c r="R641" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S641" t="n">
-        <v>750</v>
+        <v>694</v>
       </c>
       <c r="T641" t="n">
         <v>18</v>
@@ -51724,16 +51724,16 @@
         </is>
       </c>
       <c r="M642" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N642" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O642" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P642" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="Q642" t="inlineStr">
         <is>
@@ -51742,11 +51742,11 @@
       </c>
       <c r="R642" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S642" t="n">
-        <v>639</v>
+        <v>750</v>
       </c>
       <c r="T642" t="n">
         <v>18</v>
@@ -51800,20 +51800,20 @@
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M643" t="n">
-        <v>180</v>
+        <v>700</v>
       </c>
       <c r="N643" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O643" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P643" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="Q643" t="inlineStr">
         <is>
@@ -51826,7 +51826,7 @@
         </is>
       </c>
       <c r="S643" t="n">
-        <v>556</v>
+        <v>639</v>
       </c>
       <c r="T643" t="n">
         <v>18</v>
@@ -51875,25 +51875,25 @@
       </c>
       <c r="K644" t="inlineStr">
         <is>
-          <t>Timson</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M644" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N644" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O644" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P644" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="Q644" t="inlineStr">
         <is>
@@ -51906,7 +51906,7 @@
         </is>
       </c>
       <c r="S644" t="n">
-        <v>417</v>
+        <v>556</v>
       </c>
       <c r="T644" t="n">
         <v>18</v>
@@ -51927,7 +51927,7 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44187</v>
+        <v>44281</v>
       </c>
       <c r="E645" t="n">
         <v>13</v>
@@ -51955,7 +51955,7 @@
       </c>
       <c r="K645" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Timson</t>
         </is>
       </c>
       <c r="L645" t="inlineStr">
@@ -51964,32 +51964,32 @@
         </is>
       </c>
       <c r="M645" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="N645" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O645" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P645" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="Q645" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R645" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S645" t="n">
-        <v>950</v>
+        <v>417</v>
       </c>
       <c r="T645" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="646">
@@ -52007,7 +52007,7 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44350</v>
+        <v>44187</v>
       </c>
       <c r="E646" t="n">
         <v>13</v>
@@ -52035,7 +52035,7 @@
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L646" t="inlineStr">
@@ -52044,7 +52044,7 @@
         </is>
       </c>
       <c r="M646" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="N646" t="n">
         <v>9000</v>
@@ -52057,19 +52057,19 @@
       </c>
       <c r="Q646" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R646" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S646" t="n">
-        <v>528</v>
+        <v>950</v>
       </c>
       <c r="T646" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="647">
@@ -52115,7 +52115,7 @@
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L647" t="inlineStr">
@@ -52124,16 +52124,16 @@
         </is>
       </c>
       <c r="M647" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N647" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O647" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P647" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="Q647" t="inlineStr">
         <is>
@@ -52142,11 +52142,11 @@
       </c>
       <c r="R647" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S647" t="n">
-        <v>667</v>
+        <v>528</v>
       </c>
       <c r="T647" t="n">
         <v>18</v>
@@ -52195,7 +52195,7 @@
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L648" t="inlineStr">
@@ -52204,16 +52204,16 @@
         </is>
       </c>
       <c r="M648" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N648" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O648" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P648" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q648" t="inlineStr">
         <is>
@@ -52222,11 +52222,11 @@
       </c>
       <c r="R648" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S648" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T648" t="n">
         <v>18</v>
@@ -52284,16 +52284,16 @@
         </is>
       </c>
       <c r="M649" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N649" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O649" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P649" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q649" t="inlineStr">
         <is>
@@ -52302,11 +52302,11 @@
       </c>
       <c r="R649" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S649" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T649" t="n">
         <v>18</v>
@@ -52370,10 +52370,10 @@
         <v>9000</v>
       </c>
       <c r="O650" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P650" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q650" t="inlineStr">
         <is>
@@ -52382,11 +52382,11 @@
       </c>
       <c r="R650" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S650" t="n">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="T650" t="n">
         <v>18</v>
@@ -52435,7 +52435,7 @@
       </c>
       <c r="K651" t="inlineStr">
         <is>
-          <t>Torontel blanca</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L651" t="inlineStr">
@@ -52444,16 +52444,16 @@
         </is>
       </c>
       <c r="M651" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N651" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O651" t="n">
         <v>10000</v>
       </c>
       <c r="P651" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q651" t="inlineStr">
         <is>
@@ -52462,11 +52462,11 @@
       </c>
       <c r="R651" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S651" t="n">
-        <v>556</v>
+        <v>528</v>
       </c>
       <c r="T651" t="n">
         <v>18</v>
@@ -52487,7 +52487,7 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44405</v>
+        <v>44350</v>
       </c>
       <c r="E652" t="n">
         <v>13</v>
@@ -52515,41 +52515,41 @@
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Torontel blanca</t>
         </is>
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M652" t="n">
-        <v>480</v>
+        <v>180</v>
       </c>
       <c r="N652" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O652" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P652" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q652" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R652" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S652" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T652" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="653">
@@ -52567,7 +52567,7 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44413</v>
+        <v>44405</v>
       </c>
       <c r="E653" t="n">
         <v>13</v>
@@ -52595,7 +52595,7 @@
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L653" t="inlineStr">
@@ -52604,16 +52604,16 @@
         </is>
       </c>
       <c r="M653" t="n">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="N653" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O653" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P653" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q653" t="inlineStr">
         <is>
@@ -52622,11 +52622,11 @@
       </c>
       <c r="R653" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S653" t="n">
-        <v>1125</v>
+        <v>1000</v>
       </c>
       <c r="T653" t="n">
         <v>8</v>
@@ -52675,7 +52675,7 @@
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L654" t="inlineStr">
@@ -52727,7 +52727,7 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E655" t="n">
         <v>13</v>
@@ -52755,41 +52755,41 @@
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>Moscatel rosada</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M655" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N655" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O655" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P655" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q655" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R655" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S655" t="n">
-        <v>1600</v>
+        <v>1125</v>
       </c>
       <c r="T655" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="656">
@@ -52835,7 +52835,7 @@
       </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Moscatel rosada</t>
         </is>
       </c>
       <c r="L656" t="inlineStr">
@@ -52844,20 +52844,20 @@
         </is>
       </c>
       <c r="M656" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N656" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="O656" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P656" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="Q656" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R656" t="inlineStr">
@@ -52866,10 +52866,10 @@
         </is>
       </c>
       <c r="S656" t="n">
-        <v>417</v>
+        <v>1600</v>
       </c>
       <c r="T656" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="657">
@@ -52915,7 +52915,7 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
@@ -52924,7 +52924,7 @@
         </is>
       </c>
       <c r="M657" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N657" t="n">
         <v>7000</v>
@@ -52937,7 +52937,7 @@
       </c>
       <c r="Q657" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R657" t="inlineStr">
@@ -52946,10 +52946,10 @@
         </is>
       </c>
       <c r="S657" t="n">
-        <v>750</v>
+        <v>417</v>
       </c>
       <c r="T657" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="658">
@@ -53004,32 +53004,32 @@
         </is>
       </c>
       <c r="M658" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N658" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O658" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P658" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="Q658" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R658" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S658" t="n">
-        <v>528</v>
+        <v>750</v>
       </c>
       <c r="T658" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="659">
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E659" t="n">
         <v>13</v>
@@ -53075,7 +53075,7 @@
       </c>
       <c r="K659" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L659" t="inlineStr">
@@ -53084,16 +53084,16 @@
         </is>
       </c>
       <c r="M659" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N659" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O659" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P659" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q659" t="inlineStr">
         <is>
@@ -53102,11 +53102,11 @@
       </c>
       <c r="R659" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S659" t="n">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="T659" t="n">
         <v>18</v>
@@ -53164,7 +53164,7 @@
         </is>
       </c>
       <c r="M660" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N660" t="n">
         <v>8000</v>
@@ -53182,7 +53182,7 @@
       </c>
       <c r="R660" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S660" t="n">
@@ -53235,7 +53235,7 @@
       </c>
       <c r="K661" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L661" t="inlineStr">
@@ -53244,7 +53244,7 @@
         </is>
       </c>
       <c r="M661" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N661" t="n">
         <v>8000</v>
@@ -53262,7 +53262,7 @@
       </c>
       <c r="R661" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S661" t="n">
@@ -53324,7 +53324,7 @@
         </is>
       </c>
       <c r="M662" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N662" t="n">
         <v>8000</v>
@@ -53342,7 +53342,7 @@
       </c>
       <c r="R662" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S662" t="n">
@@ -53404,7 +53404,7 @@
         </is>
       </c>
       <c r="M663" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N663" t="n">
         <v>8000</v>
@@ -53422,7 +53422,7 @@
       </c>
       <c r="R663" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S663" t="n">
@@ -53480,20 +53480,20 @@
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M664" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N664" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O664" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P664" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q664" t="inlineStr">
         <is>
@@ -53502,11 +53502,11 @@
       </c>
       <c r="R664" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S664" t="n">
-        <v>389</v>
+        <v>472</v>
       </c>
       <c r="T664" t="n">
         <v>18</v>
@@ -53527,7 +53527,7 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44411</v>
+        <v>44257</v>
       </c>
       <c r="E665" t="n">
         <v>13</v>
@@ -53555,41 +53555,41 @@
       </c>
       <c r="K665" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M665" t="n">
         <v>250</v>
       </c>
       <c r="N665" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O665" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P665" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q665" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R665" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S665" t="n">
-        <v>1375</v>
+        <v>389</v>
       </c>
       <c r="T665" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="666">
@@ -53607,7 +53607,7 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44175</v>
+        <v>44411</v>
       </c>
       <c r="E666" t="n">
         <v>13</v>
@@ -53635,7 +53635,7 @@
       </c>
       <c r="K666" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L666" t="inlineStr">
@@ -53647,29 +53647,29 @@
         <v>250</v>
       </c>
       <c r="N666" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O666" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P666" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q666" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R666" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S666" t="n">
-        <v>833</v>
+        <v>1375</v>
       </c>
       <c r="T666" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="667">
@@ -53687,7 +53687,7 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44196</v>
+        <v>44175</v>
       </c>
       <c r="E667" t="n">
         <v>13</v>
@@ -53724,20 +53724,20 @@
         </is>
       </c>
       <c r="M667" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N667" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O667" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P667" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="Q667" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R667" t="inlineStr">
@@ -53746,10 +53746,10 @@
         </is>
       </c>
       <c r="S667" t="n">
-        <v>600</v>
+        <v>833</v>
       </c>
       <c r="T667" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="668">
@@ -53795,7 +53795,7 @@
       </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L668" t="inlineStr">
@@ -53804,20 +53804,20 @@
         </is>
       </c>
       <c r="M668" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="N668" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="O668" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P668" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="Q668" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R668" t="inlineStr">
@@ -53826,10 +53826,10 @@
         </is>
       </c>
       <c r="S668" t="n">
-        <v>833</v>
+        <v>600</v>
       </c>
       <c r="T668" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="669">
@@ -53875,7 +53875,7 @@
       </c>
       <c r="K669" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L669" t="inlineStr">
@@ -53884,20 +53884,20 @@
         </is>
       </c>
       <c r="M669" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="N669" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O669" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P669" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q669" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R669" t="inlineStr">
@@ -53906,10 +53906,10 @@
         </is>
       </c>
       <c r="S669" t="n">
-        <v>1400</v>
+        <v>833</v>
       </c>
       <c r="T669" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="670">
@@ -53927,7 +53927,7 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="E670" t="n">
         <v>13</v>
@@ -53955,7 +53955,7 @@
       </c>
       <c r="K670" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L670" t="inlineStr">
@@ -53964,16 +53964,16 @@
         </is>
       </c>
       <c r="M670" t="n">
-        <v>480</v>
+        <v>120</v>
       </c>
       <c r="N670" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O670" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="P670" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="Q670" t="inlineStr">
         <is>
@@ -53986,7 +53986,7 @@
         </is>
       </c>
       <c r="S670" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="T670" t="n">
         <v>10</v>
@@ -54044,20 +54044,20 @@
         </is>
       </c>
       <c r="M671" t="n">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="N671" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O671" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P671" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q671" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R671" t="inlineStr">
@@ -54066,10 +54066,10 @@
         </is>
       </c>
       <c r="S671" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="T671" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="672">
@@ -54115,7 +54115,7 @@
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
@@ -54124,16 +54124,16 @@
         </is>
       </c>
       <c r="M672" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="N672" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O672" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P672" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q672" t="inlineStr">
         <is>
@@ -54146,7 +54146,7 @@
         </is>
       </c>
       <c r="S672" t="n">
-        <v>833</v>
+        <v>556</v>
       </c>
       <c r="T672" t="n">
         <v>18</v>
@@ -54167,7 +54167,7 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44188</v>
+        <v>44200</v>
       </c>
       <c r="E673" t="n">
         <v>13</v>
@@ -54195,7 +54195,7 @@
       </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L673" t="inlineStr">
@@ -54204,20 +54204,20 @@
         </is>
       </c>
       <c r="M673" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="N673" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O673" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P673" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q673" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R673" t="inlineStr">
@@ -54226,10 +54226,10 @@
         </is>
       </c>
       <c r="S673" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="T673" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="674">
@@ -54275,7 +54275,7 @@
       </c>
       <c r="K674" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L674" t="inlineStr">
@@ -54284,16 +54284,16 @@
         </is>
       </c>
       <c r="M674" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N674" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O674" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P674" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q674" t="inlineStr">
         <is>
@@ -54306,7 +54306,7 @@
         </is>
       </c>
       <c r="S674" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="T674" t="n">
         <v>10</v>
@@ -54327,7 +54327,7 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44258</v>
+        <v>44188</v>
       </c>
       <c r="E675" t="n">
         <v>13</v>
@@ -54355,7 +54355,7 @@
       </c>
       <c r="K675" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L675" t="inlineStr">
@@ -54364,32 +54364,32 @@
         </is>
       </c>
       <c r="M675" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N675" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O675" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P675" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="Q675" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R675" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S675" t="n">
-        <v>444</v>
+        <v>1600</v>
       </c>
       <c r="T675" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="676">
@@ -54447,13 +54447,13 @@
         <v>200</v>
       </c>
       <c r="N676" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O676" t="n">
         <v>8000</v>
       </c>
       <c r="P676" t="n">
-        <v>7750</v>
+        <v>8000</v>
       </c>
       <c r="Q676" t="inlineStr">
         <is>
@@ -54462,11 +54462,11 @@
       </c>
       <c r="R676" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S676" t="n">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="T676" t="n">
         <v>18</v>
@@ -54515,7 +54515,7 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L677" t="inlineStr">
@@ -54524,16 +54524,16 @@
         </is>
       </c>
       <c r="M677" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N677" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O677" t="n">
         <v>8000</v>
       </c>
-      <c r="O677" t="n">
-        <v>9000</v>
-      </c>
       <c r="P677" t="n">
-        <v>8500</v>
+        <v>7750</v>
       </c>
       <c r="Q677" t="inlineStr">
         <is>
@@ -54546,7 +54546,7 @@
         </is>
       </c>
       <c r="S677" t="n">
-        <v>472</v>
+        <v>431</v>
       </c>
       <c r="T677" t="n">
         <v>18</v>
@@ -54595,7 +54595,7 @@
       </c>
       <c r="K678" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L678" t="inlineStr">
@@ -54604,32 +54604,32 @@
         </is>
       </c>
       <c r="M678" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N678" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O678" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P678" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q678" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R678" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S678" t="n">
-        <v>700</v>
+        <v>472</v>
       </c>
       <c r="T678" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="679">
@@ -54675,7 +54675,7 @@
       </c>
       <c r="K679" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L679" t="inlineStr">
@@ -54684,32 +54684,32 @@
         </is>
       </c>
       <c r="M679" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N679" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O679" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P679" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="Q679" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R679" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S679" t="n">
-        <v>472</v>
+        <v>700</v>
       </c>
       <c r="T679" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="680">
@@ -54770,11 +54770,11 @@
         <v>8000</v>
       </c>
       <c r="O680" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P680" t="n">
         <v>8500</v>
       </c>
-      <c r="P680" t="n">
-        <v>8250</v>
-      </c>
       <c r="Q680" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
@@ -54782,11 +54782,11 @@
       </c>
       <c r="R680" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S680" t="n">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="T680" t="n">
         <v>18</v>
@@ -54840,20 +54840,20 @@
       </c>
       <c r="L681" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M681" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="N681" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O681" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="P681" t="n">
-        <v>6474</v>
+        <v>8250</v>
       </c>
       <c r="Q681" t="inlineStr">
         <is>
@@ -54862,11 +54862,11 @@
       </c>
       <c r="R681" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S681" t="n">
-        <v>360</v>
+        <v>458</v>
       </c>
       <c r="T681" t="n">
         <v>18</v>
@@ -54887,7 +54887,7 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E682" t="n">
         <v>13</v>
@@ -54915,25 +54915,25 @@
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>Moscatel rosada</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L682" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M682" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="N682" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="O682" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P682" t="n">
-        <v>11500</v>
+        <v>6474</v>
       </c>
       <c r="Q682" t="inlineStr">
         <is>
@@ -54942,11 +54942,11 @@
       </c>
       <c r="R682" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S682" t="n">
-        <v>639</v>
+        <v>360</v>
       </c>
       <c r="T682" t="n">
         <v>18</v>
@@ -54995,7 +54995,7 @@
       </c>
       <c r="K683" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Moscatel rosada</t>
         </is>
       </c>
       <c r="L683" t="inlineStr">
@@ -55004,16 +55004,16 @@
         </is>
       </c>
       <c r="M683" t="n">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="N683" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O683" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P683" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="Q683" t="inlineStr">
         <is>
@@ -55026,7 +55026,7 @@
         </is>
       </c>
       <c r="S683" t="n">
-        <v>583</v>
+        <v>639</v>
       </c>
       <c r="T683" t="n">
         <v>18</v>
@@ -55075,25 +55075,25 @@
       </c>
       <c r="K684" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N684" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O684" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P684" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="Q684" t="inlineStr">
         <is>
@@ -55106,7 +55106,7 @@
         </is>
       </c>
       <c r="S684" t="n">
-        <v>833</v>
+        <v>583</v>
       </c>
       <c r="T684" t="n">
         <v>18</v>
@@ -55160,20 +55160,20 @@
       </c>
       <c r="L685" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M685" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N685" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O685" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P685" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q685" t="inlineStr">
         <is>
@@ -55186,7 +55186,7 @@
         </is>
       </c>
       <c r="S685" t="n">
-        <v>722</v>
+        <v>833</v>
       </c>
       <c r="T685" t="n">
         <v>18</v>
@@ -55240,20 +55240,20 @@
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M686" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N686" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O686" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P686" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="Q686" t="inlineStr">
         <is>
@@ -55266,7 +55266,7 @@
         </is>
       </c>
       <c r="S686" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="T686" t="n">
         <v>18</v>
@@ -55287,7 +55287,7 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44432</v>
+        <v>44298</v>
       </c>
       <c r="E687" t="n">
         <v>13</v>
@@ -55315,7 +55315,7 @@
       </c>
       <c r="K687" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L687" t="inlineStr">
@@ -55324,7 +55324,7 @@
         </is>
       </c>
       <c r="M687" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="N687" t="n">
         <v>11000</v>
@@ -55337,19 +55337,19 @@
       </c>
       <c r="Q687" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R687" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S687" t="n">
-        <v>1100</v>
+        <v>611</v>
       </c>
       <c r="T687" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="688">
@@ -55367,7 +55367,7 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44340</v>
+        <v>44432</v>
       </c>
       <c r="E688" t="n">
         <v>13</v>
@@ -55395,29 +55395,29 @@
       </c>
       <c r="K688" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L688" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M688" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="N688" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O688" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P688" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="Q688" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R688" t="inlineStr">
@@ -55426,10 +55426,10 @@
         </is>
       </c>
       <c r="S688" t="n">
-        <v>472</v>
+        <v>1100</v>
       </c>
       <c r="T688" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="689">
@@ -55475,7 +55475,7 @@
       </c>
       <c r="K689" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L689" t="inlineStr">
@@ -55484,7 +55484,7 @@
         </is>
       </c>
       <c r="M689" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N689" t="n">
         <v>8000</v>
@@ -55564,7 +55564,7 @@
         </is>
       </c>
       <c r="M690" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N690" t="n">
         <v>8000</v>
@@ -55582,7 +55582,7 @@
       </c>
       <c r="R690" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S690" t="n">
@@ -55635,25 +55635,25 @@
       </c>
       <c r="K691" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L691" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M691" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N691" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O691" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P691" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="Q691" t="inlineStr">
         <is>
@@ -55662,11 +55662,11 @@
       </c>
       <c r="R691" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S691" t="n">
-        <v>667</v>
+        <v>472</v>
       </c>
       <c r="T691" t="n">
         <v>18</v>
@@ -55715,25 +55715,25 @@
       </c>
       <c r="K692" t="inlineStr">
         <is>
-          <t>Timco</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L692" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M692" t="n">
         <v>150</v>
       </c>
       <c r="N692" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O692" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P692" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q692" t="inlineStr">
         <is>
@@ -55746,7 +55746,7 @@
         </is>
       </c>
       <c r="S692" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T692" t="n">
         <v>18</v>
@@ -55767,7 +55767,7 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44224</v>
+        <v>44340</v>
       </c>
       <c r="E693" t="n">
         <v>13</v>
@@ -55795,7 +55795,7 @@
       </c>
       <c r="K693" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Timco</t>
         </is>
       </c>
       <c r="L693" t="inlineStr">
@@ -55804,16 +55804,16 @@
         </is>
       </c>
       <c r="M693" t="n">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="N693" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O693" t="n">
         <v>9000</v>
       </c>
       <c r="P693" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="Q693" t="inlineStr">
         <is>
@@ -55822,11 +55822,11 @@
       </c>
       <c r="R693" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S693" t="n">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="T693" t="n">
         <v>18</v>
@@ -55884,7 +55884,7 @@
         </is>
       </c>
       <c r="M694" t="n">
-        <v>240</v>
+        <v>700</v>
       </c>
       <c r="N694" t="n">
         <v>8000</v>
@@ -55902,7 +55902,7 @@
       </c>
       <c r="R694" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S694" t="n">
@@ -55955,7 +55955,7 @@
       </c>
       <c r="K695" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L695" t="inlineStr">
@@ -55964,16 +55964,16 @@
         </is>
       </c>
       <c r="M695" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="N695" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O695" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P695" t="n">
-        <v>11500</v>
+        <v>8500</v>
       </c>
       <c r="Q695" t="inlineStr">
         <is>
@@ -55982,11 +55982,11 @@
       </c>
       <c r="R695" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S695" t="n">
-        <v>639</v>
+        <v>472</v>
       </c>
       <c r="T695" t="n">
         <v>18</v>
@@ -56047,13 +56047,13 @@
         <v>500</v>
       </c>
       <c r="N696" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O696" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P696" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="Q696" t="inlineStr">
         <is>
@@ -56062,11 +56062,11 @@
       </c>
       <c r="R696" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S696" t="n">
-        <v>583</v>
+        <v>639</v>
       </c>
       <c r="T696" t="n">
         <v>18</v>
@@ -56115,25 +56115,25 @@
       </c>
       <c r="K697" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L697" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M697" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N697" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O697" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P697" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="Q697" t="inlineStr">
         <is>
@@ -56142,11 +56142,11 @@
       </c>
       <c r="R697" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S697" t="n">
-        <v>667</v>
+        <v>583</v>
       </c>
       <c r="T697" t="n">
         <v>18</v>
@@ -56167,7 +56167,7 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44329</v>
+        <v>44224</v>
       </c>
       <c r="E698" t="n">
         <v>13</v>
@@ -56195,25 +56195,25 @@
       </c>
       <c r="K698" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L698" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M698" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N698" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O698" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P698" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q698" t="inlineStr">
         <is>
@@ -56222,11 +56222,11 @@
       </c>
       <c r="R698" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S698" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T698" t="n">
         <v>18</v>
@@ -56275,25 +56275,25 @@
       </c>
       <c r="K699" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L699" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M699" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N699" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O699" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P699" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q699" t="inlineStr">
         <is>
@@ -56306,7 +56306,7 @@
         </is>
       </c>
       <c r="S699" t="n">
-        <v>528</v>
+        <v>444</v>
       </c>
       <c r="T699" t="n">
         <v>18</v>
@@ -56360,20 +56360,20 @@
       </c>
       <c r="L700" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M700" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N700" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O700" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P700" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="Q700" t="inlineStr">
         <is>
@@ -56386,7 +56386,7 @@
         </is>
       </c>
       <c r="S700" t="n">
-        <v>417</v>
+        <v>528</v>
       </c>
       <c r="T700" t="n">
         <v>18</v>
@@ -56444,16 +56444,16 @@
         </is>
       </c>
       <c r="M701" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N701" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O701" t="n">
         <v>8000</v>
       </c>
       <c r="P701" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="Q701" t="inlineStr">
         <is>
@@ -56462,11 +56462,11 @@
       </c>
       <c r="R701" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S701" t="n">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="T701" t="n">
         <v>18</v>
@@ -56520,20 +56520,20 @@
       </c>
       <c r="L702" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M702" t="n">
         <v>250</v>
       </c>
       <c r="N702" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O702" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P702" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q702" t="inlineStr">
         <is>
@@ -56546,7 +56546,7 @@
         </is>
       </c>
       <c r="S702" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="T702" t="n">
         <v>18</v>
@@ -56595,7 +56595,7 @@
       </c>
       <c r="K703" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L703" t="inlineStr">
@@ -56607,13 +56607,13 @@
         <v>250</v>
       </c>
       <c r="N703" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O703" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P703" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q703" t="inlineStr">
         <is>
@@ -56626,7 +56626,7 @@
         </is>
       </c>
       <c r="S703" t="n">
-        <v>667</v>
+        <v>333</v>
       </c>
       <c r="T703" t="n">
         <v>18</v>
@@ -56675,25 +56675,25 @@
       </c>
       <c r="K704" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L704" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M704" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="N704" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O704" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P704" t="n">
-        <v>20500</v>
+        <v>12000</v>
       </c>
       <c r="Q704" t="inlineStr">
         <is>
@@ -56702,11 +56702,11 @@
       </c>
       <c r="R704" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S704" t="n">
-        <v>1139</v>
+        <v>667</v>
       </c>
       <c r="T704" t="n">
         <v>18</v>
@@ -56760,20 +56760,20 @@
       </c>
       <c r="L705" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M705" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N705" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O705" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="P705" t="n">
-        <v>13500</v>
+        <v>20500</v>
       </c>
       <c r="Q705" t="inlineStr">
         <is>
@@ -56782,11 +56782,11 @@
       </c>
       <c r="R705" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S705" t="n">
-        <v>750</v>
+        <v>1139</v>
       </c>
       <c r="T705" t="n">
         <v>18</v>
@@ -56807,7 +56807,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44270</v>
+        <v>44329</v>
       </c>
       <c r="E706" t="n">
         <v>13</v>
@@ -56835,25 +56835,25 @@
       </c>
       <c r="K706" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L706" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M706" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N706" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O706" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P706" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="Q706" t="inlineStr">
         <is>
@@ -56862,11 +56862,11 @@
       </c>
       <c r="R706" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S706" t="n">
-        <v>472</v>
+        <v>750</v>
       </c>
       <c r="T706" t="n">
         <v>18</v>
@@ -56920,20 +56920,20 @@
       </c>
       <c r="L707" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M707" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N707" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O707" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P707" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q707" t="inlineStr">
         <is>
@@ -56946,7 +56946,7 @@
         </is>
       </c>
       <c r="S707" t="n">
-        <v>389</v>
+        <v>472</v>
       </c>
       <c r="T707" t="n">
         <v>18</v>
@@ -56995,41 +56995,41 @@
       </c>
       <c r="K708" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L708" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M708" t="n">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="N708" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O708" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P708" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q708" t="inlineStr">
         <is>
-          <t>$/bandeja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R708" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S708" t="n">
-        <v>792</v>
+        <v>389</v>
       </c>
       <c r="T708" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="709">
@@ -57084,32 +57084,32 @@
         </is>
       </c>
       <c r="M709" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N709" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O709" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P709" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="Q709" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 12 kilos</t>
         </is>
       </c>
       <c r="R709" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S709" t="n">
-        <v>722</v>
+        <v>792</v>
       </c>
       <c r="T709" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="710">
@@ -57155,7 +57155,7 @@
       </c>
       <c r="K710" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L710" t="inlineStr">
@@ -57164,16 +57164,16 @@
         </is>
       </c>
       <c r="M710" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N710" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O710" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P710" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q710" t="inlineStr">
         <is>
@@ -57186,7 +57186,7 @@
         </is>
       </c>
       <c r="S710" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="T710" t="n">
         <v>18</v>
@@ -57244,16 +57244,16 @@
         </is>
       </c>
       <c r="M711" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N711" t="n">
         <v>9000</v>
       </c>
       <c r="O711" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P711" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q711" t="inlineStr">
         <is>
@@ -57262,11 +57262,11 @@
       </c>
       <c r="R711" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S711" t="n">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="T711" t="n">
         <v>18</v>
@@ -57320,20 +57320,20 @@
       </c>
       <c r="L712" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M712" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N712" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O712" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P712" t="n">
-        <v>7750</v>
+        <v>9500</v>
       </c>
       <c r="Q712" t="inlineStr">
         <is>
@@ -57342,11 +57342,11 @@
       </c>
       <c r="R712" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S712" t="n">
-        <v>431</v>
+        <v>528</v>
       </c>
       <c r="T712" t="n">
         <v>18</v>
@@ -57404,16 +57404,16 @@
         </is>
       </c>
       <c r="M713" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N713" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="O713" t="n">
         <v>8000</v>
       </c>
       <c r="P713" t="n">
-        <v>8000</v>
+        <v>7750</v>
       </c>
       <c r="Q713" t="inlineStr">
         <is>
@@ -57422,11 +57422,11 @@
       </c>
       <c r="R713" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S713" t="n">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="T713" t="n">
         <v>18</v>
@@ -57447,7 +57447,7 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44195</v>
+        <v>44270</v>
       </c>
       <c r="E714" t="n">
         <v>13</v>
@@ -57475,41 +57475,41 @@
       </c>
       <c r="K714" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L714" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M714" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N714" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O714" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P714" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q714" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R714" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S714" t="n">
-        <v>600</v>
+        <v>444</v>
       </c>
       <c r="T714" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="715">
@@ -57555,7 +57555,7 @@
       </c>
       <c r="K715" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L715" t="inlineStr">
@@ -57564,16 +57564,16 @@
         </is>
       </c>
       <c r="M715" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N715" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O715" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="P715" t="n">
-        <v>14500</v>
+        <v>6000</v>
       </c>
       <c r="Q715" t="inlineStr">
         <is>
@@ -57586,7 +57586,7 @@
         </is>
       </c>
       <c r="S715" t="n">
-        <v>1450</v>
+        <v>600</v>
       </c>
       <c r="T715" t="n">
         <v>10</v>
@@ -57635,7 +57635,7 @@
       </c>
       <c r="K716" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L716" t="inlineStr">
@@ -57644,20 +57644,20 @@
         </is>
       </c>
       <c r="M716" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N716" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O716" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P716" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="Q716" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R716" t="inlineStr">
@@ -57666,10 +57666,10 @@
         </is>
       </c>
       <c r="S716" t="n">
-        <v>944</v>
+        <v>1450</v>
       </c>
       <c r="T716" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="717">
@@ -57715,7 +57715,7 @@
       </c>
       <c r="K717" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L717" t="inlineStr">
@@ -57724,20 +57724,20 @@
         </is>
       </c>
       <c r="M717" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="N717" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O717" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P717" t="n">
-        <v>11548</v>
+        <v>17000</v>
       </c>
       <c r="Q717" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R717" t="inlineStr">
@@ -57746,10 +57746,10 @@
         </is>
       </c>
       <c r="S717" t="n">
-        <v>1155</v>
+        <v>944</v>
       </c>
       <c r="T717" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="718">
@@ -57800,24 +57800,24 @@
       </c>
       <c r="L718" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M718" t="n">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="N718" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O718" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P718" t="n">
-        <v>16000</v>
+        <v>11548</v>
       </c>
       <c r="Q718" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R718" t="inlineStr">
@@ -57826,10 +57826,10 @@
         </is>
       </c>
       <c r="S718" t="n">
-        <v>889</v>
+        <v>1155</v>
       </c>
       <c r="T718" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="719">
@@ -57847,7 +57847,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44536</v>
+        <v>44195</v>
       </c>
       <c r="E719" t="n">
         <v>13</v>
@@ -57875,41 +57875,41 @@
       </c>
       <c r="K719" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L719" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M719" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N719" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O719" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P719" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Q719" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R719" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S719" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T719" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="720">
@@ -57960,20 +57960,20 @@
       </c>
       <c r="L720" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M720" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="N720" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O720" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P720" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q720" t="inlineStr">
         <is>
@@ -57986,7 +57986,7 @@
         </is>
       </c>
       <c r="S720" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T720" t="n">
         <v>10</v>
@@ -58035,25 +58035,25 @@
       </c>
       <c r="K721" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L721" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M721" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N721" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="O721" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="P721" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="Q721" t="inlineStr">
         <is>
@@ -58066,7 +58066,7 @@
         </is>
       </c>
       <c r="S721" t="n">
-        <v>2300</v>
+        <v>800</v>
       </c>
       <c r="T721" t="n">
         <v>10</v>
@@ -58115,7 +58115,7 @@
       </c>
       <c r="K722" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L722" t="inlineStr">
@@ -58124,16 +58124,16 @@
         </is>
       </c>
       <c r="M722" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N722" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="O722" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="P722" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="Q722" t="inlineStr">
         <is>
@@ -58146,7 +58146,7 @@
         </is>
       </c>
       <c r="S722" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="T722" t="n">
         <v>10</v>
@@ -58167,7 +58167,7 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44239</v>
+        <v>44536</v>
       </c>
       <c r="E723" t="n">
         <v>13</v>
@@ -58195,7 +58195,7 @@
       </c>
       <c r="K723" t="inlineStr">
         <is>
-          <t>Black Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L723" t="inlineStr">
@@ -58204,32 +58204,32 @@
         </is>
       </c>
       <c r="M723" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="N723" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O723" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P723" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="Q723" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R723" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S723" t="n">
-        <v>389</v>
+        <v>2000</v>
       </c>
       <c r="T723" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="724">
@@ -58275,7 +58275,7 @@
       </c>
       <c r="K724" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Black Seedless</t>
         </is>
       </c>
       <c r="L724" t="inlineStr">
@@ -58284,7 +58284,7 @@
         </is>
       </c>
       <c r="M724" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N724" t="n">
         <v>7000</v>
@@ -58355,7 +58355,7 @@
       </c>
       <c r="K725" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L725" t="inlineStr">
@@ -58364,16 +58364,16 @@
         </is>
       </c>
       <c r="M725" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="N725" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O725" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P725" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q725" t="inlineStr">
         <is>
@@ -58386,7 +58386,7 @@
         </is>
       </c>
       <c r="S725" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T725" t="n">
         <v>18</v>
@@ -58440,20 +58440,20 @@
       </c>
       <c r="L726" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M726" t="n">
         <v>350</v>
       </c>
       <c r="N726" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O726" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P726" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q726" t="inlineStr">
         <is>
@@ -58466,7 +58466,7 @@
         </is>
       </c>
       <c r="S726" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="T726" t="n">
         <v>18</v>
@@ -58515,25 +58515,25 @@
       </c>
       <c r="K727" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L727" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M727" t="n">
-        <v>670</v>
+        <v>350</v>
       </c>
       <c r="N727" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O727" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P727" t="n">
-        <v>7478</v>
+        <v>6000</v>
       </c>
       <c r="Q727" t="inlineStr">
         <is>
@@ -58542,11 +58542,11 @@
       </c>
       <c r="R727" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S727" t="n">
-        <v>415</v>
+        <v>333</v>
       </c>
       <c r="T727" t="n">
         <v>18</v>
@@ -58600,20 +58600,20 @@
       </c>
       <c r="L728" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M728" t="n">
-        <v>270</v>
+        <v>670</v>
       </c>
       <c r="N728" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O728" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P728" t="n">
-        <v>6000</v>
+        <v>7478</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
@@ -58626,7 +58626,7 @@
         </is>
       </c>
       <c r="S728" t="n">
-        <v>333</v>
+        <v>415</v>
       </c>
       <c r="T728" t="n">
         <v>18</v>
@@ -58647,7 +58647,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44344</v>
+        <v>44239</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -58675,29 +58675,29 @@
       </c>
       <c r="K729" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L729" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M729" t="n">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="N729" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O729" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P729" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R729" t="inlineStr">
@@ -58706,10 +58706,10 @@
         </is>
       </c>
       <c r="S729" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="T729" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="730">
@@ -58764,32 +58764,32 @@
         </is>
       </c>
       <c r="M730" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N730" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O730" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P730" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R730" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S730" t="n">
-        <v>417</v>
+        <v>500</v>
       </c>
       <c r="T730" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="731">
@@ -58840,20 +58840,20 @@
       </c>
       <c r="L731" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M731" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N731" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O731" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P731" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
@@ -58866,7 +58866,7 @@
         </is>
       </c>
       <c r="S731" t="n">
-        <v>333</v>
+        <v>417</v>
       </c>
       <c r="T731" t="n">
         <v>18</v>
@@ -58920,20 +58920,20 @@
       </c>
       <c r="L732" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M732" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="N732" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O732" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P732" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
@@ -58946,7 +58946,7 @@
         </is>
       </c>
       <c r="S732" t="n">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="T732" t="n">
         <v>18</v>
@@ -58995,25 +58995,25 @@
       </c>
       <c r="K733" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L733" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M733" t="n">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="N733" t="n">
-        <v>7500</v>
+        <v>4000</v>
       </c>
       <c r="O733" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P733" t="n">
-        <v>7750</v>
+        <v>4000</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
@@ -59022,11 +59022,11 @@
       </c>
       <c r="R733" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S733" t="n">
-        <v>431</v>
+        <v>222</v>
       </c>
       <c r="T733" t="n">
         <v>18</v>
@@ -59084,7 +59084,7 @@
         </is>
       </c>
       <c r="M734" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N734" t="n">
         <v>7500</v>
@@ -59102,7 +59102,7 @@
       </c>
       <c r="R734" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S734" t="n">
@@ -59155,25 +59155,25 @@
       </c>
       <c r="K735" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L735" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M735" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N735" t="n">
-        <v>18000</v>
+        <v>7500</v>
       </c>
       <c r="O735" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P735" t="n">
-        <v>18000</v>
+        <v>7750</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
@@ -59182,11 +59182,11 @@
       </c>
       <c r="R735" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S735" t="n">
-        <v>1000</v>
+        <v>431</v>
       </c>
       <c r="T735" t="n">
         <v>18</v>
@@ -59235,25 +59235,25 @@
       </c>
       <c r="K736" t="inlineStr">
         <is>
-          <t>Torontel blanca</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L736" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M736" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N736" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O736" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P736" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
@@ -59262,11 +59262,11 @@
       </c>
       <c r="R736" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S736" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T736" t="n">
         <v>18</v>
@@ -59287,7 +59287,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44357</v>
+        <v>44344</v>
       </c>
       <c r="E737" t="n">
         <v>13</v>
@@ -59315,7 +59315,7 @@
       </c>
       <c r="K737" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Torontel blanca</t>
         </is>
       </c>
       <c r="L737" t="inlineStr">
@@ -59324,16 +59324,16 @@
         </is>
       </c>
       <c r="M737" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="N737" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O737" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P737" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q737" t="inlineStr">
         <is>
@@ -59342,11 +59342,11 @@
       </c>
       <c r="R737" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S737" t="n">
-        <v>472</v>
+        <v>556</v>
       </c>
       <c r="T737" t="n">
         <v>18</v>
@@ -59367,7 +59367,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44371</v>
+        <v>44357</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -59395,25 +59395,25 @@
       </c>
       <c r="K738" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L738" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M738" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="N738" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O738" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P738" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="Q738" t="inlineStr">
         <is>
@@ -59422,11 +59422,11 @@
       </c>
       <c r="R738" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S738" t="n">
-        <v>556</v>
+        <v>472</v>
       </c>
       <c r="T738" t="n">
         <v>18</v>
@@ -59447,7 +59447,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44194</v>
+        <v>44371</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -59475,41 +59475,41 @@
       </c>
       <c r="K739" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L739" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M739" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N739" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O739" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P739" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R739" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S739" t="n">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="T739" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="740">
@@ -59555,7 +59555,7 @@
       </c>
       <c r="K740" t="inlineStr">
         <is>
-          <t>Ralli Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L740" t="inlineStr">
@@ -59564,16 +59564,16 @@
         </is>
       </c>
       <c r="M740" t="n">
-        <v>298</v>
+        <v>400</v>
       </c>
       <c r="N740" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O740" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P740" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
@@ -59582,11 +59582,11 @@
       </c>
       <c r="R740" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S740" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="T740" t="n">
         <v>10</v>
@@ -59635,7 +59635,7 @@
       </c>
       <c r="K741" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Ralli Seedless</t>
         </is>
       </c>
       <c r="L741" t="inlineStr">
@@ -59644,32 +59644,32 @@
         </is>
       </c>
       <c r="M741" t="n">
-        <v>360</v>
+        <v>298</v>
       </c>
       <c r="N741" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O741" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="P741" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R741" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S741" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T741" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="742">
@@ -59687,7 +59687,7 @@
         </is>
       </c>
       <c r="D742" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E742" t="n">
         <v>13</v>
@@ -59715,7 +59715,7 @@
       </c>
       <c r="K742" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L742" t="inlineStr">
@@ -59724,16 +59724,16 @@
         </is>
       </c>
       <c r="M742" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="N742" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O742" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="P742" t="n">
-        <v>8500</v>
+        <v>17000</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
@@ -59746,7 +59746,7 @@
         </is>
       </c>
       <c r="S742" t="n">
-        <v>472</v>
+        <v>944</v>
       </c>
       <c r="T742" t="n">
         <v>18</v>
@@ -59804,16 +59804,16 @@
         </is>
       </c>
       <c r="M743" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N743" t="n">
         <v>8000</v>
       </c>
       <c r="O743" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P743" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
@@ -59822,11 +59822,11 @@
       </c>
       <c r="R743" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S743" t="n">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="T743" t="n">
         <v>18</v>
@@ -59884,16 +59884,16 @@
         </is>
       </c>
       <c r="M744" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N744" t="n">
         <v>8000</v>
       </c>
       <c r="O744" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P744" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
@@ -59902,11 +59902,11 @@
       </c>
       <c r="R744" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S744" t="n">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="T744" t="n">
         <v>18</v>
@@ -59960,20 +59960,20 @@
       </c>
       <c r="L745" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M745" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N745" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O745" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P745" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
@@ -59986,7 +59986,7 @@
         </is>
       </c>
       <c r="S745" t="n">
-        <v>361</v>
+        <v>472</v>
       </c>
       <c r="T745" t="n">
         <v>18</v>
@@ -60035,41 +60035,41 @@
       </c>
       <c r="K746" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L746" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M746" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="N746" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O746" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P746" t="n">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R746" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S746" t="n">
-        <v>850</v>
+        <v>361</v>
       </c>
       <c r="T746" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="747">
@@ -60115,7 +60115,7 @@
       </c>
       <c r="K747" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L747" t="inlineStr">
@@ -60124,32 +60124,32 @@
         </is>
       </c>
       <c r="M747" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N747" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O747" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P747" t="n">
-        <v>16000</v>
+        <v>8500</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R747" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S747" t="n">
-        <v>889</v>
+        <v>850</v>
       </c>
       <c r="T747" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="748">
@@ -60207,13 +60207,13 @@
         <v>200</v>
       </c>
       <c r="N748" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O748" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P748" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q748" t="inlineStr">
         <is>
@@ -60222,11 +60222,11 @@
       </c>
       <c r="R748" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S748" t="n">
-        <v>778</v>
+        <v>889</v>
       </c>
       <c r="T748" t="n">
         <v>18</v>
@@ -60284,16 +60284,16 @@
         </is>
       </c>
       <c r="M749" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N749" t="n">
         <v>14000</v>
       </c>
       <c r="O749" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P749" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
@@ -60302,11 +60302,11 @@
       </c>
       <c r="R749" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S749" t="n">
-        <v>806</v>
+        <v>778</v>
       </c>
       <c r="T749" t="n">
         <v>18</v>
@@ -60360,20 +60360,20 @@
       </c>
       <c r="L750" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M750" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N750" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O750" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P750" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
@@ -60382,11 +60382,11 @@
       </c>
       <c r="R750" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S750" t="n">
-        <v>611</v>
+        <v>806</v>
       </c>
       <c r="T750" t="n">
         <v>18</v>
@@ -60440,20 +60440,20 @@
       </c>
       <c r="L751" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M751" t="n">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="N751" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O751" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P751" t="n">
-        <v>8682</v>
+        <v>11000</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
@@ -60466,7 +60466,7 @@
         </is>
       </c>
       <c r="S751" t="n">
-        <v>482</v>
+        <v>611</v>
       </c>
       <c r="T751" t="n">
         <v>18</v>
@@ -60515,25 +60515,25 @@
       </c>
       <c r="K752" t="inlineStr">
         <is>
-          <t>Timco</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L752" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M752" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="N752" t="n">
         <v>8000</v>
       </c>
       <c r="O752" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P752" t="n">
-        <v>8000</v>
+        <v>8682</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
@@ -60546,7 +60546,7 @@
         </is>
       </c>
       <c r="S752" t="n">
-        <v>444</v>
+        <v>482</v>
       </c>
       <c r="T752" t="n">
         <v>18</v>
@@ -60567,7 +60567,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44540</v>
+        <v>44313</v>
       </c>
       <c r="E753" t="n">
         <v>13</v>
@@ -60595,7 +60595,7 @@
       </c>
       <c r="K753" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Timco</t>
         </is>
       </c>
       <c r="L753" t="inlineStr">
@@ -60610,26 +60610,26 @@
         <v>8000</v>
       </c>
       <c r="O753" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P753" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R753" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S753" t="n">
-        <v>850</v>
+        <v>444</v>
       </c>
       <c r="T753" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="754">
@@ -60675,7 +60675,7 @@
       </c>
       <c r="K754" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L754" t="inlineStr">
@@ -60684,16 +60684,16 @@
         </is>
       </c>
       <c r="M754" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N754" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="O754" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="P754" t="n">
-        <v>18000</v>
+        <v>8500</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
@@ -60706,7 +60706,7 @@
         </is>
       </c>
       <c r="S754" t="n">
-        <v>1800</v>
+        <v>850</v>
       </c>
       <c r="T754" t="n">
         <v>10</v>
@@ -60727,7 +60727,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E755" t="n">
         <v>13</v>
@@ -60755,7 +60755,7 @@
       </c>
       <c r="K755" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L755" t="inlineStr">
@@ -60764,32 +60764,32 @@
         </is>
       </c>
       <c r="M755" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N755" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="O755" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P755" t="n">
-        <v>7750</v>
+        <v>18000</v>
       </c>
       <c r="Q755" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R755" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S755" t="n">
-        <v>431</v>
+        <v>1800</v>
       </c>
       <c r="T755" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="756">
@@ -60835,7 +60835,7 @@
       </c>
       <c r="K756" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L756" t="inlineStr">
@@ -60844,16 +60844,16 @@
         </is>
       </c>
       <c r="M756" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N756" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="O756" t="n">
         <v>8000</v>
       </c>
       <c r="P756" t="n">
-        <v>8000</v>
+        <v>7750</v>
       </c>
       <c r="Q756" t="inlineStr">
         <is>
@@ -60866,7 +60866,7 @@
         </is>
       </c>
       <c r="S756" t="n">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="T756" t="n">
         <v>18</v>
@@ -60924,16 +60924,16 @@
         </is>
       </c>
       <c r="M757" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N757" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O757" t="n">
         <v>8000</v>
       </c>
       <c r="P757" t="n">
-        <v>7750</v>
+        <v>8000</v>
       </c>
       <c r="Q757" t="inlineStr">
         <is>
@@ -60942,11 +60942,11 @@
       </c>
       <c r="R757" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S757" t="n">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="T757" t="n">
         <v>18</v>
@@ -60995,7 +60995,7 @@
       </c>
       <c r="K758" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L758" t="inlineStr">
@@ -61007,29 +61007,29 @@
         <v>300</v>
       </c>
       <c r="N758" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O758" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P758" t="n">
-        <v>9000</v>
+        <v>7750</v>
       </c>
       <c r="Q758" t="inlineStr">
         <is>
-          <t>$/bandeja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R758" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S758" t="n">
-        <v>750</v>
+        <v>431</v>
       </c>
       <c r="T758" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="759">
@@ -61084,20 +61084,20 @@
         </is>
       </c>
       <c r="M759" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N759" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O759" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P759" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q759" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 12 kilos</t>
         </is>
       </c>
       <c r="R759" t="inlineStr">
@@ -61106,10 +61106,10 @@
         </is>
       </c>
       <c r="S759" t="n">
-        <v>722</v>
+        <v>750</v>
       </c>
       <c r="T759" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="760">
@@ -61160,20 +61160,20 @@
       </c>
       <c r="L760" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M760" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N760" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O760" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P760" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="Q760" t="inlineStr">
         <is>
@@ -61186,7 +61186,7 @@
         </is>
       </c>
       <c r="S760" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="T760" t="n">
         <v>18</v>
@@ -61235,25 +61235,25 @@
       </c>
       <c r="K761" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L761" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M761" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N761" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O761" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P761" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q761" t="inlineStr">
         <is>
@@ -61262,11 +61262,11 @@
       </c>
       <c r="R761" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S761" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T761" t="n">
         <v>18</v>
@@ -61320,20 +61320,20 @@
       </c>
       <c r="L762" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M762" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N762" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O762" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P762" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q762" t="inlineStr">
         <is>
@@ -61346,7 +61346,7 @@
         </is>
       </c>
       <c r="S762" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T762" t="n">
         <v>18</v>
@@ -61400,35 +61400,115 @@
       </c>
       <c r="L763" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M763" t="n">
+        <v>200</v>
+      </c>
+      <c r="N763" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O763" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P763" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q763" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R763" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S763" t="n">
+        <v>444</v>
+      </c>
+      <c r="T763" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>6</v>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D764" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E764" t="n">
+        <v>13</v>
+      </c>
+      <c r="F764" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G764" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H764" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I764" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J764" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>Thompson seedless</t>
+        </is>
+      </c>
+      <c r="L764" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M763" t="n">
+      <c r="M764" t="n">
         <v>100</v>
       </c>
-      <c r="N763" t="n">
+      <c r="N764" t="n">
         <v>7000</v>
       </c>
-      <c r="O763" t="n">
+      <c r="O764" t="n">
         <v>7000</v>
       </c>
-      <c r="P763" t="n">
+      <c r="P764" t="n">
         <v>7000</v>
       </c>
-      <c r="Q763" t="inlineStr">
+      <c r="Q764" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="R763" t="inlineStr">
+      <c r="R764" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="S763" t="n">
+      <c r="S764" t="n">
         <v>389</v>
       </c>
-      <c r="T763" t="n">
+      <c r="T764" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Uva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Uva.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T778"/>
+  <dimension ref="A1:T780"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60487,7 +60487,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44357</v>
+        <v>44568</v>
       </c>
       <c r="E752" t="n">
         <v>13</v>
@@ -60515,7 +60515,7 @@
       </c>
       <c r="K752" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L752" t="inlineStr">
@@ -60524,32 +60524,32 @@
         </is>
       </c>
       <c r="M752" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="N752" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O752" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P752" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R752" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S752" t="n">
-        <v>472</v>
+        <v>800</v>
       </c>
       <c r="T752" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="753">
@@ -60567,7 +60567,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44371</v>
+        <v>44568</v>
       </c>
       <c r="E753" t="n">
         <v>13</v>
@@ -60595,41 +60595,41 @@
       </c>
       <c r="K753" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L753" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M753" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N753" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O753" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P753" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R753" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S753" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="T753" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="754">
@@ -60647,7 +60647,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44194</v>
+        <v>44357</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -60675,7 +60675,7 @@
       </c>
       <c r="K754" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L754" t="inlineStr">
@@ -60684,32 +60684,32 @@
         </is>
       </c>
       <c r="M754" t="n">
-        <v>400</v>
+        <v>170</v>
       </c>
       <c r="N754" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O754" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P754" t="n">
-        <v>5500</v>
+        <v>8500</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R754" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S754" t="n">
-        <v>550</v>
+        <v>472</v>
       </c>
       <c r="T754" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="755">
@@ -60727,7 +60727,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44194</v>
+        <v>44371</v>
       </c>
       <c r="E755" t="n">
         <v>13</v>
@@ -60755,16 +60755,16 @@
       </c>
       <c r="K755" t="inlineStr">
         <is>
-          <t>Ralli Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L755" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M755" t="n">
-        <v>298</v>
+        <v>150</v>
       </c>
       <c r="N755" t="n">
         <v>10000</v>
@@ -60777,19 +60777,19 @@
       </c>
       <c r="Q755" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R755" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S755" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T755" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="756">
@@ -60835,7 +60835,7 @@
       </c>
       <c r="K756" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L756" t="inlineStr">
@@ -60844,20 +60844,20 @@
         </is>
       </c>
       <c r="M756" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="N756" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="O756" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="P756" t="n">
-        <v>17000</v>
+        <v>5500</v>
       </c>
       <c r="Q756" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R756" t="inlineStr">
@@ -60866,10 +60866,10 @@
         </is>
       </c>
       <c r="S756" t="n">
-        <v>944</v>
+        <v>550</v>
       </c>
       <c r="T756" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="757">
@@ -60887,7 +60887,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E757" t="n">
         <v>13</v>
@@ -60915,7 +60915,7 @@
       </c>
       <c r="K757" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Ralli Seedless</t>
         </is>
       </c>
       <c r="L757" t="inlineStr">
@@ -60924,32 +60924,32 @@
         </is>
       </c>
       <c r="M757" t="n">
-        <v>500</v>
+        <v>298</v>
       </c>
       <c r="N757" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O757" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P757" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q757" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R757" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="S757" t="n">
-        <v>472</v>
+        <v>1000</v>
       </c>
       <c r="T757" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="758">
@@ -60967,7 +60967,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44313</v>
+        <v>44194</v>
       </c>
       <c r="E758" t="n">
         <v>13</v>
@@ -60995,7 +60995,7 @@
       </c>
       <c r="K758" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L758" t="inlineStr">
@@ -61004,16 +61004,16 @@
         </is>
       </c>
       <c r="M758" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="N758" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O758" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P758" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="Q758" t="inlineStr">
         <is>
@@ -61022,11 +61022,11 @@
       </c>
       <c r="R758" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S758" t="n">
-        <v>444</v>
+        <v>944</v>
       </c>
       <c r="T758" t="n">
         <v>18</v>
@@ -61084,7 +61084,7 @@
         </is>
       </c>
       <c r="M759" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N759" t="n">
         <v>8000</v>
@@ -61102,7 +61102,7 @@
       </c>
       <c r="R759" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S759" t="n">
@@ -61160,20 +61160,20 @@
       </c>
       <c r="L760" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M760" t="n">
         <v>250</v>
       </c>
       <c r="N760" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O760" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P760" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="Q760" t="inlineStr">
         <is>
@@ -61182,11 +61182,11 @@
       </c>
       <c r="R760" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S760" t="n">
-        <v>361</v>
+        <v>444</v>
       </c>
       <c r="T760" t="n">
         <v>18</v>
@@ -61235,7 +61235,7 @@
       </c>
       <c r="K761" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L761" t="inlineStr">
@@ -61244,7 +61244,7 @@
         </is>
       </c>
       <c r="M761" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N761" t="n">
         <v>8000</v>
@@ -61257,19 +61257,19 @@
       </c>
       <c r="Q761" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R761" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S761" t="n">
-        <v>850</v>
+        <v>472</v>
       </c>
       <c r="T761" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="762">
@@ -61315,25 +61315,25 @@
       </c>
       <c r="K762" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L762" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M762" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N762" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="O762" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="P762" t="n">
-        <v>16000</v>
+        <v>6500</v>
       </c>
       <c r="Q762" t="inlineStr">
         <is>
@@ -61342,11 +61342,11 @@
       </c>
       <c r="R762" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S762" t="n">
-        <v>889</v>
+        <v>361</v>
       </c>
       <c r="T762" t="n">
         <v>18</v>
@@ -61395,7 +61395,7 @@
       </c>
       <c r="K763" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L763" t="inlineStr">
@@ -61404,32 +61404,32 @@
         </is>
       </c>
       <c r="M763" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N763" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O763" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P763" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="Q763" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R763" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S763" t="n">
-        <v>778</v>
+        <v>850</v>
       </c>
       <c r="T763" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="764">
@@ -61484,16 +61484,16 @@
         </is>
       </c>
       <c r="M764" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N764" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O764" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P764" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="Q764" t="inlineStr">
         <is>
@@ -61502,11 +61502,11 @@
       </c>
       <c r="R764" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S764" t="n">
-        <v>806</v>
+        <v>889</v>
       </c>
       <c r="T764" t="n">
         <v>18</v>
@@ -61560,20 +61560,20 @@
       </c>
       <c r="L765" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M765" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N765" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O765" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P765" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="Q765" t="inlineStr">
         <is>
@@ -61586,7 +61586,7 @@
         </is>
       </c>
       <c r="S765" t="n">
-        <v>611</v>
+        <v>778</v>
       </c>
       <c r="T765" t="n">
         <v>18</v>
@@ -61640,20 +61640,20 @@
       </c>
       <c r="L766" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M766" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="N766" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O766" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P766" t="n">
-        <v>8682</v>
+        <v>14500</v>
       </c>
       <c r="Q766" t="inlineStr">
         <is>
@@ -61662,11 +61662,11 @@
       </c>
       <c r="R766" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S766" t="n">
-        <v>482</v>
+        <v>806</v>
       </c>
       <c r="T766" t="n">
         <v>18</v>
@@ -61715,25 +61715,25 @@
       </c>
       <c r="K767" t="inlineStr">
         <is>
-          <t>Timco</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L767" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M767" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N767" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O767" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P767" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q767" t="inlineStr">
         <is>
@@ -61746,7 +61746,7 @@
         </is>
       </c>
       <c r="S767" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="T767" t="n">
         <v>18</v>
@@ -61767,7 +61767,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44540</v>
+        <v>44313</v>
       </c>
       <c r="E768" t="n">
         <v>13</v>
@@ -61795,41 +61795,41 @@
       </c>
       <c r="K768" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L768" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M768" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="N768" t="n">
         <v>8000</v>
       </c>
       <c r="O768" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P768" t="n">
-        <v>8500</v>
+        <v>8682</v>
       </c>
       <c r="Q768" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R768" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S768" t="n">
-        <v>850</v>
+        <v>482</v>
       </c>
       <c r="T768" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="769">
@@ -61847,7 +61847,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44540</v>
+        <v>44313</v>
       </c>
       <c r="E769" t="n">
         <v>13</v>
@@ -61875,7 +61875,7 @@
       </c>
       <c r="K769" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Timco</t>
         </is>
       </c>
       <c r="L769" t="inlineStr">
@@ -61884,32 +61884,32 @@
         </is>
       </c>
       <c r="M769" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N769" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="O769" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P769" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="Q769" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R769" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S769" t="n">
-        <v>1800</v>
+        <v>444</v>
       </c>
       <c r="T769" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="770">
@@ -61927,7 +61927,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E770" t="n">
         <v>13</v>
@@ -61964,32 +61964,32 @@
         </is>
       </c>
       <c r="M770" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N770" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O770" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P770" t="n">
-        <v>7750</v>
+        <v>8500</v>
       </c>
       <c r="Q770" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R770" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S770" t="n">
-        <v>431</v>
+        <v>850</v>
       </c>
       <c r="T770" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="771">
@@ -62007,7 +62007,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E771" t="n">
         <v>13</v>
@@ -62044,32 +62044,32 @@
         </is>
       </c>
       <c r="M771" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N771" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O771" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P771" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="Q771" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R771" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S771" t="n">
-        <v>444</v>
+        <v>1800</v>
       </c>
       <c r="T771" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="772">
@@ -62115,7 +62115,7 @@
       </c>
       <c r="K772" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L772" t="inlineStr">
@@ -62124,7 +62124,7 @@
         </is>
       </c>
       <c r="M772" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N772" t="n">
         <v>7500</v>
@@ -62142,7 +62142,7 @@
       </c>
       <c r="R772" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S772" t="n">
@@ -62195,7 +62195,7 @@
       </c>
       <c r="K773" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L773" t="inlineStr">
@@ -62204,32 +62204,32 @@
         </is>
       </c>
       <c r="M773" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N773" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O773" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P773" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q773" t="inlineStr">
         <is>
-          <t>$/bandeja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R773" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S773" t="n">
-        <v>750</v>
+        <v>444</v>
       </c>
       <c r="T773" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="774">
@@ -62275,7 +62275,7 @@
       </c>
       <c r="K774" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L774" t="inlineStr">
@@ -62284,16 +62284,16 @@
         </is>
       </c>
       <c r="M774" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N774" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="O774" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P774" t="n">
-        <v>13000</v>
+        <v>7750</v>
       </c>
       <c r="Q774" t="inlineStr">
         <is>
@@ -62302,11 +62302,11 @@
       </c>
       <c r="R774" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S774" t="n">
-        <v>722</v>
+        <v>431</v>
       </c>
       <c r="T774" t="n">
         <v>18</v>
@@ -62360,11 +62360,11 @@
       </c>
       <c r="L775" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M775" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N775" t="n">
         <v>9000</v>
@@ -62377,7 +62377,7 @@
       </c>
       <c r="Q775" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 12 kilos</t>
         </is>
       </c>
       <c r="R775" t="inlineStr">
@@ -62386,10 +62386,10 @@
         </is>
       </c>
       <c r="S775" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T775" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="776">
@@ -62435,25 +62435,25 @@
       </c>
       <c r="K776" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L776" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M776" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N776" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O776" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P776" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q776" t="inlineStr">
         <is>
@@ -62462,11 +62462,11 @@
       </c>
       <c r="R776" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S776" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T776" t="n">
         <v>18</v>
@@ -62515,25 +62515,25 @@
       </c>
       <c r="K777" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L777" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M777" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N777" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O777" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P777" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q777" t="inlineStr">
         <is>
@@ -62542,11 +62542,11 @@
       </c>
       <c r="R777" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S777" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T777" t="n">
         <v>18</v>
@@ -62600,35 +62600,195 @@
       </c>
       <c r="L778" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M778" t="n">
         <v>100</v>
       </c>
       <c r="N778" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O778" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P778" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q778" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R778" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S778" t="n">
+        <v>556</v>
+      </c>
+      <c r="T778" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>6</v>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D779" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E779" t="n">
+        <v>13</v>
+      </c>
+      <c r="F779" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G779" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H779" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I779" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J779" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>Thompson seedless</t>
+        </is>
+      </c>
+      <c r="L779" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M779" t="n">
+        <v>200</v>
+      </c>
+      <c r="N779" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O779" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P779" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q779" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R779" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S779" t="n">
+        <v>444</v>
+      </c>
+      <c r="T779" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>6</v>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D780" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E780" t="n">
+        <v>13</v>
+      </c>
+      <c r="F780" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G780" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H780" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I780" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J780" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>Thompson seedless</t>
+        </is>
+      </c>
+      <c r="L780" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M780" t="n">
+        <v>100</v>
+      </c>
+      <c r="N780" t="n">
         <v>7000</v>
       </c>
-      <c r="O778" t="n">
+      <c r="O780" t="n">
         <v>7000</v>
       </c>
-      <c r="P778" t="n">
+      <c r="P780" t="n">
         <v>7000</v>
       </c>
-      <c r="Q778" t="inlineStr">
+      <c r="Q780" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="R778" t="inlineStr">
+      <c r="R780" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="S778" t="n">
+      <c r="S780" t="n">
         <v>389</v>
       </c>
-      <c r="T778" t="n">
+      <c r="T780" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Uva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Uva.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T793"/>
+  <dimension ref="A1:T796"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58567,7 +58567,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44293</v>
+        <v>44578</v>
       </c>
       <c r="E728" t="n">
         <v>13</v>
@@ -58595,7 +58595,7 @@
       </c>
       <c r="K728" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L728" t="inlineStr">
@@ -58604,32 +58604,32 @@
         </is>
       </c>
       <c r="M728" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="N728" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O728" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P728" t="n">
-        <v>8000</v>
+        <v>10600</v>
       </c>
       <c r="Q728" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R728" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S728" t="n">
-        <v>444</v>
+        <v>662</v>
       </c>
       <c r="T728" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="729">
@@ -58647,7 +58647,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44293</v>
+        <v>44578</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -58675,7 +58675,7 @@
       </c>
       <c r="K729" t="inlineStr">
         <is>
-          <t>Moscatel rosada</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L729" t="inlineStr">
@@ -58684,20 +58684,20 @@
         </is>
       </c>
       <c r="M729" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="N729" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O729" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P729" t="n">
-        <v>9000</v>
+        <v>14214</v>
       </c>
       <c r="Q729" t="inlineStr">
         <is>
-          <t>$/bandeja 12 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R729" t="inlineStr">
@@ -58706,10 +58706,10 @@
         </is>
       </c>
       <c r="S729" t="n">
-        <v>750</v>
+        <v>888</v>
       </c>
       <c r="T729" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="730">
@@ -58727,7 +58727,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44293</v>
+        <v>44578</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -58755,25 +58755,25 @@
       </c>
       <c r="K730" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L730" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M730" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N730" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O730" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P730" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q730" t="inlineStr">
         <is>
@@ -58782,11 +58782,11 @@
       </c>
       <c r="R730" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S730" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T730" t="n">
         <v>18</v>
@@ -58835,7 +58835,7 @@
       </c>
       <c r="K731" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L731" t="inlineStr">
@@ -58844,16 +58844,16 @@
         </is>
       </c>
       <c r="M731" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N731" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O731" t="n">
         <v>8000</v>
       </c>
       <c r="P731" t="n">
-        <v>7750</v>
+        <v>8000</v>
       </c>
       <c r="Q731" t="inlineStr">
         <is>
@@ -58862,11 +58862,11 @@
       </c>
       <c r="R731" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S731" t="n">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="T731" t="n">
         <v>18</v>
@@ -58915,7 +58915,7 @@
       </c>
       <c r="K732" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Moscatel rosada</t>
         </is>
       </c>
       <c r="L732" t="inlineStr">
@@ -58927,29 +58927,29 @@
         <v>250</v>
       </c>
       <c r="N732" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O732" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P732" t="n">
-        <v>7750</v>
+        <v>9000</v>
       </c>
       <c r="Q732" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 12 kilos</t>
         </is>
       </c>
       <c r="R732" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S732" t="n">
-        <v>431</v>
+        <v>750</v>
       </c>
       <c r="T732" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="733">
@@ -58995,25 +58995,25 @@
       </c>
       <c r="K733" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L733" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M733" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="N733" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O733" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P733" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q733" t="inlineStr">
         <is>
@@ -59022,11 +59022,11 @@
       </c>
       <c r="R733" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S733" t="n">
-        <v>833</v>
+        <v>444</v>
       </c>
       <c r="T733" t="n">
         <v>18</v>
@@ -59075,7 +59075,7 @@
       </c>
       <c r="K734" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L734" t="inlineStr">
@@ -59084,16 +59084,16 @@
         </is>
       </c>
       <c r="M734" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N734" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="O734" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P734" t="n">
-        <v>13500</v>
+        <v>7750</v>
       </c>
       <c r="Q734" t="inlineStr">
         <is>
@@ -59102,11 +59102,11 @@
       </c>
       <c r="R734" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S734" t="n">
-        <v>750</v>
+        <v>431</v>
       </c>
       <c r="T734" t="n">
         <v>18</v>
@@ -59155,7 +59155,7 @@
       </c>
       <c r="K735" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L735" t="inlineStr">
@@ -59164,16 +59164,16 @@
         </is>
       </c>
       <c r="M735" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N735" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="O735" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P735" t="n">
-        <v>13000</v>
+        <v>7750</v>
       </c>
       <c r="Q735" t="inlineStr">
         <is>
@@ -59186,7 +59186,7 @@
         </is>
       </c>
       <c r="S735" t="n">
-        <v>722</v>
+        <v>431</v>
       </c>
       <c r="T735" t="n">
         <v>18</v>
@@ -59240,20 +59240,20 @@
       </c>
       <c r="L736" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M736" t="n">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="N736" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O736" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P736" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="Q736" t="inlineStr">
         <is>
@@ -59266,7 +59266,7 @@
         </is>
       </c>
       <c r="S736" t="n">
-        <v>611</v>
+        <v>833</v>
       </c>
       <c r="T736" t="n">
         <v>18</v>
@@ -59287,7 +59287,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E737" t="n">
         <v>13</v>
@@ -59315,7 +59315,7 @@
       </c>
       <c r="K737" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L737" t="inlineStr">
@@ -59327,13 +59327,13 @@
         <v>240</v>
       </c>
       <c r="N737" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O737" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P737" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="Q737" t="inlineStr">
         <is>
@@ -59342,11 +59342,11 @@
       </c>
       <c r="R737" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S737" t="n">
-        <v>417</v>
+        <v>750</v>
       </c>
       <c r="T737" t="n">
         <v>18</v>
@@ -59367,7 +59367,7 @@
         </is>
       </c>
       <c r="D738" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E738" t="n">
         <v>13</v>
@@ -59395,7 +59395,7 @@
       </c>
       <c r="K738" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L738" t="inlineStr">
@@ -59404,16 +59404,16 @@
         </is>
       </c>
       <c r="M738" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N738" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O738" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P738" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q738" t="inlineStr">
         <is>
@@ -59426,7 +59426,7 @@
         </is>
       </c>
       <c r="S738" t="n">
-        <v>444</v>
+        <v>722</v>
       </c>
       <c r="T738" t="n">
         <v>18</v>
@@ -59447,7 +59447,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -59475,25 +59475,25 @@
       </c>
       <c r="K739" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L739" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M739" t="n">
-        <v>510</v>
+        <v>80</v>
       </c>
       <c r="N739" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O739" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="P739" t="n">
-        <v>8500</v>
+        <v>11000</v>
       </c>
       <c r="Q739" t="inlineStr">
         <is>
@@ -59506,7 +59506,7 @@
         </is>
       </c>
       <c r="S739" t="n">
-        <v>472</v>
+        <v>611</v>
       </c>
       <c r="T739" t="n">
         <v>18</v>
@@ -59555,25 +59555,25 @@
       </c>
       <c r="K740" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L740" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M740" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N740" t="n">
         <v>7000</v>
       </c>
       <c r="O740" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P740" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="Q740" t="inlineStr">
         <is>
@@ -59586,7 +59586,7 @@
         </is>
       </c>
       <c r="S740" t="n">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="T740" t="n">
         <v>18</v>
@@ -59635,25 +59635,25 @@
       </c>
       <c r="K741" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L741" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M741" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N741" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O741" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P741" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q741" t="inlineStr">
         <is>
@@ -59666,7 +59666,7 @@
         </is>
       </c>
       <c r="S741" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T741" t="n">
         <v>18</v>
@@ -59715,7 +59715,7 @@
       </c>
       <c r="K742" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L742" t="inlineStr">
@@ -59724,16 +59724,16 @@
         </is>
       </c>
       <c r="M742" t="n">
-        <v>150</v>
+        <v>510</v>
       </c>
       <c r="N742" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O742" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P742" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="Q742" t="inlineStr">
         <is>
@@ -59742,11 +59742,11 @@
       </c>
       <c r="R742" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S742" t="n">
-        <v>778</v>
+        <v>472</v>
       </c>
       <c r="T742" t="n">
         <v>18</v>
@@ -59795,25 +59795,25 @@
       </c>
       <c r="K743" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L743" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M743" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N743" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O743" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P743" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q743" t="inlineStr">
         <is>
@@ -59826,7 +59826,7 @@
         </is>
       </c>
       <c r="S743" t="n">
-        <v>528</v>
+        <v>389</v>
       </c>
       <c r="T743" t="n">
         <v>18</v>
@@ -59875,25 +59875,25 @@
       </c>
       <c r="K744" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L744" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M744" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N744" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O744" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P744" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q744" t="inlineStr">
         <is>
@@ -59902,11 +59902,11 @@
       </c>
       <c r="R744" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S744" t="n">
-        <v>528</v>
+        <v>389</v>
       </c>
       <c r="T744" t="n">
         <v>18</v>
@@ -59955,7 +59955,7 @@
       </c>
       <c r="K745" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L745" t="inlineStr">
@@ -59964,16 +59964,16 @@
         </is>
       </c>
       <c r="M745" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N745" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O745" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P745" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="Q745" t="inlineStr">
         <is>
@@ -59982,11 +59982,11 @@
       </c>
       <c r="R745" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S745" t="n">
-        <v>528</v>
+        <v>778</v>
       </c>
       <c r="T745" t="n">
         <v>18</v>
@@ -60035,25 +60035,25 @@
       </c>
       <c r="K746" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L746" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M746" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N746" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O746" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P746" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q746" t="inlineStr">
         <is>
@@ -60062,11 +60062,11 @@
       </c>
       <c r="R746" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S746" t="n">
-        <v>444</v>
+        <v>528</v>
       </c>
       <c r="T746" t="n">
         <v>18</v>
@@ -60115,7 +60115,7 @@
       </c>
       <c r="K747" t="inlineStr">
         <is>
-          <t>Torontel blanca</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L747" t="inlineStr">
@@ -60124,32 +60124,32 @@
         </is>
       </c>
       <c r="M747" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N747" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O747" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P747" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="Q747" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R747" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S747" t="n">
-        <v>500</v>
+        <v>528</v>
       </c>
       <c r="T747" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="748">
@@ -60167,7 +60167,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="E748" t="n">
         <v>13</v>
@@ -60195,7 +60195,7 @@
       </c>
       <c r="K748" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L748" t="inlineStr">
@@ -60204,16 +60204,16 @@
         </is>
       </c>
       <c r="M748" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N748" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O748" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P748" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q748" t="inlineStr">
         <is>
@@ -60222,11 +60222,11 @@
       </c>
       <c r="R748" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S748" t="n">
-        <v>444</v>
+        <v>528</v>
       </c>
       <c r="T748" t="n">
         <v>18</v>
@@ -60247,7 +60247,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="E749" t="n">
         <v>13</v>
@@ -60275,25 +60275,25 @@
       </c>
       <c r="K749" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L749" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M749" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N749" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="O749" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P749" t="n">
-        <v>8750</v>
+        <v>8000</v>
       </c>
       <c r="Q749" t="inlineStr">
         <is>
@@ -60302,11 +60302,11 @@
       </c>
       <c r="R749" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S749" t="n">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="T749" t="n">
         <v>18</v>
@@ -60327,7 +60327,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="E750" t="n">
         <v>13</v>
@@ -60355,7 +60355,7 @@
       </c>
       <c r="K750" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Torontel blanca</t>
         </is>
       </c>
       <c r="L750" t="inlineStr">
@@ -60364,32 +60364,32 @@
         </is>
       </c>
       <c r="M750" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N750" t="n">
-        <v>8500</v>
+        <v>5000</v>
       </c>
       <c r="O750" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P750" t="n">
-        <v>8750</v>
+        <v>5000</v>
       </c>
       <c r="Q750" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R750" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S750" t="n">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="T750" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="751">
@@ -60435,7 +60435,7 @@
       </c>
       <c r="K751" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L751" t="inlineStr">
@@ -60444,16 +60444,16 @@
         </is>
       </c>
       <c r="M751" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N751" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O751" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P751" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q751" t="inlineStr">
         <is>
@@ -60466,7 +60466,7 @@
         </is>
       </c>
       <c r="S751" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T751" t="n">
         <v>18</v>
@@ -60515,25 +60515,25 @@
       </c>
       <c r="K752" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L752" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M752" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N752" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="O752" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P752" t="n">
-        <v>8000</v>
+        <v>8750</v>
       </c>
       <c r="Q752" t="inlineStr">
         <is>
@@ -60546,7 +60546,7 @@
         </is>
       </c>
       <c r="S752" t="n">
-        <v>444</v>
+        <v>486</v>
       </c>
       <c r="T752" t="n">
         <v>18</v>
@@ -60567,7 +60567,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E753" t="n">
         <v>13</v>
@@ -60595,7 +60595,7 @@
       </c>
       <c r="K753" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L753" t="inlineStr">
@@ -60604,32 +60604,32 @@
         </is>
       </c>
       <c r="M753" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N753" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O753" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P753" t="n">
-        <v>12500</v>
+        <v>8750</v>
       </c>
       <c r="Q753" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R753" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S753" t="n">
-        <v>833</v>
+        <v>486</v>
       </c>
       <c r="T753" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="754">
@@ -60647,7 +60647,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -60675,7 +60675,7 @@
       </c>
       <c r="K754" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L754" t="inlineStr">
@@ -60684,32 +60684,32 @@
         </is>
       </c>
       <c r="M754" t="n">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="N754" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O754" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P754" t="n">
-        <v>15500</v>
+        <v>9000</v>
       </c>
       <c r="Q754" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R754" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S754" t="n">
-        <v>1033</v>
+        <v>500</v>
       </c>
       <c r="T754" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="755">
@@ -60727,7 +60727,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44279</v>
+        <v>44264</v>
       </c>
       <c r="E755" t="n">
         <v>13</v>
@@ -60755,25 +60755,25 @@
       </c>
       <c r="K755" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L755" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M755" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N755" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O755" t="n">
         <v>8000</v>
       </c>
       <c r="P755" t="n">
-        <v>7750</v>
+        <v>8000</v>
       </c>
       <c r="Q755" t="inlineStr">
         <is>
@@ -60786,7 +60786,7 @@
         </is>
       </c>
       <c r="S755" t="n">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="T755" t="n">
         <v>18</v>
@@ -60807,7 +60807,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44279</v>
+        <v>44571</v>
       </c>
       <c r="E756" t="n">
         <v>13</v>
@@ -60835,7 +60835,7 @@
       </c>
       <c r="K756" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L756" t="inlineStr">
@@ -60844,32 +60844,32 @@
         </is>
       </c>
       <c r="M756" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N756" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O756" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P756" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="Q756" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R756" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S756" t="n">
-        <v>444</v>
+        <v>833</v>
       </c>
       <c r="T756" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="757">
@@ -60887,7 +60887,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44279</v>
+        <v>44571</v>
       </c>
       <c r="E757" t="n">
         <v>13</v>
@@ -60915,7 +60915,7 @@
       </c>
       <c r="K757" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L757" t="inlineStr">
@@ -60924,32 +60924,32 @@
         </is>
       </c>
       <c r="M757" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="N757" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O757" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P757" t="n">
-        <v>8000</v>
+        <v>15500</v>
       </c>
       <c r="Q757" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R757" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S757" t="n">
-        <v>800</v>
+        <v>1033</v>
       </c>
       <c r="T757" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="758">
@@ -60995,7 +60995,7 @@
       </c>
       <c r="K758" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L758" t="inlineStr">
@@ -61004,16 +61004,16 @@
         </is>
       </c>
       <c r="M758" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N758" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="O758" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P758" t="n">
-        <v>12000</v>
+        <v>7750</v>
       </c>
       <c r="Q758" t="inlineStr">
         <is>
@@ -61026,7 +61026,7 @@
         </is>
       </c>
       <c r="S758" t="n">
-        <v>667</v>
+        <v>431</v>
       </c>
       <c r="T758" t="n">
         <v>18</v>
@@ -61075,7 +61075,7 @@
       </c>
       <c r="K759" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L759" t="inlineStr">
@@ -61084,16 +61084,16 @@
         </is>
       </c>
       <c r="M759" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N759" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O759" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P759" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q759" t="inlineStr">
         <is>
@@ -61106,7 +61106,7 @@
         </is>
       </c>
       <c r="S759" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T759" t="n">
         <v>18</v>
@@ -61155,7 +61155,7 @@
       </c>
       <c r="K760" t="inlineStr">
         <is>
-          <t>Timson</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L760" t="inlineStr">
@@ -61164,32 +61164,32 @@
         </is>
       </c>
       <c r="M760" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N760" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O760" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P760" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q760" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R760" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S760" t="n">
-        <v>528</v>
+        <v>800</v>
       </c>
       <c r="T760" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="761">
@@ -61207,7 +61207,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E761" t="n">
         <v>13</v>
@@ -61235,7 +61235,7 @@
       </c>
       <c r="K761" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L761" t="inlineStr">
@@ -61244,16 +61244,16 @@
         </is>
       </c>
       <c r="M761" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N761" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O761" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P761" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="Q761" t="inlineStr">
         <is>
@@ -61262,11 +61262,11 @@
       </c>
       <c r="R761" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S761" t="n">
-        <v>417</v>
+        <v>667</v>
       </c>
       <c r="T761" t="n">
         <v>18</v>
@@ -61287,7 +61287,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E762" t="n">
         <v>13</v>
@@ -61315,7 +61315,7 @@
       </c>
       <c r="K762" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L762" t="inlineStr">
@@ -61324,16 +61324,16 @@
         </is>
       </c>
       <c r="M762" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N762" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O762" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P762" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="Q762" t="inlineStr">
         <is>
@@ -61342,11 +61342,11 @@
       </c>
       <c r="R762" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S762" t="n">
-        <v>417</v>
+        <v>667</v>
       </c>
       <c r="T762" t="n">
         <v>18</v>
@@ -61367,7 +61367,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E763" t="n">
         <v>13</v>
@@ -61395,25 +61395,25 @@
       </c>
       <c r="K763" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Timson</t>
         </is>
       </c>
       <c r="L763" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M763" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N763" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O763" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P763" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="Q763" t="inlineStr">
         <is>
@@ -61422,11 +61422,11 @@
       </c>
       <c r="R763" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S763" t="n">
-        <v>333</v>
+        <v>528</v>
       </c>
       <c r="T763" t="n">
         <v>18</v>
@@ -61480,20 +61480,20 @@
       </c>
       <c r="L764" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M764" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N764" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O764" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P764" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="Q764" t="inlineStr">
         <is>
@@ -61502,11 +61502,11 @@
       </c>
       <c r="R764" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S764" t="n">
-        <v>333</v>
+        <v>417</v>
       </c>
       <c r="T764" t="n">
         <v>18</v>
@@ -61555,7 +61555,7 @@
       </c>
       <c r="K765" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L765" t="inlineStr">
@@ -61564,16 +61564,16 @@
         </is>
       </c>
       <c r="M765" t="n">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="N765" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O765" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P765" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="Q765" t="inlineStr">
         <is>
@@ -61582,11 +61582,11 @@
       </c>
       <c r="R765" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S765" t="n">
-        <v>722</v>
+        <v>417</v>
       </c>
       <c r="T765" t="n">
         <v>18</v>
@@ -61635,25 +61635,25 @@
       </c>
       <c r="K766" t="inlineStr">
         <is>
-          <t>Torontel blanca</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L766" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M766" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="N766" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O766" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P766" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q766" t="inlineStr">
         <is>
@@ -61666,7 +61666,7 @@
         </is>
       </c>
       <c r="S766" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="T766" t="n">
         <v>18</v>
@@ -61687,7 +61687,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44327</v>
+        <v>44277</v>
       </c>
       <c r="E767" t="n">
         <v>13</v>
@@ -61715,25 +61715,25 @@
       </c>
       <c r="K767" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L767" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M767" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N767" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O767" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P767" t="n">
-        <v>7750</v>
+        <v>6000</v>
       </c>
       <c r="Q767" t="inlineStr">
         <is>
@@ -61746,7 +61746,7 @@
         </is>
       </c>
       <c r="S767" t="n">
-        <v>431</v>
+        <v>333</v>
       </c>
       <c r="T767" t="n">
         <v>18</v>
@@ -61767,7 +61767,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44327</v>
+        <v>44277</v>
       </c>
       <c r="E768" t="n">
         <v>13</v>
@@ -61795,7 +61795,7 @@
       </c>
       <c r="K768" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L768" t="inlineStr">
@@ -61804,16 +61804,16 @@
         </is>
       </c>
       <c r="M768" t="n">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="N768" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O768" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P768" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q768" t="inlineStr">
         <is>
@@ -61822,11 +61822,11 @@
       </c>
       <c r="R768" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S768" t="n">
-        <v>444</v>
+        <v>722</v>
       </c>
       <c r="T768" t="n">
         <v>18</v>
@@ -61847,7 +61847,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44327</v>
+        <v>44277</v>
       </c>
       <c r="E769" t="n">
         <v>13</v>
@@ -61875,7 +61875,7 @@
       </c>
       <c r="K769" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Torontel blanca</t>
         </is>
       </c>
       <c r="L769" t="inlineStr">
@@ -61884,16 +61884,16 @@
         </is>
       </c>
       <c r="M769" t="n">
-        <v>400</v>
+        <v>110</v>
       </c>
       <c r="N769" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O769" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P769" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="Q769" t="inlineStr">
         <is>
@@ -61906,7 +61906,7 @@
         </is>
       </c>
       <c r="S769" t="n">
-        <v>417</v>
+        <v>500</v>
       </c>
       <c r="T769" t="n">
         <v>18</v>
@@ -61955,7 +61955,7 @@
       </c>
       <c r="K770" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L770" t="inlineStr">
@@ -61964,16 +61964,16 @@
         </is>
       </c>
       <c r="M770" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N770" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O770" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P770" t="n">
-        <v>7000</v>
+        <v>7750</v>
       </c>
       <c r="Q770" t="inlineStr">
         <is>
@@ -61986,7 +61986,7 @@
         </is>
       </c>
       <c r="S770" t="n">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="T770" t="n">
         <v>18</v>
@@ -62035,7 +62035,7 @@
       </c>
       <c r="K771" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L771" t="inlineStr">
@@ -62044,16 +62044,16 @@
         </is>
       </c>
       <c r="M771" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="N771" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O771" t="n">
         <v>8000</v>
       </c>
       <c r="P771" t="n">
-        <v>7727</v>
+        <v>8000</v>
       </c>
       <c r="Q771" t="inlineStr">
         <is>
@@ -62062,11 +62062,11 @@
       </c>
       <c r="R771" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S771" t="n">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="T771" t="n">
         <v>18</v>
@@ -62115,7 +62115,7 @@
       </c>
       <c r="K772" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L772" t="inlineStr">
@@ -62124,20 +62124,20 @@
         </is>
       </c>
       <c r="M772" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N772" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O772" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P772" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="Q772" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R772" t="inlineStr">
@@ -62146,10 +62146,10 @@
         </is>
       </c>
       <c r="S772" t="n">
-        <v>900</v>
+        <v>417</v>
       </c>
       <c r="T772" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="773">
@@ -62195,7 +62195,7 @@
       </c>
       <c r="K773" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L773" t="inlineStr">
@@ -62204,16 +62204,16 @@
         </is>
       </c>
       <c r="M773" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N773" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O773" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P773" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="Q773" t="inlineStr">
         <is>
@@ -62226,7 +62226,7 @@
         </is>
       </c>
       <c r="S773" t="n">
-        <v>778</v>
+        <v>389</v>
       </c>
       <c r="T773" t="n">
         <v>18</v>
@@ -62275,25 +62275,25 @@
       </c>
       <c r="K774" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L774" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M774" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="N774" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O774" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P774" t="n">
-        <v>12000</v>
+        <v>7727</v>
       </c>
       <c r="Q774" t="inlineStr">
         <is>
@@ -62302,11 +62302,11 @@
       </c>
       <c r="R774" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S774" t="n">
-        <v>667</v>
+        <v>429</v>
       </c>
       <c r="T774" t="n">
         <v>18</v>
@@ -62355,7 +62355,7 @@
       </c>
       <c r="K775" t="inlineStr">
         <is>
-          <t>Timco</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L775" t="inlineStr">
@@ -62364,32 +62364,32 @@
         </is>
       </c>
       <c r="M775" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N775" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O775" t="n">
         <v>9000</v>
       </c>
       <c r="P775" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="Q775" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R775" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S775" t="n">
-        <v>472</v>
+        <v>900</v>
       </c>
       <c r="T775" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="776">
@@ -62435,7 +62435,7 @@
       </c>
       <c r="K776" t="inlineStr">
         <is>
-          <t>Torontel blanca</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L776" t="inlineStr">
@@ -62447,13 +62447,13 @@
         <v>200</v>
       </c>
       <c r="N776" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O776" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P776" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q776" t="inlineStr">
         <is>
@@ -62462,11 +62462,11 @@
       </c>
       <c r="R776" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S776" t="n">
-        <v>444</v>
+        <v>778</v>
       </c>
       <c r="T776" t="n">
         <v>18</v>
@@ -62487,7 +62487,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E777" t="n">
         <v>13</v>
@@ -62515,25 +62515,25 @@
       </c>
       <c r="K777" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L777" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M777" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="N777" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O777" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P777" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="Q777" t="inlineStr">
         <is>
@@ -62542,11 +62542,11 @@
       </c>
       <c r="R777" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S777" t="n">
-        <v>528</v>
+        <v>667</v>
       </c>
       <c r="T777" t="n">
         <v>18</v>
@@ -62567,7 +62567,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E778" t="n">
         <v>13</v>
@@ -62595,7 +62595,7 @@
       </c>
       <c r="K778" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Timco</t>
         </is>
       </c>
       <c r="L778" t="inlineStr">
@@ -62604,7 +62604,7 @@
         </is>
       </c>
       <c r="M778" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="N778" t="n">
         <v>8000</v>
@@ -62647,7 +62647,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E779" t="n">
         <v>13</v>
@@ -62675,25 +62675,25 @@
       </c>
       <c r="K779" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Torontel blanca</t>
         </is>
       </c>
       <c r="L779" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M779" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N779" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O779" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P779" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q779" t="inlineStr">
         <is>
@@ -62702,11 +62702,11 @@
       </c>
       <c r="R779" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S779" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="T779" t="n">
         <v>18</v>
@@ -62755,7 +62755,7 @@
       </c>
       <c r="K780" t="inlineStr">
         <is>
-          <t>Torontel blanca</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L780" t="inlineStr">
@@ -62764,16 +62764,16 @@
         </is>
       </c>
       <c r="M780" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="N780" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O780" t="n">
         <v>10000</v>
       </c>
       <c r="P780" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q780" t="inlineStr">
         <is>
@@ -62782,11 +62782,11 @@
       </c>
       <c r="R780" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S780" t="n">
-        <v>556</v>
+        <v>528</v>
       </c>
       <c r="T780" t="n">
         <v>18</v>
@@ -62807,7 +62807,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44384</v>
+        <v>44354</v>
       </c>
       <c r="E781" t="n">
         <v>13</v>
@@ -62835,7 +62835,7 @@
       </c>
       <c r="K781" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L781" t="inlineStr">
@@ -62844,32 +62844,32 @@
         </is>
       </c>
       <c r="M781" t="n">
-        <v>360</v>
+        <v>130</v>
       </c>
       <c r="N781" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O781" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P781" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q781" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R781" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S781" t="n">
-        <v>875</v>
+        <v>472</v>
       </c>
       <c r="T781" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="782">
@@ -62887,7 +62887,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44384</v>
+        <v>44354</v>
       </c>
       <c r="E782" t="n">
         <v>13</v>
@@ -62920,36 +62920,36 @@
       </c>
       <c r="L782" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M782" t="n">
-        <v>470</v>
+        <v>120</v>
       </c>
       <c r="N782" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O782" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P782" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q782" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R782" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S782" t="n">
-        <v>1000</v>
+        <v>333</v>
       </c>
       <c r="T782" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="783">
@@ -62967,7 +62967,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44312</v>
+        <v>44354</v>
       </c>
       <c r="E783" t="n">
         <v>13</v>
@@ -62995,7 +62995,7 @@
       </c>
       <c r="K783" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Torontel blanca</t>
         </is>
       </c>
       <c r="L783" t="inlineStr">
@@ -63004,16 +63004,16 @@
         </is>
       </c>
       <c r="M783" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="N783" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O783" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P783" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q783" t="inlineStr">
         <is>
@@ -63026,7 +63026,7 @@
         </is>
       </c>
       <c r="S783" t="n">
-        <v>472</v>
+        <v>556</v>
       </c>
       <c r="T783" t="n">
         <v>18</v>
@@ -63047,7 +63047,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44312</v>
+        <v>44384</v>
       </c>
       <c r="E784" t="n">
         <v>13</v>
@@ -63075,7 +63075,7 @@
       </c>
       <c r="K784" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L784" t="inlineStr">
@@ -63084,20 +63084,20 @@
         </is>
       </c>
       <c r="M784" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="N784" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O784" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P784" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="Q784" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R784" t="inlineStr">
@@ -63106,10 +63106,10 @@
         </is>
       </c>
       <c r="S784" t="n">
-        <v>472</v>
+        <v>875</v>
       </c>
       <c r="T784" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="785">
@@ -63127,7 +63127,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44312</v>
+        <v>44384</v>
       </c>
       <c r="E785" t="n">
         <v>13</v>
@@ -63160,36 +63160,36 @@
       </c>
       <c r="L785" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M785" t="n">
-        <v>250</v>
+        <v>470</v>
       </c>
       <c r="N785" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O785" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P785" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="Q785" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R785" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S785" t="n">
-        <v>361</v>
+        <v>1000</v>
       </c>
       <c r="T785" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="786">
@@ -63235,7 +63235,7 @@
       </c>
       <c r="K786" t="inlineStr">
         <is>
-          <t>Ribier</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L786" t="inlineStr">
@@ -63244,7 +63244,7 @@
         </is>
       </c>
       <c r="M786" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N786" t="n">
         <v>8000</v>
@@ -63315,7 +63315,7 @@
       </c>
       <c r="K787" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L787" t="inlineStr">
@@ -63324,32 +63324,32 @@
         </is>
       </c>
       <c r="M787" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N787" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O787" t="n">
         <v>9000</v>
       </c>
-      <c r="O787" t="n">
-        <v>10000</v>
-      </c>
       <c r="P787" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="Q787" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R787" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S787" t="n">
-        <v>950</v>
+        <v>472</v>
       </c>
       <c r="T787" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="788">
@@ -63395,7 +63395,7 @@
       </c>
       <c r="K788" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L788" t="inlineStr">
@@ -63404,16 +63404,16 @@
         </is>
       </c>
       <c r="M788" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N788" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O788" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P788" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="Q788" t="inlineStr">
         <is>
@@ -63426,7 +63426,7 @@
         </is>
       </c>
       <c r="S788" t="n">
-        <v>500</v>
+        <v>361</v>
       </c>
       <c r="T788" t="n">
         <v>18</v>
@@ -63475,7 +63475,7 @@
       </c>
       <c r="K789" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Ribier</t>
         </is>
       </c>
       <c r="L789" t="inlineStr">
@@ -63484,16 +63484,16 @@
         </is>
       </c>
       <c r="M789" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N789" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O789" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P789" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="Q789" t="inlineStr">
         <is>
@@ -63506,7 +63506,7 @@
         </is>
       </c>
       <c r="S789" t="n">
-        <v>778</v>
+        <v>472</v>
       </c>
       <c r="T789" t="n">
         <v>18</v>
@@ -63555,7 +63555,7 @@
       </c>
       <c r="K790" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L790" t="inlineStr">
@@ -63564,32 +63564,32 @@
         </is>
       </c>
       <c r="M790" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N790" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O790" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P790" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="Q790" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R790" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S790" t="n">
-        <v>806</v>
+        <v>950</v>
       </c>
       <c r="T790" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="791">
@@ -63635,7 +63635,7 @@
       </c>
       <c r="K791" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L791" t="inlineStr">
@@ -63647,13 +63647,13 @@
         <v>150</v>
       </c>
       <c r="N791" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O791" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P791" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q791" t="inlineStr">
         <is>
@@ -63666,7 +63666,7 @@
         </is>
       </c>
       <c r="S791" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T791" t="n">
         <v>18</v>
@@ -63715,7 +63715,7 @@
       </c>
       <c r="K792" t="inlineStr">
         <is>
-          <t>Timco</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L792" t="inlineStr">
@@ -63727,13 +63727,13 @@
         <v>200</v>
       </c>
       <c r="N792" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O792" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P792" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="Q792" t="inlineStr">
         <is>
@@ -63746,7 +63746,7 @@
         </is>
       </c>
       <c r="S792" t="n">
-        <v>528</v>
+        <v>778</v>
       </c>
       <c r="T792" t="n">
         <v>18</v>
@@ -63795,40 +63795,280 @@
       </c>
       <c r="K793" t="inlineStr">
         <is>
+          <t>Thompson seedless</t>
+        </is>
+      </c>
+      <c r="L793" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M793" t="n">
+        <v>300</v>
+      </c>
+      <c r="N793" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O793" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P793" t="n">
+        <v>14500</v>
+      </c>
+      <c r="Q793" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R793" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S793" t="n">
+        <v>806</v>
+      </c>
+      <c r="T793" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>6</v>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D794" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E794" t="n">
+        <v>13</v>
+      </c>
+      <c r="F794" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G794" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H794" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I794" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J794" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>Thompson seedless</t>
+        </is>
+      </c>
+      <c r="L794" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M794" t="n">
+        <v>150</v>
+      </c>
+      <c r="N794" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O794" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P794" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q794" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R794" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S794" t="n">
+        <v>667</v>
+      </c>
+      <c r="T794" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>6</v>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D795" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E795" t="n">
+        <v>13</v>
+      </c>
+      <c r="F795" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G795" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H795" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I795" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J795" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>Timco</t>
+        </is>
+      </c>
+      <c r="L795" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M795" t="n">
+        <v>200</v>
+      </c>
+      <c r="N795" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O795" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P795" t="n">
+        <v>9500</v>
+      </c>
+      <c r="Q795" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R795" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S795" t="n">
+        <v>528</v>
+      </c>
+      <c r="T795" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>6</v>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D796" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E796" t="n">
+        <v>13</v>
+      </c>
+      <c r="F796" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G796" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H796" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I796" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J796" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K796" t="inlineStr">
+        <is>
           <t>Torontel blanca</t>
         </is>
       </c>
-      <c r="L793" t="inlineStr">
+      <c r="L796" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M793" t="n">
+      <c r="M796" t="n">
         <v>120</v>
       </c>
-      <c r="N793" t="n">
+      <c r="N796" t="n">
         <v>7000</v>
       </c>
-      <c r="O793" t="n">
+      <c r="O796" t="n">
         <v>7000</v>
       </c>
-      <c r="P793" t="n">
+      <c r="P796" t="n">
         <v>7000</v>
       </c>
-      <c r="Q793" t="inlineStr">
+      <c r="Q796" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
         </is>
       </c>
-      <c r="R793" t="inlineStr">
+      <c r="R796" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="S793" t="n">
+      <c r="S796" t="n">
         <v>389</v>
       </c>
-      <c r="T793" t="n">
+      <c r="T796" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Uva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Uva.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T805"/>
+  <dimension ref="A1:T814"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60967,7 +60967,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E758" t="n">
         <v>13</v>
@@ -61004,20 +61004,20 @@
         </is>
       </c>
       <c r="M758" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N758" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O758" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P758" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q758" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R758" t="inlineStr">
@@ -61026,10 +61026,10 @@
         </is>
       </c>
       <c r="S758" t="n">
-        <v>1450</v>
+        <v>700</v>
       </c>
       <c r="T758" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="759">
@@ -61047,7 +61047,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E759" t="n">
         <v>13</v>
@@ -61075,25 +61075,25 @@
       </c>
       <c r="K759" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Moscatel rosada</t>
         </is>
       </c>
       <c r="L759" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M759" t="n">
-        <v>275</v>
+        <v>360</v>
       </c>
       <c r="N759" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O759" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P759" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q759" t="inlineStr">
         <is>
@@ -61106,7 +61106,7 @@
         </is>
       </c>
       <c r="S759" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="T759" t="n">
         <v>10</v>
@@ -61127,7 +61127,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44272</v>
+        <v>44585</v>
       </c>
       <c r="E760" t="n">
         <v>13</v>
@@ -61155,41 +61155,41 @@
       </c>
       <c r="K760" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Moscatel rosada</t>
         </is>
       </c>
       <c r="L760" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M760" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="N760" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="O760" t="n">
         <v>8000</v>
       </c>
       <c r="P760" t="n">
-        <v>7750</v>
+        <v>8000</v>
       </c>
       <c r="Q760" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R760" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S760" t="n">
-        <v>431</v>
+        <v>800</v>
       </c>
       <c r="T760" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="761">
@@ -61207,7 +61207,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44272</v>
+        <v>44585</v>
       </c>
       <c r="E761" t="n">
         <v>13</v>
@@ -61235,7 +61235,7 @@
       </c>
       <c r="K761" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Ralli Seedless</t>
         </is>
       </c>
       <c r="L761" t="inlineStr">
@@ -61244,20 +61244,20 @@
         </is>
       </c>
       <c r="M761" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N761" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O761" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P761" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q761" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R761" t="inlineStr">
@@ -61266,10 +61266,10 @@
         </is>
       </c>
       <c r="S761" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="T761" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="762">
@@ -61287,7 +61287,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44272</v>
+        <v>44585</v>
       </c>
       <c r="E762" t="n">
         <v>13</v>
@@ -61315,7 +61315,7 @@
       </c>
       <c r="K762" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L762" t="inlineStr">
@@ -61324,32 +61324,32 @@
         </is>
       </c>
       <c r="M762" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N762" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O762" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P762" t="n">
-        <v>7750</v>
+        <v>9000</v>
       </c>
       <c r="Q762" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R762" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S762" t="n">
-        <v>431</v>
+        <v>900</v>
       </c>
       <c r="T762" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="763">
@@ -61367,7 +61367,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44272</v>
+        <v>44585</v>
       </c>
       <c r="E763" t="n">
         <v>13</v>
@@ -61395,7 +61395,7 @@
       </c>
       <c r="K763" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L763" t="inlineStr">
@@ -61407,17 +61407,17 @@
         <v>300</v>
       </c>
       <c r="N763" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O763" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P763" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="Q763" t="inlineStr">
         <is>
-          <t>$/bandeja 12 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R763" t="inlineStr">
@@ -61426,10 +61426,10 @@
         </is>
       </c>
       <c r="S763" t="n">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="T763" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="764">
@@ -61447,7 +61447,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44272</v>
+        <v>44585</v>
       </c>
       <c r="E764" t="n">
         <v>13</v>
@@ -61475,41 +61475,41 @@
       </c>
       <c r="K764" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L764" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M764" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="N764" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O764" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P764" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="Q764" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R764" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>EE.UU.</t>
         </is>
       </c>
       <c r="S764" t="n">
-        <v>722</v>
+        <v>700</v>
       </c>
       <c r="T764" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="765">
@@ -61527,7 +61527,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44272</v>
+        <v>44585</v>
       </c>
       <c r="E765" t="n">
         <v>13</v>
@@ -61555,16 +61555,16 @@
       </c>
       <c r="K765" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L765" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M765" t="n">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="N765" t="n">
         <v>9000</v>
@@ -61577,7 +61577,7 @@
       </c>
       <c r="Q765" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R765" t="inlineStr">
@@ -61586,10 +61586,10 @@
         </is>
       </c>
       <c r="S765" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T765" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="766">
@@ -61607,7 +61607,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44272</v>
+        <v>44585</v>
       </c>
       <c r="E766" t="n">
         <v>13</v>
@@ -61640,36 +61640,36 @@
       </c>
       <c r="L766" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M766" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N766" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O766" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P766" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q766" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R766" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S766" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T766" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="767">
@@ -61687,7 +61687,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E767" t="n">
         <v>13</v>
@@ -61715,7 +61715,7 @@
       </c>
       <c r="K767" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L767" t="inlineStr">
@@ -61724,32 +61724,32 @@
         </is>
       </c>
       <c r="M767" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N767" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O767" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P767" t="n">
-        <v>8000</v>
+        <v>14500</v>
       </c>
       <c r="Q767" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R767" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S767" t="n">
-        <v>444</v>
+        <v>1450</v>
       </c>
       <c r="T767" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="768">
@@ -61767,7 +61767,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E768" t="n">
         <v>13</v>
@@ -61795,41 +61795,41 @@
       </c>
       <c r="K768" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L768" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M768" t="n">
-        <v>100</v>
+        <v>275</v>
       </c>
       <c r="N768" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O768" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="P768" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="Q768" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R768" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S768" t="n">
-        <v>389</v>
+        <v>1800</v>
       </c>
       <c r="T768" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="769">
@@ -61847,7 +61847,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44385</v>
+        <v>44272</v>
       </c>
       <c r="E769" t="n">
         <v>13</v>
@@ -61875,29 +61875,29 @@
       </c>
       <c r="K769" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L769" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M769" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N769" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O769" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P769" t="n">
-        <v>6000</v>
+        <v>7750</v>
       </c>
       <c r="Q769" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R769" t="inlineStr">
@@ -61906,10 +61906,10 @@
         </is>
       </c>
       <c r="S769" t="n">
-        <v>750</v>
+        <v>431</v>
       </c>
       <c r="T769" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="770">
@@ -61927,7 +61927,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44385</v>
+        <v>44272</v>
       </c>
       <c r="E770" t="n">
         <v>13</v>
@@ -61960,24 +61960,24 @@
       </c>
       <c r="L770" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M770" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N770" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O770" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P770" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q770" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R770" t="inlineStr">
@@ -61986,10 +61986,10 @@
         </is>
       </c>
       <c r="S770" t="n">
-        <v>750</v>
+        <v>444</v>
       </c>
       <c r="T770" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="771">
@@ -62007,7 +62007,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44385</v>
+        <v>44272</v>
       </c>
       <c r="E771" t="n">
         <v>13</v>
@@ -62035,41 +62035,41 @@
       </c>
       <c r="K771" t="inlineStr">
         <is>
-          <t>Timco</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L771" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M771" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="N771" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O771" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P771" t="n">
-        <v>6000</v>
+        <v>7750</v>
       </c>
       <c r="Q771" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R771" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S771" t="n">
-        <v>750</v>
+        <v>431</v>
       </c>
       <c r="T771" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="772">
@@ -62087,7 +62087,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44323</v>
+        <v>44272</v>
       </c>
       <c r="E772" t="n">
         <v>13</v>
@@ -62115,7 +62115,7 @@
       </c>
       <c r="K772" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L772" t="inlineStr">
@@ -62124,32 +62124,32 @@
         </is>
       </c>
       <c r="M772" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N772" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O772" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P772" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q772" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 12 kilos</t>
         </is>
       </c>
       <c r="R772" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S772" t="n">
-        <v>444</v>
+        <v>750</v>
       </c>
       <c r="T772" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="773">
@@ -62167,7 +62167,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44323</v>
+        <v>44272</v>
       </c>
       <c r="E773" t="n">
         <v>13</v>
@@ -62195,25 +62195,25 @@
       </c>
       <c r="K773" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L773" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M773" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N773" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="O773" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="P773" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="Q773" t="inlineStr">
         <is>
@@ -62222,11 +62222,11 @@
       </c>
       <c r="R773" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S773" t="n">
-        <v>333</v>
+        <v>722</v>
       </c>
       <c r="T773" t="n">
         <v>18</v>
@@ -62247,7 +62247,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44323</v>
+        <v>44272</v>
       </c>
       <c r="E774" t="n">
         <v>13</v>
@@ -62280,20 +62280,20 @@
       </c>
       <c r="L774" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M774" t="n">
         <v>150</v>
       </c>
       <c r="N774" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O774" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P774" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="Q774" t="inlineStr">
         <is>
@@ -62302,11 +62302,11 @@
       </c>
       <c r="R774" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S774" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="T774" t="n">
         <v>18</v>
@@ -62327,7 +62327,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44306</v>
+        <v>44272</v>
       </c>
       <c r="E775" t="n">
         <v>13</v>
@@ -62355,25 +62355,25 @@
       </c>
       <c r="K775" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L775" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M775" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N775" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O775" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="P775" t="n">
-        <v>7250</v>
+        <v>10000</v>
       </c>
       <c r="Q775" t="inlineStr">
         <is>
@@ -62382,11 +62382,11 @@
       </c>
       <c r="R775" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S775" t="n">
-        <v>403</v>
+        <v>556</v>
       </c>
       <c r="T775" t="n">
         <v>18</v>
@@ -62407,7 +62407,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44306</v>
+        <v>44272</v>
       </c>
       <c r="E776" t="n">
         <v>13</v>
@@ -62435,16 +62435,16 @@
       </c>
       <c r="K776" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L776" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M776" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="N776" t="n">
         <v>8000</v>
@@ -62462,7 +62462,7 @@
       </c>
       <c r="R776" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S776" t="n">
@@ -62487,7 +62487,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44306</v>
+        <v>44272</v>
       </c>
       <c r="E777" t="n">
         <v>13</v>
@@ -62515,25 +62515,25 @@
       </c>
       <c r="K777" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L777" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M777" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N777" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O777" t="n">
         <v>7000</v>
       </c>
       <c r="P777" t="n">
-        <v>6750</v>
+        <v>7000</v>
       </c>
       <c r="Q777" t="inlineStr">
         <is>
@@ -62546,7 +62546,7 @@
         </is>
       </c>
       <c r="S777" t="n">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="T777" t="n">
         <v>18</v>
@@ -62567,7 +62567,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44306</v>
+        <v>44385</v>
       </c>
       <c r="E778" t="n">
         <v>13</v>
@@ -62595,41 +62595,41 @@
       </c>
       <c r="K778" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L778" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M778" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N778" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O778" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P778" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q778" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R778" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S778" t="n">
-        <v>389</v>
+        <v>750</v>
       </c>
       <c r="T778" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="779">
@@ -62647,7 +62647,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44306</v>
+        <v>44385</v>
       </c>
       <c r="E779" t="n">
         <v>13</v>
@@ -62684,32 +62684,32 @@
         </is>
       </c>
       <c r="M779" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="N779" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O779" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P779" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q779" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R779" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S779" t="n">
-        <v>278</v>
+        <v>750</v>
       </c>
       <c r="T779" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="780">
@@ -62727,7 +62727,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44306</v>
+        <v>44385</v>
       </c>
       <c r="E780" t="n">
         <v>13</v>
@@ -62755,29 +62755,29 @@
       </c>
       <c r="K780" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Timco</t>
         </is>
       </c>
       <c r="L780" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M780" t="n">
-        <v>180</v>
+        <v>650</v>
       </c>
       <c r="N780" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O780" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P780" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q780" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R780" t="inlineStr">
@@ -62786,10 +62786,10 @@
         </is>
       </c>
       <c r="S780" t="n">
-        <v>667</v>
+        <v>750</v>
       </c>
       <c r="T780" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="781">
@@ -62807,7 +62807,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E781" t="n">
         <v>13</v>
@@ -62835,25 +62835,25 @@
       </c>
       <c r="K781" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L781" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M781" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N781" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O781" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P781" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q781" t="inlineStr">
         <is>
@@ -62862,11 +62862,11 @@
       </c>
       <c r="R781" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S781" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T781" t="n">
         <v>18</v>
@@ -62887,7 +62887,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E782" t="n">
         <v>13</v>
@@ -62915,25 +62915,25 @@
       </c>
       <c r="K782" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L782" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M782" t="n">
         <v>200</v>
       </c>
       <c r="N782" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O782" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P782" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="Q782" t="inlineStr">
         <is>
@@ -62942,11 +62942,11 @@
       </c>
       <c r="R782" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S782" t="n">
-        <v>778</v>
+        <v>333</v>
       </c>
       <c r="T782" t="n">
         <v>18</v>
@@ -62967,7 +62967,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E783" t="n">
         <v>13</v>
@@ -62995,7 +62995,7 @@
       </c>
       <c r="K783" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L783" t="inlineStr">
@@ -63004,16 +63004,16 @@
         </is>
       </c>
       <c r="M783" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N783" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O783" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P783" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="Q783" t="inlineStr">
         <is>
@@ -63026,7 +63026,7 @@
         </is>
       </c>
       <c r="S783" t="n">
-        <v>778</v>
+        <v>722</v>
       </c>
       <c r="T783" t="n">
         <v>18</v>
@@ -63075,25 +63075,25 @@
       </c>
       <c r="K784" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L784" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M784" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N784" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O784" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="P784" t="n">
-        <v>10000</v>
+        <v>7250</v>
       </c>
       <c r="Q784" t="inlineStr">
         <is>
@@ -63106,7 +63106,7 @@
         </is>
       </c>
       <c r="S784" t="n">
-        <v>556</v>
+        <v>403</v>
       </c>
       <c r="T784" t="n">
         <v>18</v>
@@ -63155,25 +63155,25 @@
       </c>
       <c r="K785" t="inlineStr">
         <is>
-          <t>Timco</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L785" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M785" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="N785" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O785" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P785" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q785" t="inlineStr">
         <is>
@@ -63186,7 +63186,7 @@
         </is>
       </c>
       <c r="S785" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T785" t="n">
         <v>18</v>
@@ -63207,7 +63207,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E786" t="n">
         <v>13</v>
@@ -63235,7 +63235,7 @@
       </c>
       <c r="K786" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L786" t="inlineStr">
@@ -63244,32 +63244,32 @@
         </is>
       </c>
       <c r="M786" t="n">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="N786" t="n">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="O786" t="n">
         <v>7000</v>
       </c>
       <c r="P786" t="n">
-        <v>7000</v>
+        <v>6750</v>
       </c>
       <c r="Q786" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R786" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S786" t="n">
-        <v>875</v>
+        <v>375</v>
       </c>
       <c r="T786" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="787">
@@ -63287,7 +63287,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44299</v>
+        <v>44306</v>
       </c>
       <c r="E787" t="n">
         <v>13</v>
@@ -63315,7 +63315,7 @@
       </c>
       <c r="K787" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L787" t="inlineStr">
@@ -63324,16 +63324,16 @@
         </is>
       </c>
       <c r="M787" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N787" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O787" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P787" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="Q787" t="inlineStr">
         <is>
@@ -63342,11 +63342,11 @@
       </c>
       <c r="R787" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S787" t="n">
-        <v>778</v>
+        <v>389</v>
       </c>
       <c r="T787" t="n">
         <v>18</v>
@@ -63367,7 +63367,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44299</v>
+        <v>44306</v>
       </c>
       <c r="E788" t="n">
         <v>13</v>
@@ -63395,25 +63395,25 @@
       </c>
       <c r="K788" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L788" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M788" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N788" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="O788" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="P788" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="Q788" t="inlineStr">
         <is>
@@ -63422,11 +63422,11 @@
       </c>
       <c r="R788" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S788" t="n">
-        <v>722</v>
+        <v>278</v>
       </c>
       <c r="T788" t="n">
         <v>18</v>
@@ -63447,7 +63447,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44321</v>
+        <v>44306</v>
       </c>
       <c r="E789" t="n">
         <v>13</v>
@@ -63475,7 +63475,7 @@
       </c>
       <c r="K789" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L789" t="inlineStr">
@@ -63484,16 +63484,16 @@
         </is>
       </c>
       <c r="M789" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="N789" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O789" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P789" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="Q789" t="inlineStr">
         <is>
@@ -63506,7 +63506,7 @@
         </is>
       </c>
       <c r="S789" t="n">
-        <v>417</v>
+        <v>667</v>
       </c>
       <c r="T789" t="n">
         <v>18</v>
@@ -63527,7 +63527,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44321</v>
+        <v>44306</v>
       </c>
       <c r="E790" t="n">
         <v>13</v>
@@ -63560,20 +63560,20 @@
       </c>
       <c r="L790" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M790" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="N790" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O790" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P790" t="n">
-        <v>14500</v>
+        <v>9000</v>
       </c>
       <c r="Q790" t="inlineStr">
         <is>
@@ -63582,11 +63582,11 @@
       </c>
       <c r="R790" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S790" t="n">
-        <v>806</v>
+        <v>500</v>
       </c>
       <c r="T790" t="n">
         <v>18</v>
@@ -63607,7 +63607,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44321</v>
+        <v>44306</v>
       </c>
       <c r="E791" t="n">
         <v>13</v>
@@ -63644,16 +63644,16 @@
         </is>
       </c>
       <c r="M791" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N791" t="n">
         <v>14000</v>
       </c>
       <c r="O791" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P791" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="Q791" t="inlineStr">
         <is>
@@ -63662,11 +63662,11 @@
       </c>
       <c r="R791" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S791" t="n">
-        <v>806</v>
+        <v>778</v>
       </c>
       <c r="T791" t="n">
         <v>18</v>
@@ -63687,7 +63687,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44209</v>
+        <v>44306</v>
       </c>
       <c r="E792" t="n">
         <v>13</v>
@@ -63715,7 +63715,7 @@
       </c>
       <c r="K792" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L792" t="inlineStr">
@@ -63724,16 +63724,16 @@
         </is>
       </c>
       <c r="M792" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N792" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="O792" t="n">
         <v>14000</v>
       </c>
       <c r="P792" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="Q792" t="inlineStr">
         <is>
@@ -63742,11 +63742,11 @@
       </c>
       <c r="R792" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S792" t="n">
-        <v>750</v>
+        <v>778</v>
       </c>
       <c r="T792" t="n">
         <v>18</v>
@@ -63767,7 +63767,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44209</v>
+        <v>44306</v>
       </c>
       <c r="E793" t="n">
         <v>13</v>
@@ -63795,25 +63795,25 @@
       </c>
       <c r="K793" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L793" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M793" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N793" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O793" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P793" t="n">
-        <v>15500</v>
+        <v>10000</v>
       </c>
       <c r="Q793" t="inlineStr">
         <is>
@@ -63822,11 +63822,11 @@
       </c>
       <c r="R793" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S793" t="n">
-        <v>861</v>
+        <v>556</v>
       </c>
       <c r="T793" t="n">
         <v>18</v>
@@ -63847,7 +63847,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44209</v>
+        <v>44306</v>
       </c>
       <c r="E794" t="n">
         <v>13</v>
@@ -63875,7 +63875,7 @@
       </c>
       <c r="K794" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Timco</t>
         </is>
       </c>
       <c r="L794" t="inlineStr">
@@ -63884,16 +63884,16 @@
         </is>
       </c>
       <c r="M794" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N794" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="O794" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="P794" t="n">
-        <v>17500</v>
+        <v>9000</v>
       </c>
       <c r="Q794" t="inlineStr">
         <is>
@@ -63902,11 +63902,11 @@
       </c>
       <c r="R794" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S794" t="n">
-        <v>972</v>
+        <v>500</v>
       </c>
       <c r="T794" t="n">
         <v>18</v>
@@ -63927,7 +63927,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44274</v>
+        <v>44189</v>
       </c>
       <c r="E795" t="n">
         <v>13</v>
@@ -63955,7 +63955,7 @@
       </c>
       <c r="K795" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L795" t="inlineStr">
@@ -63964,32 +63964,32 @@
         </is>
       </c>
       <c r="M795" t="n">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="N795" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O795" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P795" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q795" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R795" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S795" t="n">
-        <v>444</v>
+        <v>875</v>
       </c>
       <c r="T795" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="796">
@@ -64007,7 +64007,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44274</v>
+        <v>44299</v>
       </c>
       <c r="E796" t="n">
         <v>13</v>
@@ -64035,25 +64035,25 @@
       </c>
       <c r="K796" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L796" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M796" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N796" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O796" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P796" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="Q796" t="inlineStr">
         <is>
@@ -64062,11 +64062,11 @@
       </c>
       <c r="R796" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S796" t="n">
-        <v>389</v>
+        <v>778</v>
       </c>
       <c r="T796" t="n">
         <v>18</v>
@@ -64087,7 +64087,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44274</v>
+        <v>44299</v>
       </c>
       <c r="E797" t="n">
         <v>13</v>
@@ -64115,7 +64115,7 @@
       </c>
       <c r="K797" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L797" t="inlineStr">
@@ -64124,16 +64124,16 @@
         </is>
       </c>
       <c r="M797" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N797" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O797" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P797" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q797" t="inlineStr">
         <is>
@@ -64142,11 +64142,11 @@
       </c>
       <c r="R797" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S797" t="n">
-        <v>444</v>
+        <v>722</v>
       </c>
       <c r="T797" t="n">
         <v>18</v>
@@ -64167,7 +64167,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44274</v>
+        <v>44321</v>
       </c>
       <c r="E798" t="n">
         <v>13</v>
@@ -64204,16 +64204,16 @@
         </is>
       </c>
       <c r="M798" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N798" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O798" t="n">
         <v>8000</v>
       </c>
       <c r="P798" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="Q798" t="inlineStr">
         <is>
@@ -64226,7 +64226,7 @@
         </is>
       </c>
       <c r="S798" t="n">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="T798" t="n">
         <v>18</v>
@@ -64247,7 +64247,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44274</v>
+        <v>44321</v>
       </c>
       <c r="E799" t="n">
         <v>13</v>
@@ -64275,7 +64275,7 @@
       </c>
       <c r="K799" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L799" t="inlineStr">
@@ -64284,16 +64284,16 @@
         </is>
       </c>
       <c r="M799" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="N799" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O799" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P799" t="n">
-        <v>8000</v>
+        <v>14500</v>
       </c>
       <c r="Q799" t="inlineStr">
         <is>
@@ -64302,11 +64302,11 @@
       </c>
       <c r="R799" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S799" t="n">
-        <v>444</v>
+        <v>806</v>
       </c>
       <c r="T799" t="n">
         <v>18</v>
@@ -64327,7 +64327,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44274</v>
+        <v>44321</v>
       </c>
       <c r="E800" t="n">
         <v>13</v>
@@ -64355,25 +64355,25 @@
       </c>
       <c r="K800" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L800" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M800" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="N800" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O800" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P800" t="n">
-        <v>7000</v>
+        <v>14500</v>
       </c>
       <c r="Q800" t="inlineStr">
         <is>
@@ -64382,11 +64382,11 @@
       </c>
       <c r="R800" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S800" t="n">
-        <v>389</v>
+        <v>806</v>
       </c>
       <c r="T800" t="n">
         <v>18</v>
@@ -64407,7 +64407,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E801" t="n">
         <v>13</v>
@@ -64435,7 +64435,7 @@
       </c>
       <c r="K801" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L801" t="inlineStr">
@@ -64444,32 +64444,32 @@
         </is>
       </c>
       <c r="M801" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="N801" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O801" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P801" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="Q801" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R801" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S801" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="T801" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="802">
@@ -64487,7 +64487,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E802" t="n">
         <v>13</v>
@@ -64515,7 +64515,7 @@
       </c>
       <c r="K802" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L802" t="inlineStr">
@@ -64524,16 +64524,16 @@
         </is>
       </c>
       <c r="M802" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N802" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O802" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="P802" t="n">
-        <v>9500</v>
+        <v>15500</v>
       </c>
       <c r="Q802" t="inlineStr">
         <is>
@@ -64542,11 +64542,11 @@
       </c>
       <c r="R802" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S802" t="n">
-        <v>528</v>
+        <v>861</v>
       </c>
       <c r="T802" t="n">
         <v>18</v>
@@ -64567,7 +64567,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E803" t="n">
         <v>13</v>
@@ -64604,29 +64604,29 @@
         </is>
       </c>
       <c r="M803" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N803" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O803" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P803" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="Q803" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R803" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S803" t="n">
-        <v>639</v>
+        <v>972</v>
       </c>
       <c r="T803" t="n">
         <v>18</v>
@@ -64675,16 +64675,16 @@
       </c>
       <c r="K804" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L804" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M804" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N804" t="n">
         <v>8000</v>
@@ -64702,7 +64702,7 @@
       </c>
       <c r="R804" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S804" t="n">
@@ -64755,40 +64755,760 @@
       </c>
       <c r="K805" t="inlineStr">
         <is>
+          <t>Crimpson Seedless</t>
+        </is>
+      </c>
+      <c r="L805" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M805" t="n">
+        <v>100</v>
+      </c>
+      <c r="N805" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O805" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P805" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q805" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R805" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S805" t="n">
+        <v>389</v>
+      </c>
+      <c r="T805" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>6</v>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D806" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="E806" t="n">
+        <v>13</v>
+      </c>
+      <c r="F806" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G806" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H806" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I806" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J806" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>Flame Seedless</t>
+        </is>
+      </c>
+      <c r="L806" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M806" t="n">
+        <v>250</v>
+      </c>
+      <c r="N806" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O806" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P806" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q806" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R806" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S806" t="n">
+        <v>444</v>
+      </c>
+      <c r="T806" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>6</v>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D807" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="E807" t="n">
+        <v>13</v>
+      </c>
+      <c r="F807" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G807" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H807" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I807" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J807" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>Red Globe</t>
+        </is>
+      </c>
+      <c r="L807" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M807" t="n">
+        <v>250</v>
+      </c>
+      <c r="N807" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O807" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P807" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q807" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R807" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S807" t="n">
+        <v>444</v>
+      </c>
+      <c r="T807" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>6</v>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D808" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="E808" t="n">
+        <v>13</v>
+      </c>
+      <c r="F808" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G808" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H808" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I808" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J808" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>Red Globe</t>
+        </is>
+      </c>
+      <c r="L808" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M808" t="n">
+        <v>120</v>
+      </c>
+      <c r="N808" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O808" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P808" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q808" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R808" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S808" t="n">
+        <v>444</v>
+      </c>
+      <c r="T808" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>6</v>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D809" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="E809" t="n">
+        <v>13</v>
+      </c>
+      <c r="F809" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G809" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H809" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I809" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J809" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>Red Globe</t>
+        </is>
+      </c>
+      <c r="L809" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M809" t="n">
+        <v>150</v>
+      </c>
+      <c r="N809" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O809" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P809" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q809" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R809" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S809" t="n">
+        <v>389</v>
+      </c>
+      <c r="T809" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="n">
+        <v>6</v>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D810" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="E810" t="n">
+        <v>13</v>
+      </c>
+      <c r="F810" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G810" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H810" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I810" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J810" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>Rosada pastilla</t>
+        </is>
+      </c>
+      <c r="L810" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M810" t="n">
+        <v>240</v>
+      </c>
+      <c r="N810" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O810" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P810" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q810" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R810" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S810" t="n">
+        <v>900</v>
+      </c>
+      <c r="T810" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>6</v>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D811" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="E811" t="n">
+        <v>13</v>
+      </c>
+      <c r="F811" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G811" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H811" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I811" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J811" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K811" t="inlineStr">
+        <is>
           <t>Thompson seedless</t>
         </is>
       </c>
-      <c r="L805" t="inlineStr">
+      <c r="L811" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M811" t="n">
+        <v>250</v>
+      </c>
+      <c r="N811" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O811" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P811" t="n">
+        <v>9500</v>
+      </c>
+      <c r="Q811" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R811" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S811" t="n">
+        <v>528</v>
+      </c>
+      <c r="T811" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>6</v>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D812" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="E812" t="n">
+        <v>13</v>
+      </c>
+      <c r="F812" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G812" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H812" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I812" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J812" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>Thompson seedless</t>
+        </is>
+      </c>
+      <c r="L812" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M812" t="n">
+        <v>300</v>
+      </c>
+      <c r="N812" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O812" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P812" t="n">
+        <v>11500</v>
+      </c>
+      <c r="Q812" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R812" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S812" t="n">
+        <v>639</v>
+      </c>
+      <c r="T812" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>6</v>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D813" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="E813" t="n">
+        <v>13</v>
+      </c>
+      <c r="F813" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G813" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H813" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I813" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J813" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>Thompson seedless</t>
+        </is>
+      </c>
+      <c r="L813" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M805" t="n">
+      <c r="M813" t="n">
+        <v>100</v>
+      </c>
+      <c r="N813" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O813" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P813" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q813" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R813" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S813" t="n">
+        <v>444</v>
+      </c>
+      <c r="T813" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>6</v>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D814" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="E814" t="n">
+        <v>13</v>
+      </c>
+      <c r="F814" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G814" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H814" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I814" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J814" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>Thompson seedless</t>
+        </is>
+      </c>
+      <c r="L814" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M814" t="n">
         <v>200</v>
       </c>
-      <c r="N805" t="n">
+      <c r="N814" t="n">
         <v>9000</v>
       </c>
-      <c r="O805" t="n">
+      <c r="O814" t="n">
         <v>10000</v>
       </c>
-      <c r="P805" t="n">
+      <c r="P814" t="n">
         <v>9500</v>
       </c>
-      <c r="Q805" t="inlineStr">
+      <c r="Q814" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R805" t="inlineStr">
+      <c r="R814" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S805" t="n">
+      <c r="S814" t="n">
         <v>528</v>
       </c>
-      <c r="T805" t="n">
+      <c r="T814" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Uva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Uva.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T823"/>
+  <dimension ref="A1:T827"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65367,7 +65367,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E813" t="n">
         <v>13</v>
@@ -65395,7 +65395,7 @@
       </c>
       <c r="K813" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L813" t="inlineStr">
@@ -65404,16 +65404,16 @@
         </is>
       </c>
       <c r="M813" t="n">
-        <v>500</v>
+        <v>1080</v>
       </c>
       <c r="N813" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O813" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P813" t="n">
-        <v>7700</v>
+        <v>8556</v>
       </c>
       <c r="Q813" t="inlineStr">
         <is>
@@ -65426,7 +65426,7 @@
         </is>
       </c>
       <c r="S813" t="n">
-        <v>428</v>
+        <v>475</v>
       </c>
       <c r="T813" t="n">
         <v>18</v>
@@ -65447,7 +65447,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E814" t="n">
         <v>13</v>
@@ -65484,16 +65484,16 @@
         </is>
       </c>
       <c r="M814" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N814" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O814" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P814" t="n">
-        <v>8500</v>
+        <v>12400</v>
       </c>
       <c r="Q814" t="inlineStr">
         <is>
@@ -65502,11 +65502,11 @@
       </c>
       <c r="R814" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S814" t="n">
-        <v>472</v>
+        <v>689</v>
       </c>
       <c r="T814" t="n">
         <v>18</v>
@@ -65527,7 +65527,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E815" t="n">
         <v>13</v>
@@ -65555,7 +65555,7 @@
       </c>
       <c r="K815" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L815" t="inlineStr">
@@ -65564,16 +65564,16 @@
         </is>
       </c>
       <c r="M815" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N815" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O815" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P815" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q815" t="inlineStr">
         <is>
@@ -65582,11 +65582,11 @@
       </c>
       <c r="R815" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S815" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T815" t="n">
         <v>18</v>
@@ -65607,7 +65607,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E816" t="n">
         <v>13</v>
@@ -65635,25 +65635,25 @@
       </c>
       <c r="K816" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L816" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M816" t="n">
-        <v>200</v>
+        <v>940</v>
       </c>
       <c r="N816" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O816" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="P816" t="n">
-        <v>6000</v>
+        <v>10553</v>
       </c>
       <c r="Q816" t="inlineStr">
         <is>
@@ -65662,11 +65662,11 @@
       </c>
       <c r="R816" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S816" t="n">
-        <v>333</v>
+        <v>586</v>
       </c>
       <c r="T816" t="n">
         <v>18</v>
@@ -65715,25 +65715,25 @@
       </c>
       <c r="K817" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L817" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M817" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="N817" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O817" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P817" t="n">
-        <v>10000</v>
+        <v>7700</v>
       </c>
       <c r="Q817" t="inlineStr">
         <is>
@@ -65746,7 +65746,7 @@
         </is>
       </c>
       <c r="S817" t="n">
-        <v>556</v>
+        <v>428</v>
       </c>
       <c r="T817" t="n">
         <v>18</v>
@@ -65795,25 +65795,25 @@
       </c>
       <c r="K818" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L818" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M818" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N818" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="O818" t="n">
-        <v>24000</v>
+        <v>9000</v>
       </c>
       <c r="P818" t="n">
-        <v>23500</v>
+        <v>8500</v>
       </c>
       <c r="Q818" t="inlineStr">
         <is>
@@ -65822,11 +65822,11 @@
       </c>
       <c r="R818" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S818" t="n">
-        <v>1306</v>
+        <v>472</v>
       </c>
       <c r="T818" t="n">
         <v>18</v>
@@ -65875,7 +65875,7 @@
       </c>
       <c r="K819" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L819" t="inlineStr">
@@ -65884,16 +65884,16 @@
         </is>
       </c>
       <c r="M819" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="N819" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O819" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P819" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="Q819" t="inlineStr">
         <is>
@@ -65902,11 +65902,11 @@
       </c>
       <c r="R819" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S819" t="n">
-        <v>1111</v>
+        <v>444</v>
       </c>
       <c r="T819" t="n">
         <v>18</v>
@@ -65927,7 +65927,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E820" t="n">
         <v>13</v>
@@ -65955,41 +65955,41 @@
       </c>
       <c r="K820" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L820" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M820" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N820" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O820" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P820" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q820" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R820" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S820" t="n">
-        <v>1200</v>
+        <v>333</v>
       </c>
       <c r="T820" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="821">
@@ -66007,7 +66007,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44544</v>
+        <v>44335</v>
       </c>
       <c r="E821" t="n">
         <v>13</v>
@@ -66035,25 +66035,25 @@
       </c>
       <c r="K821" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L821" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M821" t="n">
         <v>180</v>
       </c>
       <c r="N821" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O821" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P821" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="Q821" t="inlineStr">
         <is>
@@ -66062,11 +66062,11 @@
       </c>
       <c r="R821" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S821" t="n">
-        <v>750</v>
+        <v>556</v>
       </c>
       <c r="T821" t="n">
         <v>18</v>
@@ -66087,7 +66087,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44160</v>
+        <v>44335</v>
       </c>
       <c r="E822" t="n">
         <v>13</v>
@@ -66115,41 +66115,41 @@
       </c>
       <c r="K822" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L822" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M822" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N822" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="O822" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P822" t="n">
-        <v>22000</v>
+        <v>23500</v>
       </c>
       <c r="Q822" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R822" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S822" t="n">
-        <v>2200</v>
+        <v>1306</v>
       </c>
       <c r="T822" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="823">
@@ -66167,68 +66167,388 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="E823" t="n">
+        <v>13</v>
+      </c>
+      <c r="F823" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G823" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H823" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I823" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J823" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>Thompson seedless</t>
+        </is>
+      </c>
+      <c r="L823" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M823" t="n">
+        <v>140</v>
+      </c>
+      <c r="N823" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O823" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P823" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q823" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R823" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S823" t="n">
+        <v>1111</v>
+      </c>
+      <c r="T823" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="n">
+        <v>6</v>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D824" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E824" t="n">
+        <v>13</v>
+      </c>
+      <c r="F824" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G824" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H824" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I824" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J824" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>Superior Seedless</t>
+        </is>
+      </c>
+      <c r="L824" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M824" t="n">
+        <v>300</v>
+      </c>
+      <c r="N824" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O824" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P824" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q824" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R824" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S824" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T824" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>6</v>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D825" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E825" t="n">
+        <v>13</v>
+      </c>
+      <c r="F825" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G825" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H825" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I825" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J825" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>Flame Seedless</t>
+        </is>
+      </c>
+      <c r="L825" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M825" t="n">
+        <v>180</v>
+      </c>
+      <c r="N825" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O825" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P825" t="n">
+        <v>13500</v>
+      </c>
+      <c r="Q825" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R825" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S825" t="n">
+        <v>750</v>
+      </c>
+      <c r="T825" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="n">
+        <v>6</v>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D826" s="2" t="n">
         <v>44160</v>
       </c>
-      <c r="E823" t="n">
-        <v>13</v>
-      </c>
-      <c r="F823" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G823" t="n">
-        <v>100109</v>
-      </c>
-      <c r="H823" t="inlineStr">
-        <is>
-          <t>Uva</t>
-        </is>
-      </c>
-      <c r="I823" t="n">
-        <v>100109001</v>
-      </c>
-      <c r="J823" t="inlineStr">
-        <is>
-          <t>Uva</t>
-        </is>
-      </c>
-      <c r="K823" t="inlineStr">
+      <c r="E826" t="n">
+        <v>13</v>
+      </c>
+      <c r="F826" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G826" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H826" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I826" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J826" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>Flame Seedless</t>
+        </is>
+      </c>
+      <c r="L826" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M826" t="n">
+        <v>200</v>
+      </c>
+      <c r="N826" t="n">
+        <v>22000</v>
+      </c>
+      <c r="O826" t="n">
+        <v>22000</v>
+      </c>
+      <c r="P826" t="n">
+        <v>22000</v>
+      </c>
+      <c r="Q826" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R826" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="S826" t="n">
+        <v>2200</v>
+      </c>
+      <c r="T826" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="n">
+        <v>6</v>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D827" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E827" t="n">
+        <v>13</v>
+      </c>
+      <c r="F827" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G827" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H827" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I827" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J827" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K827" t="inlineStr">
         <is>
           <t>Red Globe</t>
         </is>
       </c>
-      <c r="L823" t="inlineStr">
+      <c r="L827" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M823" t="n">
+      <c r="M827" t="n">
         <v>160</v>
       </c>
-      <c r="N823" t="n">
+      <c r="N827" t="n">
         <v>25000</v>
       </c>
-      <c r="O823" t="n">
+      <c r="O827" t="n">
         <v>25000</v>
       </c>
-      <c r="P823" t="n">
+      <c r="P827" t="n">
         <v>25000</v>
       </c>
-      <c r="Q823" t="inlineStr">
+      <c r="Q827" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R823" t="inlineStr">
+      <c r="R827" t="inlineStr">
         <is>
           <t>Provincia de Copiapó</t>
         </is>
       </c>
-      <c r="S823" t="n">
+      <c r="S827" t="n">
         <v>2500</v>
       </c>
-      <c r="T823" t="n">
+      <c r="T827" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Uva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Uva.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T878"/>
+  <dimension ref="A1:T883"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66007,7 +66007,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E821" t="n">
         <v>13</v>
@@ -66035,7 +66035,7 @@
       </c>
       <c r="K821" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L821" t="inlineStr">
@@ -66044,16 +66044,16 @@
         </is>
       </c>
       <c r="M821" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N821" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O821" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P821" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q821" t="inlineStr">
         <is>
@@ -66066,7 +66066,7 @@
         </is>
       </c>
       <c r="S821" t="n">
-        <v>472</v>
+        <v>556</v>
       </c>
       <c r="T821" t="n">
         <v>18</v>
@@ -66087,7 +66087,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E822" t="n">
         <v>13</v>
@@ -66115,7 +66115,7 @@
       </c>
       <c r="K822" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Moscatel rosada</t>
         </is>
       </c>
       <c r="L822" t="inlineStr">
@@ -66124,16 +66124,16 @@
         </is>
       </c>
       <c r="M822" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="N822" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O822" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P822" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="Q822" t="inlineStr">
         <is>
@@ -66142,11 +66142,11 @@
       </c>
       <c r="R822" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S822" t="n">
-        <v>472</v>
+        <v>833</v>
       </c>
       <c r="T822" t="n">
         <v>18</v>
@@ -66167,7 +66167,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E823" t="n">
         <v>13</v>
@@ -66195,25 +66195,25 @@
       </c>
       <c r="K823" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L823" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M823" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N823" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O823" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P823" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="Q823" t="inlineStr">
         <is>
@@ -66226,7 +66226,7 @@
         </is>
       </c>
       <c r="S823" t="n">
-        <v>361</v>
+        <v>556</v>
       </c>
       <c r="T823" t="n">
         <v>18</v>
@@ -66247,7 +66247,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E824" t="n">
         <v>13</v>
@@ -66275,7 +66275,7 @@
       </c>
       <c r="K824" t="inlineStr">
         <is>
-          <t>Ribier</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L824" t="inlineStr">
@@ -66284,16 +66284,16 @@
         </is>
       </c>
       <c r="M824" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N824" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O824" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P824" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q824" t="inlineStr">
         <is>
@@ -66302,11 +66302,11 @@
       </c>
       <c r="R824" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S824" t="n">
-        <v>472</v>
+        <v>556</v>
       </c>
       <c r="T824" t="n">
         <v>18</v>
@@ -66327,7 +66327,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E825" t="n">
         <v>13</v>
@@ -66355,7 +66355,7 @@
       </c>
       <c r="K825" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L825" t="inlineStr">
@@ -66364,32 +66364,32 @@
         </is>
       </c>
       <c r="M825" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N825" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O825" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P825" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="Q825" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R825" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S825" t="n">
-        <v>950</v>
+        <v>667</v>
       </c>
       <c r="T825" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="826">
@@ -66435,25 +66435,25 @@
       </c>
       <c r="K826" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L826" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M826" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N826" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O826" t="n">
         <v>9000</v>
       </c>
       <c r="P826" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="Q826" t="inlineStr">
         <is>
@@ -66466,7 +66466,7 @@
         </is>
       </c>
       <c r="S826" t="n">
-        <v>500</v>
+        <v>472</v>
       </c>
       <c r="T826" t="n">
         <v>18</v>
@@ -66515,7 +66515,7 @@
       </c>
       <c r="K827" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L827" t="inlineStr">
@@ -66524,16 +66524,16 @@
         </is>
       </c>
       <c r="M827" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N827" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O827" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P827" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="Q827" t="inlineStr">
         <is>
@@ -66542,11 +66542,11 @@
       </c>
       <c r="R827" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S827" t="n">
-        <v>778</v>
+        <v>472</v>
       </c>
       <c r="T827" t="n">
         <v>18</v>
@@ -66595,25 +66595,25 @@
       </c>
       <c r="K828" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L828" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M828" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N828" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="O828" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P828" t="n">
-        <v>14500</v>
+        <v>6500</v>
       </c>
       <c r="Q828" t="inlineStr">
         <is>
@@ -66622,11 +66622,11 @@
       </c>
       <c r="R828" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S828" t="n">
-        <v>806</v>
+        <v>361</v>
       </c>
       <c r="T828" t="n">
         <v>18</v>
@@ -66675,25 +66675,25 @@
       </c>
       <c r="K829" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Ribier</t>
         </is>
       </c>
       <c r="L829" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M829" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N829" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O829" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P829" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="Q829" t="inlineStr">
         <is>
@@ -66706,7 +66706,7 @@
         </is>
       </c>
       <c r="S829" t="n">
-        <v>667</v>
+        <v>472</v>
       </c>
       <c r="T829" t="n">
         <v>18</v>
@@ -66755,7 +66755,7 @@
       </c>
       <c r="K830" t="inlineStr">
         <is>
-          <t>Timco</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L830" t="inlineStr">
@@ -66764,7 +66764,7 @@
         </is>
       </c>
       <c r="M830" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N830" t="n">
         <v>9000</v>
@@ -66777,19 +66777,19 @@
       </c>
       <c r="Q830" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R830" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S830" t="n">
-        <v>528</v>
+        <v>950</v>
       </c>
       <c r="T830" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="831">
@@ -66835,25 +66835,25 @@
       </c>
       <c r="K831" t="inlineStr">
         <is>
-          <t>Torontel blanca</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L831" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M831" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N831" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O831" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P831" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q831" t="inlineStr">
         <is>
@@ -66866,7 +66866,7 @@
         </is>
       </c>
       <c r="S831" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T831" t="n">
         <v>18</v>
@@ -66887,7 +66887,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44399</v>
+        <v>44312</v>
       </c>
       <c r="E832" t="n">
         <v>13</v>
@@ -66915,41 +66915,41 @@
       </c>
       <c r="K832" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L832" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M832" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N832" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O832" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P832" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q832" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R832" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S832" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T832" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="833">
@@ -66967,7 +66967,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44543</v>
+        <v>44312</v>
       </c>
       <c r="E833" t="n">
         <v>13</v>
@@ -66995,7 +66995,7 @@
       </c>
       <c r="K833" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L833" t="inlineStr">
@@ -67004,32 +67004,32 @@
         </is>
       </c>
       <c r="M833" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N833" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O833" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P833" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="Q833" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R833" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S833" t="n">
-        <v>1000</v>
+        <v>806</v>
       </c>
       <c r="T833" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="834">
@@ -67047,7 +67047,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44167</v>
+        <v>44312</v>
       </c>
       <c r="E834" t="n">
         <v>13</v>
@@ -67075,7 +67075,7 @@
       </c>
       <c r="K834" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L834" t="inlineStr">
@@ -67084,7 +67084,7 @@
         </is>
       </c>
       <c r="M834" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N834" t="n">
         <v>12000</v>
@@ -67097,19 +67097,19 @@
       </c>
       <c r="Q834" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R834" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S834" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="T834" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="835">
@@ -67127,7 +67127,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44277</v>
+        <v>44312</v>
       </c>
       <c r="E835" t="n">
         <v>13</v>
@@ -67155,7 +67155,7 @@
       </c>
       <c r="K835" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Timco</t>
         </is>
       </c>
       <c r="L835" t="inlineStr">
@@ -67164,16 +67164,16 @@
         </is>
       </c>
       <c r="M835" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N835" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O835" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P835" t="n">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="Q835" t="inlineStr">
         <is>
@@ -67182,11 +67182,11 @@
       </c>
       <c r="R835" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S835" t="n">
-        <v>417</v>
+        <v>528</v>
       </c>
       <c r="T835" t="n">
         <v>18</v>
@@ -67207,7 +67207,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44277</v>
+        <v>44312</v>
       </c>
       <c r="E836" t="n">
         <v>13</v>
@@ -67235,7 +67235,7 @@
       </c>
       <c r="K836" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Torontel blanca</t>
         </is>
       </c>
       <c r="L836" t="inlineStr">
@@ -67244,16 +67244,16 @@
         </is>
       </c>
       <c r="M836" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N836" t="n">
         <v>7000</v>
       </c>
       <c r="O836" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P836" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="Q836" t="inlineStr">
         <is>
@@ -67266,7 +67266,7 @@
         </is>
       </c>
       <c r="S836" t="n">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="T836" t="n">
         <v>18</v>
@@ -67287,7 +67287,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44277</v>
+        <v>44399</v>
       </c>
       <c r="E837" t="n">
         <v>13</v>
@@ -67324,32 +67324,32 @@
         </is>
       </c>
       <c r="M837" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N837" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O837" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P837" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q837" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R837" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S837" t="n">
-        <v>333</v>
+        <v>1000</v>
       </c>
       <c r="T837" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="838">
@@ -67367,7 +67367,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44277</v>
+        <v>44543</v>
       </c>
       <c r="E838" t="n">
         <v>13</v>
@@ -67395,29 +67395,29 @@
       </c>
       <c r="K838" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L838" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M838" t="n">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="N838" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O838" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P838" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q838" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R838" t="inlineStr">
@@ -67426,10 +67426,10 @@
         </is>
       </c>
       <c r="S838" t="n">
-        <v>333</v>
+        <v>1000</v>
       </c>
       <c r="T838" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="839">
@@ -67447,7 +67447,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E839" t="n">
         <v>13</v>
@@ -67475,29 +67475,29 @@
       </c>
       <c r="K839" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L839" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M839" t="n">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="N839" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O839" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P839" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="Q839" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R839" t="inlineStr">
@@ -67506,10 +67506,10 @@
         </is>
       </c>
       <c r="S839" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="T839" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="840">
@@ -67555,7 +67555,7 @@
       </c>
       <c r="K840" t="inlineStr">
         <is>
-          <t>Torontel blanca</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L840" t="inlineStr">
@@ -67564,16 +67564,16 @@
         </is>
       </c>
       <c r="M840" t="n">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="N840" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O840" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P840" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="Q840" t="inlineStr">
         <is>
@@ -67586,7 +67586,7 @@
         </is>
       </c>
       <c r="S840" t="n">
-        <v>500</v>
+        <v>417</v>
       </c>
       <c r="T840" t="n">
         <v>18</v>
@@ -67607,7 +67607,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E841" t="n">
         <v>13</v>
@@ -67635,7 +67635,7 @@
       </c>
       <c r="K841" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L841" t="inlineStr">
@@ -67644,16 +67644,16 @@
         </is>
       </c>
       <c r="M841" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N841" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O841" t="n">
         <v>8000</v>
       </c>
       <c r="P841" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="Q841" t="inlineStr">
         <is>
@@ -67666,7 +67666,7 @@
         </is>
       </c>
       <c r="S841" t="n">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="T841" t="n">
         <v>18</v>
@@ -67687,7 +67687,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E842" t="n">
         <v>13</v>
@@ -67715,25 +67715,25 @@
       </c>
       <c r="K842" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L842" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M842" t="n">
         <v>200</v>
       </c>
       <c r="N842" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O842" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P842" t="n">
-        <v>7750</v>
+        <v>6000</v>
       </c>
       <c r="Q842" t="inlineStr">
         <is>
@@ -67742,11 +67742,11 @@
       </c>
       <c r="R842" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S842" t="n">
-        <v>431</v>
+        <v>333</v>
       </c>
       <c r="T842" t="n">
         <v>18</v>
@@ -67767,7 +67767,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E843" t="n">
         <v>13</v>
@@ -67800,20 +67800,20 @@
       </c>
       <c r="L843" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M843" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N843" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O843" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P843" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="Q843" t="inlineStr">
         <is>
@@ -67822,11 +67822,11 @@
       </c>
       <c r="R843" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S843" t="n">
-        <v>472</v>
+        <v>333</v>
       </c>
       <c r="T843" t="n">
         <v>18</v>
@@ -67847,7 +67847,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E844" t="n">
         <v>13</v>
@@ -67884,20 +67884,20 @@
         </is>
       </c>
       <c r="M844" t="n">
-        <v>120</v>
+        <v>234</v>
       </c>
       <c r="N844" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O844" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P844" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q844" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R844" t="inlineStr">
@@ -67906,10 +67906,10 @@
         </is>
       </c>
       <c r="S844" t="n">
-        <v>700</v>
+        <v>722</v>
       </c>
       <c r="T844" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="845">
@@ -67927,7 +67927,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E845" t="n">
         <v>13</v>
@@ -67955,7 +67955,7 @@
       </c>
       <c r="K845" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Torontel blanca</t>
         </is>
       </c>
       <c r="L845" t="inlineStr">
@@ -67964,16 +67964,16 @@
         </is>
       </c>
       <c r="M845" t="n">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="N845" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O845" t="n">
         <v>9000</v>
       </c>
       <c r="P845" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="Q845" t="inlineStr">
         <is>
@@ -67982,11 +67982,11 @@
       </c>
       <c r="R845" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S845" t="n">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="T845" t="n">
         <v>18</v>
@@ -68035,7 +68035,7 @@
       </c>
       <c r="K846" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L846" t="inlineStr">
@@ -68044,16 +68044,16 @@
         </is>
       </c>
       <c r="M846" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N846" t="n">
         <v>8000</v>
       </c>
       <c r="O846" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="P846" t="n">
-        <v>8250</v>
+        <v>8000</v>
       </c>
       <c r="Q846" t="inlineStr">
         <is>
@@ -68062,11 +68062,11 @@
       </c>
       <c r="R846" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S846" t="n">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="T846" t="n">
         <v>18</v>
@@ -68115,25 +68115,25 @@
       </c>
       <c r="K847" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L847" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M847" t="n">
-        <v>380</v>
+        <v>200</v>
       </c>
       <c r="N847" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="O847" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P847" t="n">
-        <v>6474</v>
+        <v>7750</v>
       </c>
       <c r="Q847" t="inlineStr">
         <is>
@@ -68142,11 +68142,11 @@
       </c>
       <c r="R847" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S847" t="n">
-        <v>360</v>
+        <v>431</v>
       </c>
       <c r="T847" t="n">
         <v>18</v>
@@ -68167,7 +68167,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44349</v>
+        <v>44258</v>
       </c>
       <c r="E848" t="n">
         <v>13</v>
@@ -68210,10 +68210,10 @@
         <v>8000</v>
       </c>
       <c r="O848" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P848" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q848" t="inlineStr">
         <is>
@@ -68222,11 +68222,11 @@
       </c>
       <c r="R848" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S848" t="n">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="T848" t="n">
         <v>18</v>
@@ -68247,7 +68247,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44349</v>
+        <v>44258</v>
       </c>
       <c r="E849" t="n">
         <v>13</v>
@@ -68275,7 +68275,7 @@
       </c>
       <c r="K849" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L849" t="inlineStr">
@@ -68284,32 +68284,32 @@
         </is>
       </c>
       <c r="M849" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N849" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O849" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P849" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q849" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R849" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S849" t="n">
-        <v>444</v>
+        <v>700</v>
       </c>
       <c r="T849" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="850">
@@ -68327,7 +68327,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44349</v>
+        <v>44258</v>
       </c>
       <c r="E850" t="n">
         <v>13</v>
@@ -68355,25 +68355,25 @@
       </c>
       <c r="K850" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L850" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M850" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N850" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O850" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P850" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="Q850" t="inlineStr">
         <is>
@@ -68382,11 +68382,11 @@
       </c>
       <c r="R850" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S850" t="n">
-        <v>333</v>
+        <v>472</v>
       </c>
       <c r="T850" t="n">
         <v>18</v>
@@ -68407,7 +68407,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44349</v>
+        <v>44258</v>
       </c>
       <c r="E851" t="n">
         <v>13</v>
@@ -68440,36 +68440,36 @@
       </c>
       <c r="L851" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M851" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N851" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O851" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="P851" t="n">
-        <v>7250</v>
+        <v>8250</v>
       </c>
       <c r="Q851" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R851" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S851" t="n">
-        <v>725</v>
+        <v>458</v>
       </c>
       <c r="T851" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="852">
@@ -68487,7 +68487,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44285</v>
+        <v>44258</v>
       </c>
       <c r="E852" t="n">
         <v>13</v>
@@ -68515,25 +68515,25 @@
       </c>
       <c r="K852" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L852" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M852" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="N852" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O852" t="n">
         <v>7000</v>
       </c>
-      <c r="O852" t="n">
-        <v>8000</v>
-      </c>
       <c r="P852" t="n">
-        <v>7500</v>
+        <v>6474</v>
       </c>
       <c r="Q852" t="inlineStr">
         <is>
@@ -68546,7 +68546,7 @@
         </is>
       </c>
       <c r="S852" t="n">
-        <v>417</v>
+        <v>360</v>
       </c>
       <c r="T852" t="n">
         <v>18</v>
@@ -68567,7 +68567,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44285</v>
+        <v>44349</v>
       </c>
       <c r="E853" t="n">
         <v>13</v>
@@ -68595,7 +68595,7 @@
       </c>
       <c r="K853" t="inlineStr">
         <is>
-          <t>Moscatel rosada</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L853" t="inlineStr">
@@ -68604,32 +68604,32 @@
         </is>
       </c>
       <c r="M853" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N853" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O853" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P853" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q853" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R853" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S853" t="n">
-        <v>679</v>
+        <v>444</v>
       </c>
       <c r="T853" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="854">
@@ -68647,7 +68647,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44285</v>
+        <v>44349</v>
       </c>
       <c r="E854" t="n">
         <v>13</v>
@@ -68684,16 +68684,16 @@
         </is>
       </c>
       <c r="M854" t="n">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="N854" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O854" t="n">
         <v>8000</v>
       </c>
       <c r="P854" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="Q854" t="inlineStr">
         <is>
@@ -68702,11 +68702,11 @@
       </c>
       <c r="R854" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S854" t="n">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="T854" t="n">
         <v>18</v>
@@ -68727,7 +68727,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44285</v>
+        <v>44349</v>
       </c>
       <c r="E855" t="n">
         <v>13</v>
@@ -68760,20 +68760,20 @@
       </c>
       <c r="L855" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M855" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N855" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O855" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P855" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="Q855" t="inlineStr">
         <is>
@@ -68782,11 +68782,11 @@
       </c>
       <c r="R855" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S855" t="n">
-        <v>417</v>
+        <v>333</v>
       </c>
       <c r="T855" t="n">
         <v>18</v>
@@ -68807,7 +68807,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44285</v>
+        <v>44349</v>
       </c>
       <c r="E856" t="n">
         <v>13</v>
@@ -68835,41 +68835,41 @@
       </c>
       <c r="K856" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L856" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M856" t="n">
         <v>200</v>
       </c>
       <c r="N856" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O856" t="n">
         <v>7500</v>
       </c>
-      <c r="O856" t="n">
-        <v>8000</v>
-      </c>
       <c r="P856" t="n">
-        <v>7750</v>
+        <v>7250</v>
       </c>
       <c r="Q856" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R856" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S856" t="n">
-        <v>431</v>
+        <v>725</v>
       </c>
       <c r="T856" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="857">
@@ -68915,25 +68915,25 @@
       </c>
       <c r="K857" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L857" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M857" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N857" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O857" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P857" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="Q857" t="inlineStr">
         <is>
@@ -68946,7 +68946,7 @@
         </is>
       </c>
       <c r="S857" t="n">
-        <v>333</v>
+        <v>417</v>
       </c>
       <c r="T857" t="n">
         <v>18</v>
@@ -68995,7 +68995,7 @@
       </c>
       <c r="K858" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Moscatel rosada</t>
         </is>
       </c>
       <c r="L858" t="inlineStr">
@@ -69004,32 +69004,32 @@
         </is>
       </c>
       <c r="M858" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N858" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O858" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P858" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="Q858" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R858" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S858" t="n">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="T858" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="859">
@@ -69075,7 +69075,7 @@
       </c>
       <c r="K859" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L859" t="inlineStr">
@@ -69084,32 +69084,32 @@
         </is>
       </c>
       <c r="M859" t="n">
-        <v>450</v>
+        <v>260</v>
       </c>
       <c r="N859" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O859" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P859" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="Q859" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R859" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S859" t="n">
-        <v>750</v>
+        <v>417</v>
       </c>
       <c r="T859" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="860">
@@ -69155,25 +69155,25 @@
       </c>
       <c r="K860" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L860" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M860" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N860" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O860" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P860" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="Q860" t="inlineStr">
         <is>
@@ -69186,7 +69186,7 @@
         </is>
       </c>
       <c r="S860" t="n">
-        <v>556</v>
+        <v>417</v>
       </c>
       <c r="T860" t="n">
         <v>18</v>
@@ -69235,25 +69235,25 @@
       </c>
       <c r="K861" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L861" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M861" t="n">
         <v>200</v>
       </c>
       <c r="N861" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O861" t="n">
         <v>8000</v>
       </c>
-      <c r="O861" t="n">
-        <v>8500</v>
-      </c>
       <c r="P861" t="n">
-        <v>8250</v>
+        <v>7750</v>
       </c>
       <c r="Q861" t="inlineStr">
         <is>
@@ -69262,11 +69262,11 @@
       </c>
       <c r="R861" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S861" t="n">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="T861" t="n">
         <v>18</v>
@@ -69287,7 +69287,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44418</v>
+        <v>44285</v>
       </c>
       <c r="E862" t="n">
         <v>13</v>
@@ -69315,7 +69315,7 @@
       </c>
       <c r="K862" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L862" t="inlineStr">
@@ -69324,32 +69324,32 @@
         </is>
       </c>
       <c r="M862" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N862" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="O862" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P862" t="n">
-        <v>8750</v>
+        <v>6000</v>
       </c>
       <c r="Q862" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R862" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S862" t="n">
-        <v>1094</v>
+        <v>333</v>
       </c>
       <c r="T862" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="863">
@@ -69367,7 +69367,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44418</v>
+        <v>44285</v>
       </c>
       <c r="E863" t="n">
         <v>13</v>
@@ -69395,41 +69395,41 @@
       </c>
       <c r="K863" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L863" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M863" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N863" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="O863" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P863" t="n">
-        <v>8750</v>
+        <v>12000</v>
       </c>
       <c r="Q863" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R863" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S863" t="n">
-        <v>1094</v>
+        <v>667</v>
       </c>
       <c r="T863" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="864">
@@ -69447,7 +69447,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44595</v>
+        <v>44285</v>
       </c>
       <c r="E864" t="n">
         <v>13</v>
@@ -69475,7 +69475,7 @@
       </c>
       <c r="K864" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L864" t="inlineStr">
@@ -69484,32 +69484,32 @@
         </is>
       </c>
       <c r="M864" t="n">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="N864" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O864" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P864" t="n">
-        <v>8556</v>
+        <v>15000</v>
       </c>
       <c r="Q864" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R864" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S864" t="n">
-        <v>475</v>
+        <v>750</v>
       </c>
       <c r="T864" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="865">
@@ -69527,7 +69527,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44595</v>
+        <v>44285</v>
       </c>
       <c r="E865" t="n">
         <v>13</v>
@@ -69555,25 +69555,25 @@
       </c>
       <c r="K865" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L865" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M865" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N865" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O865" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P865" t="n">
-        <v>12400</v>
+        <v>10000</v>
       </c>
       <c r="Q865" t="inlineStr">
         <is>
@@ -69582,11 +69582,11 @@
       </c>
       <c r="R865" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S865" t="n">
-        <v>689</v>
+        <v>556</v>
       </c>
       <c r="T865" t="n">
         <v>18</v>
@@ -69607,7 +69607,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44595</v>
+        <v>44285</v>
       </c>
       <c r="E866" t="n">
         <v>13</v>
@@ -69635,25 +69635,25 @@
       </c>
       <c r="K866" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L866" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M866" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N866" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O866" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="P866" t="n">
-        <v>10000</v>
+        <v>8250</v>
       </c>
       <c r="Q866" t="inlineStr">
         <is>
@@ -69662,11 +69662,11 @@
       </c>
       <c r="R866" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S866" t="n">
-        <v>556</v>
+        <v>458</v>
       </c>
       <c r="T866" t="n">
         <v>18</v>
@@ -69687,7 +69687,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44595</v>
+        <v>44418</v>
       </c>
       <c r="E867" t="n">
         <v>13</v>
@@ -69715,29 +69715,29 @@
       </c>
       <c r="K867" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L867" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M867" t="n">
-        <v>940</v>
+        <v>240</v>
       </c>
       <c r="N867" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="O867" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P867" t="n">
-        <v>10553</v>
+        <v>8750</v>
       </c>
       <c r="Q867" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R867" t="inlineStr">
@@ -69746,10 +69746,10 @@
         </is>
       </c>
       <c r="S867" t="n">
-        <v>586</v>
+        <v>1094</v>
       </c>
       <c r="T867" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="868">
@@ -69767,7 +69767,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44335</v>
+        <v>44418</v>
       </c>
       <c r="E868" t="n">
         <v>13</v>
@@ -69795,41 +69795,41 @@
       </c>
       <c r="K868" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L868" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M868" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="N868" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="O868" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P868" t="n">
-        <v>7700</v>
+        <v>8750</v>
       </c>
       <c r="Q868" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R868" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S868" t="n">
-        <v>428</v>
+        <v>1094</v>
       </c>
       <c r="T868" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="869">
@@ -69847,7 +69847,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E869" t="n">
         <v>13</v>
@@ -69875,7 +69875,7 @@
       </c>
       <c r="K869" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L869" t="inlineStr">
@@ -69884,7 +69884,7 @@
         </is>
       </c>
       <c r="M869" t="n">
-        <v>250</v>
+        <v>1080</v>
       </c>
       <c r="N869" t="n">
         <v>8000</v>
@@ -69893,7 +69893,7 @@
         <v>9000</v>
       </c>
       <c r="P869" t="n">
-        <v>8500</v>
+        <v>8556</v>
       </c>
       <c r="Q869" t="inlineStr">
         <is>
@@ -69906,7 +69906,7 @@
         </is>
       </c>
       <c r="S869" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="T869" t="n">
         <v>18</v>
@@ -69927,7 +69927,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E870" t="n">
         <v>13</v>
@@ -69964,16 +69964,16 @@
         </is>
       </c>
       <c r="M870" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N870" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O870" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P870" t="n">
-        <v>8000</v>
+        <v>12400</v>
       </c>
       <c r="Q870" t="inlineStr">
         <is>
@@ -69982,11 +69982,11 @@
       </c>
       <c r="R870" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S870" t="n">
-        <v>444</v>
+        <v>689</v>
       </c>
       <c r="T870" t="n">
         <v>18</v>
@@ -70007,7 +70007,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E871" t="n">
         <v>13</v>
@@ -70035,25 +70035,25 @@
       </c>
       <c r="K871" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L871" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M871" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N871" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O871" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P871" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q871" t="inlineStr">
         <is>
@@ -70062,11 +70062,11 @@
       </c>
       <c r="R871" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S871" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="T871" t="n">
         <v>18</v>
@@ -70087,7 +70087,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E872" t="n">
         <v>13</v>
@@ -70115,25 +70115,25 @@
       </c>
       <c r="K872" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L872" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M872" t="n">
-        <v>180</v>
+        <v>940</v>
       </c>
       <c r="N872" t="n">
         <v>10000</v>
       </c>
       <c r="O872" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P872" t="n">
-        <v>10000</v>
+        <v>10553</v>
       </c>
       <c r="Q872" t="inlineStr">
         <is>
@@ -70142,11 +70142,11 @@
       </c>
       <c r="R872" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S872" t="n">
-        <v>556</v>
+        <v>586</v>
       </c>
       <c r="T872" t="n">
         <v>18</v>
@@ -70195,25 +70195,25 @@
       </c>
       <c r="K873" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L873" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M873" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N873" t="n">
-        <v>23000</v>
+        <v>7000</v>
       </c>
       <c r="O873" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="P873" t="n">
-        <v>23500</v>
+        <v>7700</v>
       </c>
       <c r="Q873" t="inlineStr">
         <is>
@@ -70222,11 +70222,11 @@
       </c>
       <c r="R873" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S873" t="n">
-        <v>1306</v>
+        <v>428</v>
       </c>
       <c r="T873" t="n">
         <v>18</v>
@@ -70275,7 +70275,7 @@
       </c>
       <c r="K874" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L874" t="inlineStr">
@@ -70284,16 +70284,16 @@
         </is>
       </c>
       <c r="M874" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="N874" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O874" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="P874" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="Q874" t="inlineStr">
         <is>
@@ -70302,11 +70302,11 @@
       </c>
       <c r="R874" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S874" t="n">
-        <v>1111</v>
+        <v>472</v>
       </c>
       <c r="T874" t="n">
         <v>18</v>
@@ -70327,7 +70327,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E875" t="n">
         <v>13</v>
@@ -70355,7 +70355,7 @@
       </c>
       <c r="K875" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L875" t="inlineStr">
@@ -70364,32 +70364,32 @@
         </is>
       </c>
       <c r="M875" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N875" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O875" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P875" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q875" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R875" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S875" t="n">
-        <v>1200</v>
+        <v>444</v>
       </c>
       <c r="T875" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="876">
@@ -70407,7 +70407,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44544</v>
+        <v>44335</v>
       </c>
       <c r="E876" t="n">
         <v>13</v>
@@ -70435,25 +70435,25 @@
       </c>
       <c r="K876" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L876" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M876" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N876" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O876" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="P876" t="n">
-        <v>13500</v>
+        <v>6000</v>
       </c>
       <c r="Q876" t="inlineStr">
         <is>
@@ -70462,11 +70462,11 @@
       </c>
       <c r="R876" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S876" t="n">
-        <v>750</v>
+        <v>333</v>
       </c>
       <c r="T876" t="n">
         <v>18</v>
@@ -70487,7 +70487,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44160</v>
+        <v>44335</v>
       </c>
       <c r="E877" t="n">
         <v>13</v>
@@ -70515,41 +70515,41 @@
       </c>
       <c r="K877" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L877" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M877" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N877" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="O877" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P877" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="Q877" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R877" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S877" t="n">
-        <v>2200</v>
+        <v>556</v>
       </c>
       <c r="T877" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="878">
@@ -70567,68 +70567,468 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="E878" t="n">
+        <v>13</v>
+      </c>
+      <c r="F878" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G878" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H878" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I878" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J878" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>Thompson seedless</t>
+        </is>
+      </c>
+      <c r="L878" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M878" t="n">
+        <v>150</v>
+      </c>
+      <c r="N878" t="n">
+        <v>23000</v>
+      </c>
+      <c r="O878" t="n">
+        <v>24000</v>
+      </c>
+      <c r="P878" t="n">
+        <v>23500</v>
+      </c>
+      <c r="Q878" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R878" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S878" t="n">
+        <v>1306</v>
+      </c>
+      <c r="T878" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="n">
+        <v>6</v>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D879" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="E879" t="n">
+        <v>13</v>
+      </c>
+      <c r="F879" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G879" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H879" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I879" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J879" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>Thompson seedless</t>
+        </is>
+      </c>
+      <c r="L879" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M879" t="n">
+        <v>140</v>
+      </c>
+      <c r="N879" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O879" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P879" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q879" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R879" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S879" t="n">
+        <v>1111</v>
+      </c>
+      <c r="T879" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>6</v>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D880" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E880" t="n">
+        <v>13</v>
+      </c>
+      <c r="F880" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G880" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H880" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I880" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J880" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>Superior Seedless</t>
+        </is>
+      </c>
+      <c r="L880" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M880" t="n">
+        <v>300</v>
+      </c>
+      <c r="N880" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O880" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P880" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q880" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R880" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S880" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T880" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>6</v>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D881" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E881" t="n">
+        <v>13</v>
+      </c>
+      <c r="F881" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G881" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H881" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I881" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J881" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>Flame Seedless</t>
+        </is>
+      </c>
+      <c r="L881" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M881" t="n">
+        <v>180</v>
+      </c>
+      <c r="N881" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O881" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P881" t="n">
+        <v>13500</v>
+      </c>
+      <c r="Q881" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R881" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S881" t="n">
+        <v>750</v>
+      </c>
+      <c r="T881" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="n">
+        <v>6</v>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D882" s="2" t="n">
         <v>44160</v>
       </c>
-      <c r="E878" t="n">
-        <v>13</v>
-      </c>
-      <c r="F878" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G878" t="n">
-        <v>100109</v>
-      </c>
-      <c r="H878" t="inlineStr">
-        <is>
-          <t>Uva</t>
-        </is>
-      </c>
-      <c r="I878" t="n">
-        <v>100109001</v>
-      </c>
-      <c r="J878" t="inlineStr">
-        <is>
-          <t>Uva</t>
-        </is>
-      </c>
-      <c r="K878" t="inlineStr">
+      <c r="E882" t="n">
+        <v>13</v>
+      </c>
+      <c r="F882" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G882" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H882" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I882" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J882" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>Flame Seedless</t>
+        </is>
+      </c>
+      <c r="L882" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M882" t="n">
+        <v>200</v>
+      </c>
+      <c r="N882" t="n">
+        <v>22000</v>
+      </c>
+      <c r="O882" t="n">
+        <v>22000</v>
+      </c>
+      <c r="P882" t="n">
+        <v>22000</v>
+      </c>
+      <c r="Q882" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R882" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="S882" t="n">
+        <v>2200</v>
+      </c>
+      <c r="T882" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>6</v>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D883" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E883" t="n">
+        <v>13</v>
+      </c>
+      <c r="F883" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G883" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H883" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I883" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J883" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K883" t="inlineStr">
         <is>
           <t>Red Globe</t>
         </is>
       </c>
-      <c r="L878" t="inlineStr">
+      <c r="L883" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M878" t="n">
+      <c r="M883" t="n">
         <v>160</v>
       </c>
-      <c r="N878" t="n">
+      <c r="N883" t="n">
         <v>25000</v>
       </c>
-      <c r="O878" t="n">
+      <c r="O883" t="n">
         <v>25000</v>
       </c>
-      <c r="P878" t="n">
+      <c r="P883" t="n">
         <v>25000</v>
       </c>
-      <c r="Q878" t="inlineStr">
+      <c r="Q883" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R878" t="inlineStr">
+      <c r="R883" t="inlineStr">
         <is>
           <t>Provincia de Copiapó</t>
         </is>
       </c>
-      <c r="S878" t="n">
+      <c r="S883" t="n">
         <v>2500</v>
       </c>
-      <c r="T878" t="n">
+      <c r="T883" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Uva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Uva.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T956"/>
+  <dimension ref="A1:T964"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76007,7 +76007,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44335</v>
+        <v>44628</v>
       </c>
       <c r="E946" t="n">
         <v>13</v>
@@ -76035,7 +76035,7 @@
       </c>
       <c r="K946" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Moscatel rosada</t>
         </is>
       </c>
       <c r="L946" t="inlineStr">
@@ -76044,16 +76044,16 @@
         </is>
       </c>
       <c r="M946" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N946" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="O946" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P946" t="n">
-        <v>7700</v>
+        <v>16500</v>
       </c>
       <c r="Q946" t="inlineStr">
         <is>
@@ -76062,11 +76062,11 @@
       </c>
       <c r="R946" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S946" t="n">
-        <v>428</v>
+        <v>917</v>
       </c>
       <c r="T946" t="n">
         <v>18</v>
@@ -76087,7 +76087,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44335</v>
+        <v>44628</v>
       </c>
       <c r="E947" t="n">
         <v>13</v>
@@ -76120,36 +76120,36 @@
       </c>
       <c r="L947" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M947" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N947" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O947" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P947" t="n">
-        <v>8500</v>
+        <v>7000</v>
       </c>
       <c r="Q947" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R947" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S947" t="n">
-        <v>472</v>
+        <v>700</v>
       </c>
       <c r="T947" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="948">
@@ -76167,7 +76167,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44335</v>
+        <v>44628</v>
       </c>
       <c r="E948" t="n">
         <v>13</v>
@@ -76195,7 +76195,7 @@
       </c>
       <c r="K948" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L948" t="inlineStr">
@@ -76204,32 +76204,32 @@
         </is>
       </c>
       <c r="M948" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N948" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O948" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P948" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q948" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R948" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S948" t="n">
-        <v>444</v>
+        <v>1000</v>
       </c>
       <c r="T948" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="949">
@@ -76247,7 +76247,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44335</v>
+        <v>44628</v>
       </c>
       <c r="E949" t="n">
         <v>13</v>
@@ -76275,25 +76275,25 @@
       </c>
       <c r="K949" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L949" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M949" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N949" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O949" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P949" t="n">
-        <v>6000</v>
+        <v>11500</v>
       </c>
       <c r="Q949" t="inlineStr">
         <is>
@@ -76302,11 +76302,11 @@
       </c>
       <c r="R949" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S949" t="n">
-        <v>333</v>
+        <v>639</v>
       </c>
       <c r="T949" t="n">
         <v>18</v>
@@ -76327,7 +76327,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44335</v>
+        <v>44628</v>
       </c>
       <c r="E950" t="n">
         <v>13</v>
@@ -76355,25 +76355,25 @@
       </c>
       <c r="K950" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L950" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M950" t="n">
-        <v>180</v>
+        <v>600</v>
       </c>
       <c r="N950" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O950" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P950" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="Q950" t="inlineStr">
         <is>
@@ -76386,7 +76386,7 @@
         </is>
       </c>
       <c r="S950" t="n">
-        <v>556</v>
+        <v>639</v>
       </c>
       <c r="T950" t="n">
         <v>18</v>
@@ -76407,7 +76407,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44335</v>
+        <v>44628</v>
       </c>
       <c r="E951" t="n">
         <v>13</v>
@@ -76440,20 +76440,20 @@
       </c>
       <c r="L951" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M951" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="N951" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="O951" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="P951" t="n">
-        <v>23500</v>
+        <v>11500</v>
       </c>
       <c r="Q951" t="inlineStr">
         <is>
@@ -76462,11 +76462,11 @@
       </c>
       <c r="R951" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S951" t="n">
-        <v>1306</v>
+        <v>639</v>
       </c>
       <c r="T951" t="n">
         <v>18</v>
@@ -76487,7 +76487,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44335</v>
+        <v>44628</v>
       </c>
       <c r="E952" t="n">
         <v>13</v>
@@ -76520,20 +76520,20 @@
       </c>
       <c r="L952" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M952" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="N952" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O952" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P952" t="n">
-        <v>20000</v>
+        <v>9500</v>
       </c>
       <c r="Q952" t="inlineStr">
         <is>
@@ -76542,11 +76542,11 @@
       </c>
       <c r="R952" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S952" t="n">
-        <v>1111</v>
+        <v>528</v>
       </c>
       <c r="T952" t="n">
         <v>18</v>
@@ -76567,7 +76567,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44552</v>
+        <v>44628</v>
       </c>
       <c r="E953" t="n">
         <v>13</v>
@@ -76595,41 +76595,41 @@
       </c>
       <c r="K953" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L953" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M953" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N953" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O953" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P953" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="Q953" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R953" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S953" t="n">
-        <v>1200</v>
+        <v>528</v>
       </c>
       <c r="T953" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="954">
@@ -76647,7 +76647,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44544</v>
+        <v>44335</v>
       </c>
       <c r="E954" t="n">
         <v>13</v>
@@ -76675,7 +76675,7 @@
       </c>
       <c r="K954" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L954" t="inlineStr">
@@ -76684,16 +76684,16 @@
         </is>
       </c>
       <c r="M954" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="N954" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O954" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P954" t="n">
-        <v>13500</v>
+        <v>7700</v>
       </c>
       <c r="Q954" t="inlineStr">
         <is>
@@ -76702,11 +76702,11 @@
       </c>
       <c r="R954" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S954" t="n">
-        <v>750</v>
+        <v>428</v>
       </c>
       <c r="T954" t="n">
         <v>18</v>
@@ -76727,7 +76727,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44160</v>
+        <v>44335</v>
       </c>
       <c r="E955" t="n">
         <v>13</v>
@@ -76755,7 +76755,7 @@
       </c>
       <c r="K955" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L955" t="inlineStr">
@@ -76764,32 +76764,32 @@
         </is>
       </c>
       <c r="M955" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N955" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="O955" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="P955" t="n">
-        <v>22000</v>
+        <v>8500</v>
       </c>
       <c r="Q955" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R955" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S955" t="n">
-        <v>2200</v>
+        <v>472</v>
       </c>
       <c r="T955" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="956">
@@ -76807,68 +76807,708 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="E956" t="n">
+        <v>13</v>
+      </c>
+      <c r="F956" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G956" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H956" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I956" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J956" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>Red Globe</t>
+        </is>
+      </c>
+      <c r="L956" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M956" t="n">
+        <v>250</v>
+      </c>
+      <c r="N956" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O956" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P956" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q956" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R956" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S956" t="n">
+        <v>444</v>
+      </c>
+      <c r="T956" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>6</v>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D957" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="E957" t="n">
+        <v>13</v>
+      </c>
+      <c r="F957" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G957" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H957" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I957" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J957" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>Red Globe</t>
+        </is>
+      </c>
+      <c r="L957" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M957" t="n">
+        <v>200</v>
+      </c>
+      <c r="N957" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O957" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P957" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q957" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R957" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S957" t="n">
+        <v>333</v>
+      </c>
+      <c r="T957" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>6</v>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D958" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="E958" t="n">
+        <v>13</v>
+      </c>
+      <c r="F958" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G958" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H958" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I958" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J958" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>Rosada pastilla</t>
+        </is>
+      </c>
+      <c r="L958" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M958" t="n">
+        <v>180</v>
+      </c>
+      <c r="N958" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O958" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P958" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q958" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R958" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S958" t="n">
+        <v>556</v>
+      </c>
+      <c r="T958" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>6</v>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D959" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="E959" t="n">
+        <v>13</v>
+      </c>
+      <c r="F959" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G959" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H959" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I959" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J959" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>Thompson seedless</t>
+        </is>
+      </c>
+      <c r="L959" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M959" t="n">
+        <v>150</v>
+      </c>
+      <c r="N959" t="n">
+        <v>23000</v>
+      </c>
+      <c r="O959" t="n">
+        <v>24000</v>
+      </c>
+      <c r="P959" t="n">
+        <v>23500</v>
+      </c>
+      <c r="Q959" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R959" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S959" t="n">
+        <v>1306</v>
+      </c>
+      <c r="T959" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>6</v>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D960" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="E960" t="n">
+        <v>13</v>
+      </c>
+      <c r="F960" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G960" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H960" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I960" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J960" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>Thompson seedless</t>
+        </is>
+      </c>
+      <c r="L960" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M960" t="n">
+        <v>140</v>
+      </c>
+      <c r="N960" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O960" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P960" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q960" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R960" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S960" t="n">
+        <v>1111</v>
+      </c>
+      <c r="T960" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>6</v>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D961" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E961" t="n">
+        <v>13</v>
+      </c>
+      <c r="F961" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G961" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H961" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I961" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J961" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>Superior Seedless</t>
+        </is>
+      </c>
+      <c r="L961" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M961" t="n">
+        <v>300</v>
+      </c>
+      <c r="N961" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O961" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P961" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q961" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R961" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S961" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T961" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>6</v>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D962" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E962" t="n">
+        <v>13</v>
+      </c>
+      <c r="F962" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G962" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H962" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I962" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J962" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>Flame Seedless</t>
+        </is>
+      </c>
+      <c r="L962" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M962" t="n">
+        <v>180</v>
+      </c>
+      <c r="N962" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O962" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P962" t="n">
+        <v>13500</v>
+      </c>
+      <c r="Q962" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R962" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S962" t="n">
+        <v>750</v>
+      </c>
+      <c r="T962" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>6</v>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D963" s="2" t="n">
         <v>44160</v>
       </c>
-      <c r="E956" t="n">
-        <v>13</v>
-      </c>
-      <c r="F956" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G956" t="n">
-        <v>100109</v>
-      </c>
-      <c r="H956" t="inlineStr">
-        <is>
-          <t>Uva</t>
-        </is>
-      </c>
-      <c r="I956" t="n">
-        <v>100109001</v>
-      </c>
-      <c r="J956" t="inlineStr">
-        <is>
-          <t>Uva</t>
-        </is>
-      </c>
-      <c r="K956" t="inlineStr">
+      <c r="E963" t="n">
+        <v>13</v>
+      </c>
+      <c r="F963" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G963" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H963" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I963" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J963" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>Flame Seedless</t>
+        </is>
+      </c>
+      <c r="L963" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M963" t="n">
+        <v>200</v>
+      </c>
+      <c r="N963" t="n">
+        <v>22000</v>
+      </c>
+      <c r="O963" t="n">
+        <v>22000</v>
+      </c>
+      <c r="P963" t="n">
+        <v>22000</v>
+      </c>
+      <c r="Q963" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R963" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="S963" t="n">
+        <v>2200</v>
+      </c>
+      <c r="T963" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="n">
+        <v>6</v>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D964" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E964" t="n">
+        <v>13</v>
+      </c>
+      <c r="F964" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G964" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H964" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I964" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J964" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K964" t="inlineStr">
         <is>
           <t>Red Globe</t>
         </is>
       </c>
-      <c r="L956" t="inlineStr">
+      <c r="L964" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M956" t="n">
+      <c r="M964" t="n">
         <v>160</v>
       </c>
-      <c r="N956" t="n">
+      <c r="N964" t="n">
         <v>25000</v>
       </c>
-      <c r="O956" t="n">
+      <c r="O964" t="n">
         <v>25000</v>
       </c>
-      <c r="P956" t="n">
+      <c r="P964" t="n">
         <v>25000</v>
       </c>
-      <c r="Q956" t="inlineStr">
+      <c r="Q964" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R956" t="inlineStr">
+      <c r="R964" t="inlineStr">
         <is>
           <t>Provincia de Copiapó</t>
         </is>
       </c>
-      <c r="S956" t="n">
+      <c r="S964" t="n">
         <v>2500</v>
       </c>
-      <c r="T956" t="n">
+      <c r="T964" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Uva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Uva.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1020"/>
+  <dimension ref="A1:T1023"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66167,7 +66167,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44208</v>
+        <v>44637</v>
       </c>
       <c r="E823" t="n">
         <v>13</v>
@@ -66195,7 +66195,7 @@
       </c>
       <c r="K823" t="inlineStr">
         <is>
-          <t>Ruby Seedless</t>
+          <t>Moscatel rosada</t>
         </is>
       </c>
       <c r="L823" t="inlineStr">
@@ -66204,32 +66204,32 @@
         </is>
       </c>
       <c r="M823" t="n">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="N823" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="O823" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P823" t="n">
-        <v>8000</v>
+        <v>16500</v>
       </c>
       <c r="Q823" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R823" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S823" t="n">
-        <v>1000</v>
+        <v>917</v>
       </c>
       <c r="T823" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="824">
@@ -66247,7 +66247,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44208</v>
+        <v>44637</v>
       </c>
       <c r="E824" t="n">
         <v>13</v>
@@ -66275,7 +66275,7 @@
       </c>
       <c r="K824" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L824" t="inlineStr">
@@ -66284,32 +66284,32 @@
         </is>
       </c>
       <c r="M824" t="n">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="N824" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O824" t="n">
         <v>10000</v>
       </c>
       <c r="P824" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q824" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R824" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S824" t="n">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="T824" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="825">
@@ -66327,7 +66327,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44208</v>
+        <v>44637</v>
       </c>
       <c r="E825" t="n">
         <v>13</v>
@@ -66364,32 +66364,32 @@
         </is>
       </c>
       <c r="M825" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N825" t="n">
         <v>13000</v>
       </c>
       <c r="O825" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P825" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="Q825" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R825" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S825" t="n">
-        <v>1300</v>
+        <v>750</v>
       </c>
       <c r="T825" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="826">
@@ -66435,41 +66435,41 @@
       </c>
       <c r="K826" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Ruby Seedless</t>
         </is>
       </c>
       <c r="L826" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M826" t="n">
-        <v>170</v>
+        <v>360</v>
       </c>
       <c r="N826" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O826" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P826" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q826" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R826" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S826" t="n">
         <v>1000</v>
       </c>
       <c r="T826" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="827">
@@ -66487,7 +66487,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44355</v>
+        <v>44208</v>
       </c>
       <c r="E827" t="n">
         <v>13</v>
@@ -66515,7 +66515,7 @@
       </c>
       <c r="K827" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L827" t="inlineStr">
@@ -66524,32 +66524,32 @@
         </is>
       </c>
       <c r="M827" t="n">
-        <v>100</v>
+        <v>540</v>
       </c>
       <c r="N827" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O827" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P827" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q827" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R827" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S827" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="T827" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="828">
@@ -66567,7 +66567,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44355</v>
+        <v>44208</v>
       </c>
       <c r="E828" t="n">
         <v>13</v>
@@ -66595,41 +66595,41 @@
       </c>
       <c r="K828" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L828" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M828" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N828" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="O828" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="P828" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="Q828" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R828" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S828" t="n">
-        <v>333</v>
+        <v>1300</v>
       </c>
       <c r="T828" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="829">
@@ -66647,7 +66647,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44355</v>
+        <v>44208</v>
       </c>
       <c r="E829" t="n">
         <v>13</v>
@@ -66675,41 +66675,41 @@
       </c>
       <c r="K829" t="inlineStr">
         <is>
-          <t>Torontel blanca</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L829" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M829" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="N829" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O829" t="n">
         <v>10000</v>
       </c>
       <c r="P829" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="Q829" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R829" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S829" t="n">
-        <v>528</v>
+        <v>1000</v>
       </c>
       <c r="T829" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="830">
@@ -66727,7 +66727,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44294</v>
+        <v>44355</v>
       </c>
       <c r="E830" t="n">
         <v>13</v>
@@ -66755,7 +66755,7 @@
       </c>
       <c r="K830" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L830" t="inlineStr">
@@ -66764,16 +66764,16 @@
         </is>
       </c>
       <c r="M830" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N830" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O830" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P830" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q830" t="inlineStr">
         <is>
@@ -66786,7 +66786,7 @@
         </is>
       </c>
       <c r="S830" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T830" t="n">
         <v>18</v>
@@ -66807,7 +66807,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44294</v>
+        <v>44355</v>
       </c>
       <c r="E831" t="n">
         <v>13</v>
@@ -66835,38 +66835,38 @@
       </c>
       <c r="K831" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L831" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M831" t="n">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="N831" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O831" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P831" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q831" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R831" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S831" t="n">
-        <v>444</v>
+        <v>333</v>
       </c>
       <c r="T831" t="n">
         <v>18</v>
@@ -66887,7 +66887,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44294</v>
+        <v>44355</v>
       </c>
       <c r="E832" t="n">
         <v>13</v>
@@ -66915,7 +66915,7 @@
       </c>
       <c r="K832" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Torontel blanca</t>
         </is>
       </c>
       <c r="L832" t="inlineStr">
@@ -66924,29 +66924,29 @@
         </is>
       </c>
       <c r="M832" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N832" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O832" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P832" t="n">
-        <v>7750</v>
+        <v>9500</v>
       </c>
       <c r="Q832" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R832" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S832" t="n">
-        <v>431</v>
+        <v>528</v>
       </c>
       <c r="T832" t="n">
         <v>18</v>
@@ -66995,7 +66995,7 @@
       </c>
       <c r="K833" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L833" t="inlineStr">
@@ -67004,32 +67004,32 @@
         </is>
       </c>
       <c r="M833" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N833" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O833" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P833" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q833" t="inlineStr">
         <is>
-          <t>$/bandeja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R833" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S833" t="n">
-        <v>750</v>
+        <v>444</v>
       </c>
       <c r="T833" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="834">
@@ -67075,7 +67075,7 @@
       </c>
       <c r="K834" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L834" t="inlineStr">
@@ -67084,32 +67084,32 @@
         </is>
       </c>
       <c r="M834" t="n">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="N834" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O834" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P834" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q834" t="inlineStr">
         <is>
-          <t>$/bandeja 12 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R834" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S834" t="n">
-        <v>750</v>
+        <v>444</v>
       </c>
       <c r="T834" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="835">
@@ -67155,29 +67155,29 @@
       </c>
       <c r="K835" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L835" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M835" t="n">
         <v>300</v>
       </c>
       <c r="N835" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="O835" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P835" t="n">
-        <v>14000</v>
+        <v>7750</v>
       </c>
       <c r="Q835" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R835" t="inlineStr">
@@ -67186,7 +67186,7 @@
         </is>
       </c>
       <c r="S835" t="n">
-        <v>778</v>
+        <v>431</v>
       </c>
       <c r="T835" t="n">
         <v>18</v>
@@ -67235,41 +67235,41 @@
       </c>
       <c r="K836" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L836" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M836" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N836" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O836" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P836" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q836" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 12 kilos</t>
         </is>
       </c>
       <c r="R836" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S836" t="n">
-        <v>778</v>
+        <v>750</v>
       </c>
       <c r="T836" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="837">
@@ -67315,7 +67315,7 @@
       </c>
       <c r="K837" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L837" t="inlineStr">
@@ -67324,32 +67324,32 @@
         </is>
       </c>
       <c r="M837" t="n">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="N837" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O837" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P837" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="Q837" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 12 kilos</t>
         </is>
       </c>
       <c r="R837" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S837" t="n">
         <v>750</v>
       </c>
       <c r="T837" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="838">
@@ -67400,20 +67400,20 @@
       </c>
       <c r="L838" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M838" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N838" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O838" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P838" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q838" t="inlineStr">
         <is>
@@ -67426,7 +67426,7 @@
         </is>
       </c>
       <c r="S838" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="T838" t="n">
         <v>18</v>
@@ -67480,36 +67480,36 @@
       </c>
       <c r="L839" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M839" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N839" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="O839" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="P839" t="n">
-        <v>6250</v>
+        <v>14000</v>
       </c>
       <c r="Q839" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R839" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S839" t="n">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="T839" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="840">
@@ -67564,20 +67564,20 @@
         </is>
       </c>
       <c r="M840" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N840" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O840" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P840" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="Q840" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R840" t="inlineStr">
@@ -67586,10 +67586,10 @@
         </is>
       </c>
       <c r="S840" t="n">
-        <v>667</v>
+        <v>750</v>
       </c>
       <c r="T840" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="841">
@@ -67640,20 +67640,20 @@
       </c>
       <c r="L841" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M841" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N841" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O841" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P841" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q841" t="inlineStr">
         <is>
@@ -67666,7 +67666,7 @@
         </is>
       </c>
       <c r="S841" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T841" t="n">
         <v>18</v>
@@ -67715,7 +67715,7 @@
       </c>
       <c r="K842" t="inlineStr">
         <is>
-          <t>Timco</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L842" t="inlineStr">
@@ -67724,32 +67724,32 @@
         </is>
       </c>
       <c r="M842" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N842" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O842" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P842" t="n">
-        <v>7500</v>
+        <v>6250</v>
       </c>
       <c r="Q842" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R842" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="S842" t="n">
-        <v>417</v>
+        <v>781</v>
       </c>
       <c r="T842" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="843">
@@ -67795,7 +67795,7 @@
       </c>
       <c r="K843" t="inlineStr">
         <is>
-          <t>Torontel blanca</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L843" t="inlineStr">
@@ -67804,32 +67804,32 @@
         </is>
       </c>
       <c r="M843" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N843" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O843" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P843" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q843" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R843" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S843" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T843" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="844">
@@ -67847,7 +67847,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44617</v>
+        <v>44294</v>
       </c>
       <c r="E844" t="n">
         <v>13</v>
@@ -67875,25 +67875,25 @@
       </c>
       <c r="K844" t="inlineStr">
         <is>
-          <t>Moscatel rosada</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L844" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M844" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N844" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="O844" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="P844" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="Q844" t="inlineStr">
         <is>
@@ -67906,7 +67906,7 @@
         </is>
       </c>
       <c r="S844" t="n">
-        <v>889</v>
+        <v>500</v>
       </c>
       <c r="T844" t="n">
         <v>18</v>
@@ -67927,7 +67927,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44617</v>
+        <v>44294</v>
       </c>
       <c r="E845" t="n">
         <v>13</v>
@@ -67955,7 +67955,7 @@
       </c>
       <c r="K845" t="inlineStr">
         <is>
-          <t>Moscatel rosada</t>
+          <t>Timco</t>
         </is>
       </c>
       <c r="L845" t="inlineStr">
@@ -67967,17 +67967,17 @@
         <v>250</v>
       </c>
       <c r="N845" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="O845" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P845" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="Q845" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R845" t="inlineStr">
@@ -67986,7 +67986,7 @@
         </is>
       </c>
       <c r="S845" t="n">
-        <v>889</v>
+        <v>417</v>
       </c>
       <c r="T845" t="n">
         <v>18</v>
@@ -68007,7 +68007,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44617</v>
+        <v>44294</v>
       </c>
       <c r="E846" t="n">
         <v>13</v>
@@ -68035,7 +68035,7 @@
       </c>
       <c r="K846" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Torontel blanca</t>
         </is>
       </c>
       <c r="L846" t="inlineStr">
@@ -68044,32 +68044,32 @@
         </is>
       </c>
       <c r="M846" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N846" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O846" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P846" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q846" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="R846" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S846" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="T846" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="847">
@@ -68115,7 +68115,7 @@
       </c>
       <c r="K847" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Moscatel rosada</t>
         </is>
       </c>
       <c r="L847" t="inlineStr">
@@ -68124,32 +68124,32 @@
         </is>
       </c>
       <c r="M847" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N847" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O847" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P847" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="Q847" t="inlineStr">
         <is>
-          <t>$/caja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R847" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S847" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="T847" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="848">
@@ -68195,7 +68195,7 @@
       </c>
       <c r="K848" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Moscatel rosada</t>
         </is>
       </c>
       <c r="L848" t="inlineStr">
@@ -68204,16 +68204,16 @@
         </is>
       </c>
       <c r="M848" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N848" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="O848" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P848" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="Q848" t="inlineStr">
         <is>
@@ -68222,11 +68222,11 @@
       </c>
       <c r="R848" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S848" t="n">
-        <v>583</v>
+        <v>889</v>
       </c>
       <c r="T848" t="n">
         <v>18</v>
@@ -68275,7 +68275,7 @@
       </c>
       <c r="K849" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L849" t="inlineStr">
@@ -68284,20 +68284,20 @@
         </is>
       </c>
       <c r="M849" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N849" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O849" t="n">
         <v>11000</v>
       </c>
       <c r="P849" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="Q849" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R849" t="inlineStr">
@@ -68306,7 +68306,7 @@
         </is>
       </c>
       <c r="S849" t="n">
-        <v>583</v>
+        <v>611</v>
       </c>
       <c r="T849" t="n">
         <v>18</v>
@@ -68355,7 +68355,7 @@
       </c>
       <c r="K850" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L850" t="inlineStr">
@@ -68377,19 +68377,19 @@
       </c>
       <c r="Q850" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 12 kilos</t>
         </is>
       </c>
       <c r="R850" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S850" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T850" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="851">
@@ -68435,7 +68435,7 @@
       </c>
       <c r="K851" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L851" t="inlineStr">
@@ -68447,13 +68447,13 @@
         <v>300</v>
       </c>
       <c r="N851" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O851" t="n">
         <v>11000</v>
       </c>
-      <c r="O851" t="n">
-        <v>12000</v>
-      </c>
       <c r="P851" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="Q851" t="inlineStr">
         <is>
@@ -68462,11 +68462,11 @@
       </c>
       <c r="R851" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S851" t="n">
-        <v>639</v>
+        <v>583</v>
       </c>
       <c r="T851" t="n">
         <v>18</v>
@@ -68487,7 +68487,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44557</v>
+        <v>44617</v>
       </c>
       <c r="E852" t="n">
         <v>13</v>
@@ -68515,7 +68515,7 @@
       </c>
       <c r="K852" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L852" t="inlineStr">
@@ -68524,32 +68524,32 @@
         </is>
       </c>
       <c r="M852" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="N852" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O852" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P852" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="Q852" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R852" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S852" t="n">
-        <v>1500</v>
+        <v>583</v>
       </c>
       <c r="T852" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="853">
@@ -68567,7 +68567,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44557</v>
+        <v>44617</v>
       </c>
       <c r="E853" t="n">
         <v>13</v>
@@ -68595,7 +68595,7 @@
       </c>
       <c r="K853" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L853" t="inlineStr">
@@ -68604,32 +68604,32 @@
         </is>
       </c>
       <c r="M853" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="N853" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O853" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P853" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q853" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R853" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S853" t="n">
-        <v>1800</v>
+        <v>667</v>
       </c>
       <c r="T853" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="854">
@@ -68647,7 +68647,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44264</v>
+        <v>44617</v>
       </c>
       <c r="E854" t="n">
         <v>13</v>
@@ -68675,7 +68675,7 @@
       </c>
       <c r="K854" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L854" t="inlineStr">
@@ -68684,29 +68684,29 @@
         </is>
       </c>
       <c r="M854" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N854" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O854" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P854" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="Q854" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R854" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S854" t="n">
-        <v>444</v>
+        <v>639</v>
       </c>
       <c r="T854" t="n">
         <v>18</v>
@@ -68727,7 +68727,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44264</v>
+        <v>44557</v>
       </c>
       <c r="E855" t="n">
         <v>13</v>
@@ -68755,7 +68755,7 @@
       </c>
       <c r="K855" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L855" t="inlineStr">
@@ -68764,32 +68764,32 @@
         </is>
       </c>
       <c r="M855" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N855" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="O855" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P855" t="n">
-        <v>8750</v>
+        <v>15000</v>
       </c>
       <c r="Q855" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R855" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S855" t="n">
-        <v>486</v>
+        <v>1500</v>
       </c>
       <c r="T855" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="856">
@@ -68807,7 +68807,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44264</v>
+        <v>44557</v>
       </c>
       <c r="E856" t="n">
         <v>13</v>
@@ -68835,7 +68835,7 @@
       </c>
       <c r="K856" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L856" t="inlineStr">
@@ -68844,32 +68844,32 @@
         </is>
       </c>
       <c r="M856" t="n">
-        <v>400</v>
+        <v>210</v>
       </c>
       <c r="N856" t="n">
-        <v>8500</v>
+        <v>18000</v>
       </c>
       <c r="O856" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P856" t="n">
-        <v>8750</v>
+        <v>18000</v>
       </c>
       <c r="Q856" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R856" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S856" t="n">
-        <v>486</v>
+        <v>1800</v>
       </c>
       <c r="T856" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="857">
@@ -68915,7 +68915,7 @@
       </c>
       <c r="K857" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L857" t="inlineStr">
@@ -68924,16 +68924,16 @@
         </is>
       </c>
       <c r="M857" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N857" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O857" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P857" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q857" t="inlineStr">
         <is>
@@ -68946,7 +68946,7 @@
         </is>
       </c>
       <c r="S857" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="T857" t="n">
         <v>18</v>
@@ -68995,25 +68995,25 @@
       </c>
       <c r="K858" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L858" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M858" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N858" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="O858" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P858" t="n">
-        <v>8000</v>
+        <v>8750</v>
       </c>
       <c r="Q858" t="inlineStr">
         <is>
@@ -69026,7 +69026,7 @@
         </is>
       </c>
       <c r="S858" t="n">
-        <v>444</v>
+        <v>486</v>
       </c>
       <c r="T858" t="n">
         <v>18</v>
@@ -69047,7 +69047,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E859" t="n">
         <v>13</v>
@@ -69075,7 +69075,7 @@
       </c>
       <c r="K859" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L859" t="inlineStr">
@@ -69084,29 +69084,29 @@
         </is>
       </c>
       <c r="M859" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N859" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="O859" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P859" t="n">
-        <v>7000</v>
+        <v>8750</v>
       </c>
       <c r="Q859" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R859" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S859" t="n">
-        <v>389</v>
+        <v>486</v>
       </c>
       <c r="T859" t="n">
         <v>18</v>
@@ -69127,7 +69127,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E860" t="n">
         <v>13</v>
@@ -69155,7 +69155,7 @@
       </c>
       <c r="K860" t="inlineStr">
         <is>
-          <t>Ralli Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L860" t="inlineStr">
@@ -69164,16 +69164,16 @@
         </is>
       </c>
       <c r="M860" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N860" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O860" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P860" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q860" t="inlineStr">
         <is>
@@ -69182,11 +69182,11 @@
       </c>
       <c r="R860" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S860" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="T860" t="n">
         <v>18</v>
@@ -69207,7 +69207,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="E861" t="n">
         <v>13</v>
@@ -69235,7 +69235,7 @@
       </c>
       <c r="K861" t="inlineStr">
         <is>
-          <t>Ralli Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L861" t="inlineStr">
@@ -69244,16 +69244,16 @@
         </is>
       </c>
       <c r="M861" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N861" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O861" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P861" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q861" t="inlineStr">
         <is>
@@ -69262,11 +69262,11 @@
       </c>
       <c r="R861" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S861" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="T861" t="n">
         <v>18</v>
@@ -69315,7 +69315,7 @@
       </c>
       <c r="K862" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L862" t="inlineStr">
@@ -69324,29 +69324,29 @@
         </is>
       </c>
       <c r="M862" t="n">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="N862" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O862" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P862" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q862" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R862" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S862" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T862" t="n">
         <v>18</v>
@@ -69395,7 +69395,7 @@
       </c>
       <c r="K863" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Ralli Seedless</t>
         </is>
       </c>
       <c r="L863" t="inlineStr">
@@ -69404,16 +69404,16 @@
         </is>
       </c>
       <c r="M863" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N863" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O863" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P863" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q863" t="inlineStr">
         <is>
@@ -69422,11 +69422,11 @@
       </c>
       <c r="R863" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S863" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="T863" t="n">
         <v>18</v>
@@ -69475,7 +69475,7 @@
       </c>
       <c r="K864" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Ralli Seedless</t>
         </is>
       </c>
       <c r="L864" t="inlineStr">
@@ -69484,7 +69484,7 @@
         </is>
       </c>
       <c r="M864" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N864" t="n">
         <v>7000</v>
@@ -69555,7 +69555,7 @@
       </c>
       <c r="K865" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L865" t="inlineStr">
@@ -69564,16 +69564,16 @@
         </is>
       </c>
       <c r="M865" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="N865" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O865" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P865" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="Q865" t="inlineStr">
         <is>
@@ -69582,11 +69582,11 @@
       </c>
       <c r="R865" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S865" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="T865" t="n">
         <v>18</v>
@@ -69635,7 +69635,7 @@
       </c>
       <c r="K866" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L866" t="inlineStr">
@@ -69644,16 +69644,16 @@
         </is>
       </c>
       <c r="M866" t="n">
-        <v>960</v>
+        <v>270</v>
       </c>
       <c r="N866" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O866" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P866" t="n">
-        <v>10417</v>
+        <v>8000</v>
       </c>
       <c r="Q866" t="inlineStr">
         <is>
@@ -69666,7 +69666,7 @@
         </is>
       </c>
       <c r="S866" t="n">
-        <v>579</v>
+        <v>444</v>
       </c>
       <c r="T866" t="n">
         <v>18</v>
@@ -69715,7 +69715,7 @@
       </c>
       <c r="K867" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L867" t="inlineStr">
@@ -69724,16 +69724,16 @@
         </is>
       </c>
       <c r="M867" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="N867" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O867" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P867" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q867" t="inlineStr">
         <is>
@@ -69742,11 +69742,11 @@
       </c>
       <c r="R867" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S867" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="T867" t="n">
         <v>18</v>
@@ -69800,20 +69800,20 @@
       </c>
       <c r="L868" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M868" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="N868" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O868" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P868" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q868" t="inlineStr">
         <is>
@@ -69822,11 +69822,11 @@
       </c>
       <c r="R868" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S868" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="T868" t="n">
         <v>18</v>
@@ -69847,7 +69847,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E869" t="n">
         <v>13</v>
@@ -69875,7 +69875,7 @@
       </c>
       <c r="K869" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L869" t="inlineStr">
@@ -69884,16 +69884,16 @@
         </is>
       </c>
       <c r="M869" t="n">
-        <v>300</v>
+        <v>960</v>
       </c>
       <c r="N869" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="O869" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P869" t="n">
-        <v>7750</v>
+        <v>10417</v>
       </c>
       <c r="Q869" t="inlineStr">
         <is>
@@ -69906,7 +69906,7 @@
         </is>
       </c>
       <c r="S869" t="n">
-        <v>431</v>
+        <v>579</v>
       </c>
       <c r="T869" t="n">
         <v>18</v>
@@ -69927,7 +69927,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E870" t="n">
         <v>13</v>
@@ -69955,16 +69955,16 @@
       </c>
       <c r="K870" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L870" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M870" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N870" t="n">
         <v>8000</v>
@@ -69982,7 +69982,7 @@
       </c>
       <c r="R870" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S870" t="n">
@@ -70007,7 +70007,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44279</v>
+        <v>44232</v>
       </c>
       <c r="E871" t="n">
         <v>13</v>
@@ -70035,16 +70035,16 @@
       </c>
       <c r="K871" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L871" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M871" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="N871" t="n">
         <v>8000</v>
@@ -70057,19 +70057,19 @@
       </c>
       <c r="Q871" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R871" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S871" t="n">
-        <v>800</v>
+        <v>444</v>
       </c>
       <c r="T871" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="872">
@@ -70115,7 +70115,7 @@
       </c>
       <c r="K872" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L872" t="inlineStr">
@@ -70124,16 +70124,16 @@
         </is>
       </c>
       <c r="M872" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N872" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="O872" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P872" t="n">
-        <v>12000</v>
+        <v>7750</v>
       </c>
       <c r="Q872" t="inlineStr">
         <is>
@@ -70146,7 +70146,7 @@
         </is>
       </c>
       <c r="S872" t="n">
-        <v>667</v>
+        <v>431</v>
       </c>
       <c r="T872" t="n">
         <v>18</v>
@@ -70195,7 +70195,7 @@
       </c>
       <c r="K873" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L873" t="inlineStr">
@@ -70204,16 +70204,16 @@
         </is>
       </c>
       <c r="M873" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N873" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O873" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P873" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q873" t="inlineStr">
         <is>
@@ -70226,7 +70226,7 @@
         </is>
       </c>
       <c r="S873" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="T873" t="n">
         <v>18</v>
@@ -70275,7 +70275,7 @@
       </c>
       <c r="K874" t="inlineStr">
         <is>
-          <t>Timson</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L874" t="inlineStr">
@@ -70284,32 +70284,32 @@
         </is>
       </c>
       <c r="M874" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N874" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O874" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P874" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q874" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R874" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S874" t="n">
-        <v>528</v>
+        <v>800</v>
       </c>
       <c r="T874" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="875">
@@ -70327,7 +70327,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44330</v>
+        <v>44279</v>
       </c>
       <c r="E875" t="n">
         <v>13</v>
@@ -70355,7 +70355,7 @@
       </c>
       <c r="K875" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L875" t="inlineStr">
@@ -70364,16 +70364,16 @@
         </is>
       </c>
       <c r="M875" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N875" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O875" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="P875" t="n">
-        <v>7250</v>
+        <v>12000</v>
       </c>
       <c r="Q875" t="inlineStr">
         <is>
@@ -70386,7 +70386,7 @@
         </is>
       </c>
       <c r="S875" t="n">
-        <v>403</v>
+        <v>667</v>
       </c>
       <c r="T875" t="n">
         <v>18</v>
@@ -70407,7 +70407,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44330</v>
+        <v>44279</v>
       </c>
       <c r="E876" t="n">
         <v>13</v>
@@ -70435,7 +70435,7 @@
       </c>
       <c r="K876" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L876" t="inlineStr">
@@ -70444,16 +70444,16 @@
         </is>
       </c>
       <c r="M876" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N876" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O876" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P876" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="Q876" t="inlineStr">
         <is>
@@ -70466,7 +70466,7 @@
         </is>
       </c>
       <c r="S876" t="n">
-        <v>417</v>
+        <v>667</v>
       </c>
       <c r="T876" t="n">
         <v>18</v>
@@ -70487,7 +70487,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44330</v>
+        <v>44279</v>
       </c>
       <c r="E877" t="n">
         <v>13</v>
@@ -70515,41 +70515,41 @@
       </c>
       <c r="K877" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Timson</t>
         </is>
       </c>
       <c r="L877" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M877" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N877" t="n">
         <v>9000</v>
       </c>
       <c r="O877" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P877" t="n">
-        <v>9000</v>
+        <v>9500</v>
       </c>
       <c r="Q877" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R877" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S877" t="n">
-        <v>900</v>
+        <v>528</v>
       </c>
       <c r="T877" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="878">
@@ -70595,7 +70595,7 @@
       </c>
       <c r="K878" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L878" t="inlineStr">
@@ -70607,13 +70607,13 @@
         <v>250</v>
       </c>
       <c r="N878" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O878" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="P878" t="n">
-        <v>14000</v>
+        <v>7250</v>
       </c>
       <c r="Q878" t="inlineStr">
         <is>
@@ -70622,11 +70622,11 @@
       </c>
       <c r="R878" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S878" t="n">
-        <v>778</v>
+        <v>403</v>
       </c>
       <c r="T878" t="n">
         <v>18</v>
@@ -70675,7 +70675,7 @@
       </c>
       <c r="K879" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L879" t="inlineStr">
@@ -70684,32 +70684,32 @@
         </is>
       </c>
       <c r="M879" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N879" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="O879" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P879" t="n">
-        <v>9750</v>
+        <v>7500</v>
       </c>
       <c r="Q879" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R879" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S879" t="n">
-        <v>975</v>
+        <v>417</v>
       </c>
       <c r="T879" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="880">
@@ -70755,41 +70755,41 @@
       </c>
       <c r="K880" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L880" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M880" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N880" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="O880" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="P880" t="n">
-        <v>21500</v>
+        <v>9000</v>
       </c>
       <c r="Q880" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R880" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S880" t="n">
-        <v>1194</v>
+        <v>900</v>
       </c>
       <c r="T880" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="881">
@@ -70807,7 +70807,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44572</v>
+        <v>44330</v>
       </c>
       <c r="E881" t="n">
         <v>13</v>
@@ -70835,7 +70835,7 @@
       </c>
       <c r="K881" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L881" t="inlineStr">
@@ -70844,32 +70844,32 @@
         </is>
       </c>
       <c r="M881" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N881" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O881" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P881" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="Q881" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R881" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S881" t="n">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="T881" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="882">
@@ -70887,7 +70887,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44572</v>
+        <v>44330</v>
       </c>
       <c r="E882" t="n">
         <v>13</v>
@@ -70915,41 +70915,41 @@
       </c>
       <c r="K882" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L882" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M882" t="n">
         <v>200</v>
       </c>
       <c r="N882" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="O882" t="n">
         <v>10000</v>
       </c>
       <c r="P882" t="n">
-        <v>10000</v>
+        <v>9750</v>
       </c>
       <c r="Q882" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R882" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S882" t="n">
-        <v>667</v>
+        <v>975</v>
       </c>
       <c r="T882" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="883">
@@ -70967,7 +70967,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44572</v>
+        <v>44330</v>
       </c>
       <c r="E883" t="n">
         <v>13</v>
@@ -70995,7 +70995,7 @@
       </c>
       <c r="K883" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L883" t="inlineStr">
@@ -71004,32 +71004,32 @@
         </is>
       </c>
       <c r="M883" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N883" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O883" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P883" t="n">
-        <v>15000</v>
+        <v>21500</v>
       </c>
       <c r="Q883" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R883" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S883" t="n">
-        <v>1000</v>
+        <v>1194</v>
       </c>
       <c r="T883" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="884">
@@ -71075,16 +71075,16 @@
       </c>
       <c r="K884" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L884" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M884" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="N884" t="n">
         <v>12000</v>
@@ -71127,7 +71127,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44257</v>
+        <v>44572</v>
       </c>
       <c r="E885" t="n">
         <v>13</v>
@@ -71155,41 +71155,41 @@
       </c>
       <c r="K885" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L885" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M885" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N885" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O885" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P885" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q885" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R885" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S885" t="n">
-        <v>472</v>
+        <v>667</v>
       </c>
       <c r="T885" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="886">
@@ -71207,7 +71207,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44257</v>
+        <v>44572</v>
       </c>
       <c r="E886" t="n">
         <v>13</v>
@@ -71235,7 +71235,7 @@
       </c>
       <c r="K886" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L886" t="inlineStr">
@@ -71244,32 +71244,32 @@
         </is>
       </c>
       <c r="M886" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N886" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O886" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P886" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="Q886" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R886" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S886" t="n">
-        <v>472</v>
+        <v>1000</v>
       </c>
       <c r="T886" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="887">
@@ -71287,7 +71287,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44257</v>
+        <v>44572</v>
       </c>
       <c r="E887" t="n">
         <v>13</v>
@@ -71315,41 +71315,41 @@
       </c>
       <c r="K887" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L887" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M887" t="n">
-        <v>400</v>
+        <v>170</v>
       </c>
       <c r="N887" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O887" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P887" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="Q887" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R887" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S887" t="n">
-        <v>472</v>
+        <v>800</v>
       </c>
       <c r="T887" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="888">
@@ -71395,7 +71395,7 @@
       </c>
       <c r="K888" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L888" t="inlineStr">
@@ -71404,7 +71404,7 @@
         </is>
       </c>
       <c r="M888" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N888" t="n">
         <v>8000</v>
@@ -71422,7 +71422,7 @@
       </c>
       <c r="R888" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S888" t="n">
@@ -71475,7 +71475,7 @@
       </c>
       <c r="K889" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L889" t="inlineStr">
@@ -71484,7 +71484,7 @@
         </is>
       </c>
       <c r="M889" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N889" t="n">
         <v>8000</v>
@@ -71502,7 +71502,7 @@
       </c>
       <c r="R889" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S889" t="n">
@@ -71560,20 +71560,20 @@
       </c>
       <c r="L890" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M890" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N890" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O890" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P890" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="Q890" t="inlineStr">
         <is>
@@ -71582,11 +71582,11 @@
       </c>
       <c r="R890" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S890" t="n">
-        <v>389</v>
+        <v>472</v>
       </c>
       <c r="T890" t="n">
         <v>18</v>
@@ -71607,7 +71607,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44301</v>
+        <v>44257</v>
       </c>
       <c r="E891" t="n">
         <v>13</v>
@@ -71635,7 +71635,7 @@
       </c>
       <c r="K891" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L891" t="inlineStr">
@@ -71687,7 +71687,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44301</v>
+        <v>44257</v>
       </c>
       <c r="E892" t="n">
         <v>13</v>
@@ -71715,7 +71715,7 @@
       </c>
       <c r="K892" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L892" t="inlineStr">
@@ -71724,7 +71724,7 @@
         </is>
       </c>
       <c r="M892" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N892" t="n">
         <v>8000</v>
@@ -71767,7 +71767,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44301</v>
+        <v>44257</v>
       </c>
       <c r="E893" t="n">
         <v>13</v>
@@ -71800,20 +71800,20 @@
       </c>
       <c r="L893" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M893" t="n">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="N893" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O893" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P893" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="Q893" t="inlineStr">
         <is>
@@ -71822,11 +71822,11 @@
       </c>
       <c r="R893" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S893" t="n">
-        <v>639</v>
+        <v>389</v>
       </c>
       <c r="T893" t="n">
         <v>18</v>
@@ -71847,7 +71847,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E894" t="n">
         <v>13</v>
@@ -71880,20 +71880,20 @@
       </c>
       <c r="L894" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M894" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N894" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O894" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P894" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="Q894" t="inlineStr">
         <is>
@@ -71906,7 +71906,7 @@
         </is>
       </c>
       <c r="S894" t="n">
-        <v>556</v>
+        <v>472</v>
       </c>
       <c r="T894" t="n">
         <v>18</v>
@@ -71927,7 +71927,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E895" t="n">
         <v>13</v>
@@ -71955,25 +71955,25 @@
       </c>
       <c r="K895" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L895" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M895" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N895" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O895" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P895" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="Q895" t="inlineStr">
         <is>
@@ -71982,11 +71982,11 @@
       </c>
       <c r="R895" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S895" t="n">
-        <v>556</v>
+        <v>472</v>
       </c>
       <c r="T895" t="n">
         <v>18</v>
@@ -72007,7 +72007,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44174</v>
+        <v>44301</v>
       </c>
       <c r="E896" t="n">
         <v>13</v>
@@ -72035,7 +72035,7 @@
       </c>
       <c r="K896" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L896" t="inlineStr">
@@ -72044,32 +72044,32 @@
         </is>
       </c>
       <c r="M896" t="n">
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="N896" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O896" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P896" t="n">
-        <v>17000</v>
+        <v>11500</v>
       </c>
       <c r="Q896" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R896" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S896" t="n">
-        <v>2125</v>
+        <v>639</v>
       </c>
       <c r="T896" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="897">
@@ -72087,7 +72087,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44200</v>
+        <v>44370</v>
       </c>
       <c r="E897" t="n">
         <v>13</v>
@@ -72115,41 +72115,41 @@
       </c>
       <c r="K897" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L897" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M897" t="n">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="N897" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O897" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P897" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q897" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R897" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S897" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="T897" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="898">
@@ -72167,7 +72167,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44200</v>
+        <v>44370</v>
       </c>
       <c r="E898" t="n">
         <v>13</v>
@@ -72195,16 +72195,16 @@
       </c>
       <c r="K898" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L898" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M898" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N898" t="n">
         <v>10000</v>
@@ -72222,7 +72222,7 @@
       </c>
       <c r="R898" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S898" t="n">
@@ -72247,7 +72247,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44200</v>
+        <v>44174</v>
       </c>
       <c r="E899" t="n">
         <v>13</v>
@@ -72284,20 +72284,20 @@
         </is>
       </c>
       <c r="M899" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="N899" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O899" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P899" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q899" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R899" t="inlineStr">
@@ -72306,10 +72306,10 @@
         </is>
       </c>
       <c r="S899" t="n">
-        <v>833</v>
+        <v>2125</v>
       </c>
       <c r="T899" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="900">
@@ -72327,7 +72327,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44385</v>
+        <v>44200</v>
       </c>
       <c r="E900" t="n">
         <v>13</v>
@@ -72355,16 +72355,16 @@
       </c>
       <c r="K900" t="inlineStr">
         <is>
-          <t>Autumn Royal</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L900" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M900" t="n">
-        <v>100</v>
+        <v>480</v>
       </c>
       <c r="N900" t="n">
         <v>6000</v>
@@ -72377,19 +72377,19 @@
       </c>
       <c r="Q900" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R900" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S900" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="T900" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="901">
@@ -72407,7 +72407,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44385</v>
+        <v>44200</v>
       </c>
       <c r="E901" t="n">
         <v>13</v>
@@ -72435,41 +72435,41 @@
       </c>
       <c r="K901" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L901" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M901" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N901" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O901" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P901" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q901" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R901" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S901" t="n">
-        <v>750</v>
+        <v>556</v>
       </c>
       <c r="T901" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="902">
@@ -72487,7 +72487,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44385</v>
+        <v>44200</v>
       </c>
       <c r="E902" t="n">
         <v>13</v>
@@ -72515,41 +72515,41 @@
       </c>
       <c r="K902" t="inlineStr">
         <is>
-          <t>Timco</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L902" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M902" t="n">
-        <v>650</v>
+        <v>175</v>
       </c>
       <c r="N902" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O902" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="P902" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="Q902" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R902" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S902" t="n">
-        <v>750</v>
+        <v>833</v>
       </c>
       <c r="T902" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="903">
@@ -72567,7 +72567,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44236</v>
+        <v>44385</v>
       </c>
       <c r="E903" t="n">
         <v>13</v>
@@ -72595,41 +72595,41 @@
       </c>
       <c r="K903" t="inlineStr">
         <is>
-          <t>Ralli Seedless</t>
+          <t>Autumn Royal</t>
         </is>
       </c>
       <c r="L903" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M903" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N903" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O903" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P903" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="Q903" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R903" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S903" t="n">
-        <v>528</v>
+        <v>750</v>
       </c>
       <c r="T903" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="904">
@@ -72647,7 +72647,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44236</v>
+        <v>44385</v>
       </c>
       <c r="E904" t="n">
         <v>13</v>
@@ -72680,36 +72680,36 @@
       </c>
       <c r="L904" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M904" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="N904" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O904" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P904" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="Q904" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R904" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S904" t="n">
-        <v>417</v>
+        <v>750</v>
       </c>
       <c r="T904" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="905">
@@ -72727,7 +72727,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44236</v>
+        <v>44385</v>
       </c>
       <c r="E905" t="n">
         <v>13</v>
@@ -72755,29 +72755,29 @@
       </c>
       <c r="K905" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Timco</t>
         </is>
       </c>
       <c r="L905" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M905" t="n">
-        <v>740</v>
+        <v>650</v>
       </c>
       <c r="N905" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O905" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P905" t="n">
-        <v>8514</v>
+        <v>6000</v>
       </c>
       <c r="Q905" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R905" t="inlineStr">
@@ -72786,10 +72786,10 @@
         </is>
       </c>
       <c r="S905" t="n">
-        <v>473</v>
+        <v>750</v>
       </c>
       <c r="T905" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="906">
@@ -72835,7 +72835,7 @@
       </c>
       <c r="K906" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Ralli Seedless</t>
         </is>
       </c>
       <c r="L906" t="inlineStr">
@@ -72844,16 +72844,16 @@
         </is>
       </c>
       <c r="M906" t="n">
-        <v>540</v>
+        <v>400</v>
       </c>
       <c r="N906" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O906" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P906" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="Q906" t="inlineStr">
         <is>
@@ -72866,7 +72866,7 @@
         </is>
       </c>
       <c r="S906" t="n">
-        <v>639</v>
+        <v>528</v>
       </c>
       <c r="T906" t="n">
         <v>18</v>
@@ -72915,7 +72915,7 @@
       </c>
       <c r="K907" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L907" t="inlineStr">
@@ -72924,16 +72924,16 @@
         </is>
       </c>
       <c r="M907" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="N907" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O907" t="n">
         <v>8000</v>
       </c>
-      <c r="O907" t="n">
-        <v>9000</v>
-      </c>
       <c r="P907" t="n">
-        <v>8467</v>
+        <v>7500</v>
       </c>
       <c r="Q907" t="inlineStr">
         <is>
@@ -72942,11 +72942,11 @@
       </c>
       <c r="R907" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S907" t="n">
-        <v>470</v>
+        <v>417</v>
       </c>
       <c r="T907" t="n">
         <v>18</v>
@@ -72995,25 +72995,25 @@
       </c>
       <c r="K908" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L908" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M908" t="n">
-        <v>360</v>
+        <v>740</v>
       </c>
       <c r="N908" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O908" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P908" t="n">
-        <v>6000</v>
+        <v>8514</v>
       </c>
       <c r="Q908" t="inlineStr">
         <is>
@@ -73026,7 +73026,7 @@
         </is>
       </c>
       <c r="S908" t="n">
-        <v>333</v>
+        <v>473</v>
       </c>
       <c r="T908" t="n">
         <v>18</v>
@@ -73075,7 +73075,7 @@
       </c>
       <c r="K909" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L909" t="inlineStr">
@@ -73084,16 +73084,16 @@
         </is>
       </c>
       <c r="M909" t="n">
-        <v>590</v>
+        <v>540</v>
       </c>
       <c r="N909" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O909" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P909" t="n">
-        <v>8458</v>
+        <v>11500</v>
       </c>
       <c r="Q909" t="inlineStr">
         <is>
@@ -73102,11 +73102,11 @@
       </c>
       <c r="R909" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S909" t="n">
-        <v>470</v>
+        <v>639</v>
       </c>
       <c r="T909" t="n">
         <v>18</v>
@@ -73127,7 +73127,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44221</v>
+        <v>44236</v>
       </c>
       <c r="E910" t="n">
         <v>13</v>
@@ -73155,7 +73155,7 @@
       </c>
       <c r="K910" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L910" t="inlineStr">
@@ -73164,16 +73164,16 @@
         </is>
       </c>
       <c r="M910" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="N910" t="n">
         <v>8000</v>
       </c>
       <c r="O910" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P910" t="n">
-        <v>8000</v>
+        <v>8467</v>
       </c>
       <c r="Q910" t="inlineStr">
         <is>
@@ -73182,11 +73182,11 @@
       </c>
       <c r="R910" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S910" t="n">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="T910" t="n">
         <v>18</v>
@@ -73207,7 +73207,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44221</v>
+        <v>44236</v>
       </c>
       <c r="E911" t="n">
         <v>13</v>
@@ -73240,20 +73240,20 @@
       </c>
       <c r="L911" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M911" t="n">
-        <v>850</v>
+        <v>360</v>
       </c>
       <c r="N911" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O911" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P911" t="n">
-        <v>10059</v>
+        <v>6000</v>
       </c>
       <c r="Q911" t="inlineStr">
         <is>
@@ -73262,11 +73262,11 @@
       </c>
       <c r="R911" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S911" t="n">
-        <v>559</v>
+        <v>333</v>
       </c>
       <c r="T911" t="n">
         <v>18</v>
@@ -73287,7 +73287,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44221</v>
+        <v>44236</v>
       </c>
       <c r="E912" t="n">
         <v>13</v>
@@ -73315,25 +73315,25 @@
       </c>
       <c r="K912" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L912" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M912" t="n">
-        <v>150</v>
+        <v>590</v>
       </c>
       <c r="N912" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O912" t="n">
         <v>9000</v>
       </c>
       <c r="P912" t="n">
-        <v>9000</v>
+        <v>8458</v>
       </c>
       <c r="Q912" t="inlineStr">
         <is>
@@ -73342,11 +73342,11 @@
       </c>
       <c r="R912" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S912" t="n">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="T912" t="n">
         <v>18</v>
@@ -73367,7 +73367,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44413</v>
+        <v>44221</v>
       </c>
       <c r="E913" t="n">
         <v>13</v>
@@ -73395,41 +73395,41 @@
       </c>
       <c r="K913" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L913" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M913" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N913" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O913" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P913" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q913" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R913" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S913" t="n">
-        <v>1125</v>
+        <v>444</v>
       </c>
       <c r="T913" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="914">
@@ -73447,7 +73447,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44413</v>
+        <v>44221</v>
       </c>
       <c r="E914" t="n">
         <v>13</v>
@@ -73475,41 +73475,41 @@
       </c>
       <c r="K914" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L914" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M914" t="n">
-        <v>200</v>
+        <v>850</v>
       </c>
       <c r="N914" t="n">
         <v>9000</v>
       </c>
       <c r="O914" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P914" t="n">
-        <v>9000</v>
+        <v>10059</v>
       </c>
       <c r="Q914" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R914" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S914" t="n">
-        <v>1125</v>
+        <v>559</v>
       </c>
       <c r="T914" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="915">
@@ -73527,7 +73527,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44272</v>
+        <v>44221</v>
       </c>
       <c r="E915" t="n">
         <v>13</v>
@@ -73555,25 +73555,25 @@
       </c>
       <c r="K915" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L915" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M915" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N915" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O915" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P915" t="n">
-        <v>7750</v>
+        <v>9000</v>
       </c>
       <c r="Q915" t="inlineStr">
         <is>
@@ -73582,11 +73582,11 @@
       </c>
       <c r="R915" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S915" t="n">
-        <v>431</v>
+        <v>500</v>
       </c>
       <c r="T915" t="n">
         <v>18</v>
@@ -73607,7 +73607,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44272</v>
+        <v>44413</v>
       </c>
       <c r="E916" t="n">
         <v>13</v>
@@ -73635,41 +73635,41 @@
       </c>
       <c r="K916" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L916" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M916" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N916" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O916" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P916" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q916" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R916" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S916" t="n">
-        <v>444</v>
+        <v>1125</v>
       </c>
       <c r="T916" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="917">
@@ -73687,7 +73687,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44272</v>
+        <v>44413</v>
       </c>
       <c r="E917" t="n">
         <v>13</v>
@@ -73720,24 +73720,24 @@
       </c>
       <c r="L917" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M917" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N917" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O917" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P917" t="n">
-        <v>7750</v>
+        <v>9000</v>
       </c>
       <c r="Q917" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R917" t="inlineStr">
@@ -73746,10 +73746,10 @@
         </is>
       </c>
       <c r="S917" t="n">
-        <v>431</v>
+        <v>1125</v>
       </c>
       <c r="T917" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="918">
@@ -73795,7 +73795,7 @@
       </c>
       <c r="K918" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L918" t="inlineStr">
@@ -73804,32 +73804,32 @@
         </is>
       </c>
       <c r="M918" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N918" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O918" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P918" t="n">
-        <v>9000</v>
+        <v>7750</v>
       </c>
       <c r="Q918" t="inlineStr">
         <is>
-          <t>$/bandeja 12 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R918" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S918" t="n">
-        <v>750</v>
+        <v>431</v>
       </c>
       <c r="T918" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="919">
@@ -73875,7 +73875,7 @@
       </c>
       <c r="K919" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L919" t="inlineStr">
@@ -73887,13 +73887,13 @@
         <v>250</v>
       </c>
       <c r="N919" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O919" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P919" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q919" t="inlineStr">
         <is>
@@ -73902,11 +73902,11 @@
       </c>
       <c r="R919" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S919" t="n">
-        <v>722</v>
+        <v>444</v>
       </c>
       <c r="T919" t="n">
         <v>18</v>
@@ -73955,25 +73955,25 @@
       </c>
       <c r="K920" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L920" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M920" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N920" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O920" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P920" t="n">
-        <v>9000</v>
+        <v>7750</v>
       </c>
       <c r="Q920" t="inlineStr">
         <is>
@@ -73982,11 +73982,11 @@
       </c>
       <c r="R920" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S920" t="n">
-        <v>500</v>
+        <v>431</v>
       </c>
       <c r="T920" t="n">
         <v>18</v>
@@ -74035,41 +74035,41 @@
       </c>
       <c r="K921" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L921" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M921" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N921" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O921" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P921" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q921" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 12 kilos</t>
         </is>
       </c>
       <c r="R921" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S921" t="n">
-        <v>556</v>
+        <v>750</v>
       </c>
       <c r="T921" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="922">
@@ -74115,7 +74115,7 @@
       </c>
       <c r="K922" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L922" t="inlineStr">
@@ -74124,16 +74124,16 @@
         </is>
       </c>
       <c r="M922" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N922" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O922" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P922" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q922" t="inlineStr">
         <is>
@@ -74142,11 +74142,11 @@
       </c>
       <c r="R922" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S922" t="n">
-        <v>444</v>
+        <v>722</v>
       </c>
       <c r="T922" t="n">
         <v>18</v>
@@ -74195,7 +74195,7 @@
       </c>
       <c r="K923" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L923" t="inlineStr">
@@ -74204,16 +74204,16 @@
         </is>
       </c>
       <c r="M923" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N923" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O923" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P923" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q923" t="inlineStr">
         <is>
@@ -74222,11 +74222,11 @@
       </c>
       <c r="R923" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S923" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="T923" t="n">
         <v>18</v>
@@ -74247,7 +74247,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44229</v>
+        <v>44272</v>
       </c>
       <c r="E924" t="n">
         <v>13</v>
@@ -74275,16 +74275,16 @@
       </c>
       <c r="K924" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L924" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M924" t="n">
-        <v>480</v>
+        <v>100</v>
       </c>
       <c r="N924" t="n">
         <v>10000</v>
@@ -74327,7 +74327,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44229</v>
+        <v>44272</v>
       </c>
       <c r="E925" t="n">
         <v>13</v>
@@ -74355,7 +74355,7 @@
       </c>
       <c r="K925" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L925" t="inlineStr">
@@ -74364,16 +74364,16 @@
         </is>
       </c>
       <c r="M925" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N925" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O925" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P925" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q925" t="inlineStr">
         <is>
@@ -74386,7 +74386,7 @@
         </is>
       </c>
       <c r="S925" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="T925" t="n">
         <v>18</v>
@@ -74407,7 +74407,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44229</v>
+        <v>44272</v>
       </c>
       <c r="E926" t="n">
         <v>13</v>
@@ -74435,25 +74435,25 @@
       </c>
       <c r="K926" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L926" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M926" t="n">
-        <v>530</v>
+        <v>100</v>
       </c>
       <c r="N926" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O926" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="P926" t="n">
-        <v>12434</v>
+        <v>7000</v>
       </c>
       <c r="Q926" t="inlineStr">
         <is>
@@ -74466,7 +74466,7 @@
         </is>
       </c>
       <c r="S926" t="n">
-        <v>691</v>
+        <v>389</v>
       </c>
       <c r="T926" t="n">
         <v>18</v>
@@ -74515,7 +74515,7 @@
       </c>
       <c r="K927" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L927" t="inlineStr">
@@ -74524,16 +74524,16 @@
         </is>
       </c>
       <c r="M927" t="n">
-        <v>260</v>
+        <v>480</v>
       </c>
       <c r="N927" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O927" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P927" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="Q927" t="inlineStr">
         <is>
@@ -74546,7 +74546,7 @@
         </is>
       </c>
       <c r="S927" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="T927" t="n">
         <v>18</v>
@@ -74567,7 +74567,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44214</v>
+        <v>44229</v>
       </c>
       <c r="E928" t="n">
         <v>13</v>
@@ -74595,7 +74595,7 @@
       </c>
       <c r="K928" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L928" t="inlineStr">
@@ -74604,32 +74604,32 @@
         </is>
       </c>
       <c r="M928" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N928" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O928" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P928" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q928" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R928" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S928" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T928" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="929">
@@ -74647,7 +74647,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44214</v>
+        <v>44229</v>
       </c>
       <c r="E929" t="n">
         <v>13</v>
@@ -74675,7 +74675,7 @@
       </c>
       <c r="K929" t="inlineStr">
         <is>
-          <t>Moscatel rosada</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L929" t="inlineStr">
@@ -74684,32 +74684,32 @@
         </is>
       </c>
       <c r="M929" t="n">
-        <v>255</v>
+        <v>530</v>
       </c>
       <c r="N929" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O929" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P929" t="n">
-        <v>16000</v>
+        <v>12434</v>
       </c>
       <c r="Q929" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R929" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S929" t="n">
-        <v>1600</v>
+        <v>691</v>
       </c>
       <c r="T929" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="930">
@@ -74727,7 +74727,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44214</v>
+        <v>44229</v>
       </c>
       <c r="E930" t="n">
         <v>13</v>
@@ -74755,7 +74755,7 @@
       </c>
       <c r="K930" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L930" t="inlineStr">
@@ -74764,32 +74764,32 @@
         </is>
       </c>
       <c r="M930" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N930" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O930" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P930" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="Q930" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R930" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S930" t="n">
-        <v>950</v>
+        <v>778</v>
       </c>
       <c r="T930" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="931">
@@ -74835,7 +74835,7 @@
       </c>
       <c r="K931" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L931" t="inlineStr">
@@ -74844,16 +74844,16 @@
         </is>
       </c>
       <c r="M931" t="n">
-        <v>980</v>
+        <v>200</v>
       </c>
       <c r="N931" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O931" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P931" t="n">
-        <v>11592</v>
+        <v>8000</v>
       </c>
       <c r="Q931" t="inlineStr">
         <is>
@@ -74866,7 +74866,7 @@
         </is>
       </c>
       <c r="S931" t="n">
-        <v>1159</v>
+        <v>800</v>
       </c>
       <c r="T931" t="n">
         <v>10</v>
@@ -74915,7 +74915,7 @@
       </c>
       <c r="K932" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Moscatel rosada</t>
         </is>
       </c>
       <c r="L932" t="inlineStr">
@@ -74924,16 +74924,16 @@
         </is>
       </c>
       <c r="M932" t="n">
-        <v>150</v>
+        <v>255</v>
       </c>
       <c r="N932" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="O932" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P932" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="Q932" t="inlineStr">
         <is>
@@ -74942,11 +74942,11 @@
       </c>
       <c r="R932" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S932" t="n">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="T932" t="n">
         <v>10</v>
@@ -74995,16 +74995,16 @@
       </c>
       <c r="K933" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L933" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M933" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N933" t="n">
         <v>9000</v>
@@ -75017,19 +75017,19 @@
       </c>
       <c r="Q933" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R933" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S933" t="n">
-        <v>633</v>
+        <v>950</v>
       </c>
       <c r="T933" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="934">
@@ -75075,29 +75075,29 @@
       </c>
       <c r="K934" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L934" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M934" t="n">
-        <v>450</v>
+        <v>980</v>
       </c>
       <c r="N934" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O934" t="n">
         <v>12000</v>
       </c>
       <c r="P934" t="n">
-        <v>12000</v>
+        <v>11592</v>
       </c>
       <c r="Q934" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R934" t="inlineStr">
@@ -75106,10 +75106,10 @@
         </is>
       </c>
       <c r="S934" t="n">
-        <v>800</v>
+        <v>1159</v>
       </c>
       <c r="T934" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="935">
@@ -75127,7 +75127,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44299</v>
+        <v>44214</v>
       </c>
       <c r="E935" t="n">
         <v>13</v>
@@ -75155,7 +75155,7 @@
       </c>
       <c r="K935" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L935" t="inlineStr">
@@ -75167,29 +75167,29 @@
         <v>150</v>
       </c>
       <c r="N935" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O935" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P935" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="Q935" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R935" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="S935" t="n">
-        <v>778</v>
+        <v>700</v>
       </c>
       <c r="T935" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="936">
@@ -75207,7 +75207,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44299</v>
+        <v>44214</v>
       </c>
       <c r="E936" t="n">
         <v>13</v>
@@ -75235,41 +75235,41 @@
       </c>
       <c r="K936" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L936" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M936" t="n">
         <v>200</v>
       </c>
       <c r="N936" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O936" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P936" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="Q936" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R936" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S936" t="n">
-        <v>722</v>
+        <v>633</v>
       </c>
       <c r="T936" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="937">
@@ -75287,7 +75287,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44610</v>
+        <v>44214</v>
       </c>
       <c r="E937" t="n">
         <v>13</v>
@@ -75315,41 +75315,41 @@
       </c>
       <c r="K937" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L937" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M937" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="N937" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O937" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P937" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q937" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R937" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S937" t="n">
-        <v>556</v>
+        <v>800</v>
       </c>
       <c r="T937" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="938">
@@ -75367,7 +75367,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44610</v>
+        <v>44299</v>
       </c>
       <c r="E938" t="n">
         <v>13</v>
@@ -75395,7 +75395,7 @@
       </c>
       <c r="K938" t="inlineStr">
         <is>
-          <t>Moscatel rosada</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L938" t="inlineStr">
@@ -75404,16 +75404,16 @@
         </is>
       </c>
       <c r="M938" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N938" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O938" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P938" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q938" t="inlineStr">
         <is>
@@ -75422,11 +75422,11 @@
       </c>
       <c r="R938" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S938" t="n">
-        <v>833</v>
+        <v>778</v>
       </c>
       <c r="T938" t="n">
         <v>18</v>
@@ -75447,7 +75447,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44610</v>
+        <v>44299</v>
       </c>
       <c r="E939" t="n">
         <v>13</v>
@@ -75475,7 +75475,7 @@
       </c>
       <c r="K939" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L939" t="inlineStr">
@@ -75484,16 +75484,16 @@
         </is>
       </c>
       <c r="M939" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N939" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="O939" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P939" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="Q939" t="inlineStr">
         <is>
@@ -75506,7 +75506,7 @@
         </is>
       </c>
       <c r="S939" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="T939" t="n">
         <v>18</v>
@@ -75555,7 +75555,7 @@
       </c>
       <c r="K940" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L940" t="inlineStr">
@@ -75582,7 +75582,7 @@
       </c>
       <c r="R940" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S940" t="n">
@@ -75635,7 +75635,7 @@
       </c>
       <c r="K941" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Moscatel rosada</t>
         </is>
       </c>
       <c r="L941" t="inlineStr">
@@ -75644,16 +75644,16 @@
         </is>
       </c>
       <c r="M941" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N941" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O941" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P941" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q941" t="inlineStr">
         <is>
@@ -75662,11 +75662,11 @@
       </c>
       <c r="R941" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S941" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="T941" t="n">
         <v>18</v>
@@ -75687,7 +75687,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E942" t="n">
         <v>13</v>
@@ -75715,7 +75715,7 @@
       </c>
       <c r="K942" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L942" t="inlineStr">
@@ -75724,16 +75724,16 @@
         </is>
       </c>
       <c r="M942" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N942" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O942" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P942" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q942" t="inlineStr">
         <is>
@@ -75746,7 +75746,7 @@
         </is>
       </c>
       <c r="S942" t="n">
-        <v>472</v>
+        <v>556</v>
       </c>
       <c r="T942" t="n">
         <v>18</v>
@@ -75767,7 +75767,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E943" t="n">
         <v>13</v>
@@ -75795,7 +75795,7 @@
       </c>
       <c r="K943" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L943" t="inlineStr">
@@ -75804,16 +75804,16 @@
         </is>
       </c>
       <c r="M943" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="N943" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O943" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P943" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="Q943" t="inlineStr">
         <is>
@@ -75826,7 +75826,7 @@
         </is>
       </c>
       <c r="S943" t="n">
-        <v>472</v>
+        <v>556</v>
       </c>
       <c r="T943" t="n">
         <v>18</v>
@@ -75847,7 +75847,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E944" t="n">
         <v>13</v>
@@ -75875,25 +75875,25 @@
       </c>
       <c r="K944" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L944" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M944" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N944" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O944" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P944" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="Q944" t="inlineStr">
         <is>
@@ -75906,7 +75906,7 @@
         </is>
       </c>
       <c r="S944" t="n">
-        <v>361</v>
+        <v>667</v>
       </c>
       <c r="T944" t="n">
         <v>18</v>
@@ -75955,7 +75955,7 @@
       </c>
       <c r="K945" t="inlineStr">
         <is>
-          <t>Ribier</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L945" t="inlineStr">
@@ -75964,7 +75964,7 @@
         </is>
       </c>
       <c r="M945" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N945" t="n">
         <v>8000</v>
@@ -76035,7 +76035,7 @@
       </c>
       <c r="K946" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L946" t="inlineStr">
@@ -76044,32 +76044,32 @@
         </is>
       </c>
       <c r="M946" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N946" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O946" t="n">
         <v>9000</v>
       </c>
-      <c r="O946" t="n">
-        <v>10000</v>
-      </c>
       <c r="P946" t="n">
-        <v>9500</v>
+        <v>8500</v>
       </c>
       <c r="Q946" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R946" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S946" t="n">
-        <v>950</v>
+        <v>472</v>
       </c>
       <c r="T946" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="947">
@@ -76115,7 +76115,7 @@
       </c>
       <c r="K947" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L947" t="inlineStr">
@@ -76124,16 +76124,16 @@
         </is>
       </c>
       <c r="M947" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N947" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O947" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P947" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="Q947" t="inlineStr">
         <is>
@@ -76146,7 +76146,7 @@
         </is>
       </c>
       <c r="S947" t="n">
-        <v>500</v>
+        <v>361</v>
       </c>
       <c r="T947" t="n">
         <v>18</v>
@@ -76195,7 +76195,7 @@
       </c>
       <c r="K948" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Ribier</t>
         </is>
       </c>
       <c r="L948" t="inlineStr">
@@ -76204,16 +76204,16 @@
         </is>
       </c>
       <c r="M948" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N948" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O948" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P948" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="Q948" t="inlineStr">
         <is>
@@ -76226,7 +76226,7 @@
         </is>
       </c>
       <c r="S948" t="n">
-        <v>778</v>
+        <v>472</v>
       </c>
       <c r="T948" t="n">
         <v>18</v>
@@ -76275,7 +76275,7 @@
       </c>
       <c r="K949" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L949" t="inlineStr">
@@ -76284,32 +76284,32 @@
         </is>
       </c>
       <c r="M949" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N949" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O949" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P949" t="n">
-        <v>14500</v>
+        <v>9500</v>
       </c>
       <c r="Q949" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R949" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S949" t="n">
-        <v>806</v>
+        <v>950</v>
       </c>
       <c r="T949" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="950">
@@ -76355,7 +76355,7 @@
       </c>
       <c r="K950" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L950" t="inlineStr">
@@ -76367,13 +76367,13 @@
         <v>150</v>
       </c>
       <c r="N950" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O950" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P950" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q950" t="inlineStr">
         <is>
@@ -76386,7 +76386,7 @@
         </is>
       </c>
       <c r="S950" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T950" t="n">
         <v>18</v>
@@ -76435,7 +76435,7 @@
       </c>
       <c r="K951" t="inlineStr">
         <is>
-          <t>Timco</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L951" t="inlineStr">
@@ -76447,13 +76447,13 @@
         <v>200</v>
       </c>
       <c r="N951" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O951" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P951" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="Q951" t="inlineStr">
         <is>
@@ -76466,7 +76466,7 @@
         </is>
       </c>
       <c r="S951" t="n">
-        <v>528</v>
+        <v>778</v>
       </c>
       <c r="T951" t="n">
         <v>18</v>
@@ -76515,7 +76515,7 @@
       </c>
       <c r="K952" t="inlineStr">
         <is>
-          <t>Torontel blanca</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L952" t="inlineStr">
@@ -76524,16 +76524,16 @@
         </is>
       </c>
       <c r="M952" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N952" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O952" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P952" t="n">
-        <v>7000</v>
+        <v>14500</v>
       </c>
       <c r="Q952" t="inlineStr">
         <is>
@@ -76542,11 +76542,11 @@
       </c>
       <c r="R952" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S952" t="n">
-        <v>389</v>
+        <v>806</v>
       </c>
       <c r="T952" t="n">
         <v>18</v>
@@ -76567,7 +76567,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44399</v>
+        <v>44312</v>
       </c>
       <c r="E953" t="n">
         <v>13</v>
@@ -76595,7 +76595,7 @@
       </c>
       <c r="K953" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L953" t="inlineStr">
@@ -76604,32 +76604,32 @@
         </is>
       </c>
       <c r="M953" t="n">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="N953" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O953" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P953" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q953" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R953" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S953" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="T953" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="954">
@@ -76647,7 +76647,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44615</v>
+        <v>44312</v>
       </c>
       <c r="E954" t="n">
         <v>13</v>
@@ -76675,7 +76675,7 @@
       </c>
       <c r="K954" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Timco</t>
         </is>
       </c>
       <c r="L954" t="inlineStr">
@@ -76684,7 +76684,7 @@
         </is>
       </c>
       <c r="M954" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N954" t="n">
         <v>9000</v>
@@ -76702,7 +76702,7 @@
       </c>
       <c r="R954" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S954" t="n">
@@ -76727,7 +76727,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44615</v>
+        <v>44312</v>
       </c>
       <c r="E955" t="n">
         <v>13</v>
@@ -76755,25 +76755,25 @@
       </c>
       <c r="K955" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Torontel blanca</t>
         </is>
       </c>
       <c r="L955" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M955" t="n">
-        <v>650</v>
+        <v>120</v>
       </c>
       <c r="N955" t="n">
         <v>7000</v>
       </c>
       <c r="O955" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P955" t="n">
-        <v>7385</v>
+        <v>7000</v>
       </c>
       <c r="Q955" t="inlineStr">
         <is>
@@ -76782,11 +76782,11 @@
       </c>
       <c r="R955" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S955" t="n">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="T955" t="n">
         <v>18</v>
@@ -76807,7 +76807,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44615</v>
+        <v>44399</v>
       </c>
       <c r="E956" t="n">
         <v>13</v>
@@ -76835,41 +76835,41 @@
       </c>
       <c r="K956" t="inlineStr">
         <is>
-          <t>Moscatel rosada</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L956" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M956" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="N956" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O956" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P956" t="n">
-        <v>17500</v>
+        <v>8000</v>
       </c>
       <c r="Q956" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R956" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S956" t="n">
-        <v>972</v>
+        <v>1000</v>
       </c>
       <c r="T956" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="957">
@@ -76915,7 +76915,7 @@
       </c>
       <c r="K957" t="inlineStr">
         <is>
-          <t>Perlette</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L957" t="inlineStr">
@@ -76924,16 +76924,16 @@
         </is>
       </c>
       <c r="M957" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="N957" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O957" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P957" t="n">
-        <v>8214</v>
+        <v>9500</v>
       </c>
       <c r="Q957" t="inlineStr">
         <is>
@@ -76946,7 +76946,7 @@
         </is>
       </c>
       <c r="S957" t="n">
-        <v>456</v>
+        <v>528</v>
       </c>
       <c r="T957" t="n">
         <v>18</v>
@@ -76995,7 +76995,7 @@
       </c>
       <c r="K958" t="inlineStr">
         <is>
-          <t>Perlette</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L958" t="inlineStr">
@@ -77004,16 +77004,16 @@
         </is>
       </c>
       <c r="M958" t="n">
-        <v>150</v>
+        <v>650</v>
       </c>
       <c r="N958" t="n">
         <v>7000</v>
       </c>
       <c r="O958" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P958" t="n">
-        <v>7000</v>
+        <v>7385</v>
       </c>
       <c r="Q958" t="inlineStr">
         <is>
@@ -77026,7 +77026,7 @@
         </is>
       </c>
       <c r="S958" t="n">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="T958" t="n">
         <v>18</v>
@@ -77075,7 +77075,7 @@
       </c>
       <c r="K959" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Moscatel rosada</t>
         </is>
       </c>
       <c r="L959" t="inlineStr">
@@ -77084,16 +77084,16 @@
         </is>
       </c>
       <c r="M959" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N959" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O959" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P959" t="n">
-        <v>10000</v>
+        <v>17500</v>
       </c>
       <c r="Q959" t="inlineStr">
         <is>
@@ -77102,11 +77102,11 @@
       </c>
       <c r="R959" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S959" t="n">
-        <v>556</v>
+        <v>972</v>
       </c>
       <c r="T959" t="n">
         <v>18</v>
@@ -77155,7 +77155,7 @@
       </c>
       <c r="K960" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Perlette</t>
         </is>
       </c>
       <c r="L960" t="inlineStr">
@@ -77164,16 +77164,16 @@
         </is>
       </c>
       <c r="M960" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="N960" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O960" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P960" t="n">
-        <v>10000</v>
+        <v>8214</v>
       </c>
       <c r="Q960" t="inlineStr">
         <is>
@@ -77182,11 +77182,11 @@
       </c>
       <c r="R960" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S960" t="n">
-        <v>556</v>
+        <v>456</v>
       </c>
       <c r="T960" t="n">
         <v>18</v>
@@ -77235,7 +77235,7 @@
       </c>
       <c r="K961" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Perlette</t>
         </is>
       </c>
       <c r="L961" t="inlineStr">
@@ -77244,16 +77244,16 @@
         </is>
       </c>
       <c r="M961" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N961" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O961" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P961" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q961" t="inlineStr">
         <is>
@@ -77262,11 +77262,11 @@
       </c>
       <c r="R961" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S961" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="T961" t="n">
         <v>18</v>
@@ -77315,7 +77315,7 @@
       </c>
       <c r="K962" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L962" t="inlineStr">
@@ -77327,13 +77327,13 @@
         <v>250</v>
       </c>
       <c r="N962" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O962" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P962" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q962" t="inlineStr">
         <is>
@@ -77342,11 +77342,11 @@
       </c>
       <c r="R962" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S962" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T962" t="n">
         <v>18</v>
@@ -77395,7 +77395,7 @@
       </c>
       <c r="K963" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L963" t="inlineStr">
@@ -77404,16 +77404,16 @@
         </is>
       </c>
       <c r="M963" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N963" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O963" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P963" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q963" t="inlineStr">
         <is>
@@ -77422,11 +77422,11 @@
       </c>
       <c r="R963" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S963" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T963" t="n">
         <v>18</v>
@@ -77475,25 +77475,25 @@
       </c>
       <c r="K964" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L964" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M964" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N964" t="n">
         <v>9000</v>
       </c>
       <c r="O964" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P964" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="Q964" t="inlineStr">
         <is>
@@ -77502,11 +77502,11 @@
       </c>
       <c r="R964" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S964" t="n">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="T964" t="n">
         <v>18</v>
@@ -77560,20 +77560,20 @@
       </c>
       <c r="L965" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M965" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N965" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O965" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P965" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q965" t="inlineStr">
         <is>
@@ -77582,11 +77582,11 @@
       </c>
       <c r="R965" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S965" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T965" t="n">
         <v>18</v>
@@ -77635,7 +77635,7 @@
       </c>
       <c r="K966" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L966" t="inlineStr">
@@ -77644,16 +77644,16 @@
         </is>
       </c>
       <c r="M966" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="N966" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O966" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P966" t="n">
-        <v>10455</v>
+        <v>9000</v>
       </c>
       <c r="Q966" t="inlineStr">
         <is>
@@ -77662,11 +77662,11 @@
       </c>
       <c r="R966" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S966" t="n">
-        <v>581</v>
+        <v>500</v>
       </c>
       <c r="T966" t="n">
         <v>18</v>
@@ -77687,7 +77687,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44543</v>
+        <v>44615</v>
       </c>
       <c r="E967" t="n">
         <v>13</v>
@@ -77715,7 +77715,7 @@
       </c>
       <c r="K967" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L967" t="inlineStr">
@@ -77724,32 +77724,32 @@
         </is>
       </c>
       <c r="M967" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N967" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O967" t="n">
         <v>10000</v>
       </c>
       <c r="P967" t="n">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="Q967" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R967" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S967" t="n">
-        <v>1000</v>
+        <v>528</v>
       </c>
       <c r="T967" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="968">
@@ -77767,7 +77767,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44167</v>
+        <v>44615</v>
       </c>
       <c r="E968" t="n">
         <v>13</v>
@@ -77795,7 +77795,7 @@
       </c>
       <c r="K968" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L968" t="inlineStr">
@@ -77804,32 +77804,32 @@
         </is>
       </c>
       <c r="M968" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N968" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O968" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P968" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q968" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R968" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S968" t="n">
-        <v>1200</v>
+        <v>444</v>
       </c>
       <c r="T968" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="969">
@@ -77847,7 +77847,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44277</v>
+        <v>44615</v>
       </c>
       <c r="E969" t="n">
         <v>13</v>
@@ -77875,7 +77875,7 @@
       </c>
       <c r="K969" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L969" t="inlineStr">
@@ -77884,16 +77884,16 @@
         </is>
       </c>
       <c r="M969" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="N969" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O969" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P969" t="n">
-        <v>7500</v>
+        <v>10455</v>
       </c>
       <c r="Q969" t="inlineStr">
         <is>
@@ -77902,11 +77902,11 @@
       </c>
       <c r="R969" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S969" t="n">
-        <v>417</v>
+        <v>581</v>
       </c>
       <c r="T969" t="n">
         <v>18</v>
@@ -77927,7 +77927,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44277</v>
+        <v>44543</v>
       </c>
       <c r="E970" t="n">
         <v>13</v>
@@ -77955,7 +77955,7 @@
       </c>
       <c r="K970" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L970" t="inlineStr">
@@ -77964,20 +77964,20 @@
         </is>
       </c>
       <c r="M970" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="N970" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O970" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P970" t="n">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="Q970" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R970" t="inlineStr">
@@ -77986,10 +77986,10 @@
         </is>
       </c>
       <c r="S970" t="n">
-        <v>417</v>
+        <v>1000</v>
       </c>
       <c r="T970" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="971">
@@ -78007,7 +78007,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E971" t="n">
         <v>13</v>
@@ -78035,7 +78035,7 @@
       </c>
       <c r="K971" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L971" t="inlineStr">
@@ -78044,20 +78044,20 @@
         </is>
       </c>
       <c r="M971" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N971" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O971" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P971" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q971" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R971" t="inlineStr">
@@ -78066,10 +78066,10 @@
         </is>
       </c>
       <c r="S971" t="n">
-        <v>333</v>
+        <v>1200</v>
       </c>
       <c r="T971" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="972">
@@ -78120,20 +78120,20 @@
       </c>
       <c r="L972" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M972" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N972" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O972" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P972" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="Q972" t="inlineStr">
         <is>
@@ -78142,11 +78142,11 @@
       </c>
       <c r="R972" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S972" t="n">
-        <v>333</v>
+        <v>417</v>
       </c>
       <c r="T972" t="n">
         <v>18</v>
@@ -78195,7 +78195,7 @@
       </c>
       <c r="K973" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L973" t="inlineStr">
@@ -78204,16 +78204,16 @@
         </is>
       </c>
       <c r="M973" t="n">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="N973" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O973" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P973" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
       <c r="Q973" t="inlineStr">
         <is>
@@ -78222,11 +78222,11 @@
       </c>
       <c r="R973" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S973" t="n">
-        <v>722</v>
+        <v>417</v>
       </c>
       <c r="T973" t="n">
         <v>18</v>
@@ -78275,25 +78275,25 @@
       </c>
       <c r="K974" t="inlineStr">
         <is>
-          <t>Torontel blanca</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L974" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M974" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="N974" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O974" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P974" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q974" t="inlineStr">
         <is>
@@ -78306,7 +78306,7 @@
         </is>
       </c>
       <c r="S974" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="T974" t="n">
         <v>18</v>
@@ -78327,7 +78327,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E975" t="n">
         <v>13</v>
@@ -78355,25 +78355,25 @@
       </c>
       <c r="K975" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L975" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M975" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N975" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O975" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P975" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q975" t="inlineStr">
         <is>
@@ -78386,7 +78386,7 @@
         </is>
       </c>
       <c r="S975" t="n">
-        <v>444</v>
+        <v>333</v>
       </c>
       <c r="T975" t="n">
         <v>18</v>
@@ -78407,7 +78407,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E976" t="n">
         <v>13</v>
@@ -78435,7 +78435,7 @@
       </c>
       <c r="K976" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L976" t="inlineStr">
@@ -78444,16 +78444,16 @@
         </is>
       </c>
       <c r="M976" t="n">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="N976" t="n">
-        <v>7500</v>
+        <v>13000</v>
       </c>
       <c r="O976" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P976" t="n">
-        <v>7750</v>
+        <v>13000</v>
       </c>
       <c r="Q976" t="inlineStr">
         <is>
@@ -78462,11 +78462,11 @@
       </c>
       <c r="R976" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S976" t="n">
-        <v>431</v>
+        <v>722</v>
       </c>
       <c r="T976" t="n">
         <v>18</v>
@@ -78487,7 +78487,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E977" t="n">
         <v>13</v>
@@ -78515,7 +78515,7 @@
       </c>
       <c r="K977" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Torontel blanca</t>
         </is>
       </c>
       <c r="L977" t="inlineStr">
@@ -78524,16 +78524,16 @@
         </is>
       </c>
       <c r="M977" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="N977" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O977" t="n">
         <v>9000</v>
       </c>
       <c r="P977" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="Q977" t="inlineStr">
         <is>
@@ -78542,11 +78542,11 @@
       </c>
       <c r="R977" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S977" t="n">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="T977" t="n">
         <v>18</v>
@@ -78595,7 +78595,7 @@
       </c>
       <c r="K978" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L978" t="inlineStr">
@@ -78604,32 +78604,32 @@
         </is>
       </c>
       <c r="M978" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N978" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O978" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P978" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q978" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R978" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S978" t="n">
-        <v>700</v>
+        <v>444</v>
       </c>
       <c r="T978" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="979">
@@ -78675,7 +78675,7 @@
       </c>
       <c r="K979" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L979" t="inlineStr">
@@ -78684,16 +78684,16 @@
         </is>
       </c>
       <c r="M979" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N979" t="n">
+        <v>7500</v>
+      </c>
+      <c r="O979" t="n">
         <v>8000</v>
       </c>
-      <c r="O979" t="n">
-        <v>9000</v>
-      </c>
       <c r="P979" t="n">
-        <v>8500</v>
+        <v>7750</v>
       </c>
       <c r="Q979" t="inlineStr">
         <is>
@@ -78702,11 +78702,11 @@
       </c>
       <c r="R979" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S979" t="n">
-        <v>472</v>
+        <v>431</v>
       </c>
       <c r="T979" t="n">
         <v>18</v>
@@ -78755,7 +78755,7 @@
       </c>
       <c r="K980" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L980" t="inlineStr">
@@ -78764,17 +78764,17 @@
         </is>
       </c>
       <c r="M980" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N980" t="n">
         <v>8000</v>
       </c>
       <c r="O980" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P980" t="n">
         <v>8500</v>
       </c>
-      <c r="P980" t="n">
-        <v>8250</v>
-      </c>
       <c r="Q980" t="inlineStr">
         <is>
           <t>$/bandeja 18 kilos</t>
@@ -78786,7 +78786,7 @@
         </is>
       </c>
       <c r="S980" t="n">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="T980" t="n">
         <v>18</v>
@@ -78835,41 +78835,41 @@
       </c>
       <c r="K981" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L981" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M981" t="n">
-        <v>380</v>
+        <v>120</v>
       </c>
       <c r="N981" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O981" t="n">
         <v>7000</v>
       </c>
       <c r="P981" t="n">
-        <v>6474</v>
+        <v>7000</v>
       </c>
       <c r="Q981" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R981" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S981" t="n">
-        <v>360</v>
+        <v>700</v>
       </c>
       <c r="T981" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="982">
@@ -78887,7 +78887,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44349</v>
+        <v>44258</v>
       </c>
       <c r="E982" t="n">
         <v>13</v>
@@ -78915,7 +78915,7 @@
       </c>
       <c r="K982" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L982" t="inlineStr">
@@ -78924,16 +78924,16 @@
         </is>
       </c>
       <c r="M982" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N982" t="n">
         <v>8000</v>
       </c>
       <c r="O982" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P982" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q982" t="inlineStr">
         <is>
@@ -78946,7 +78946,7 @@
         </is>
       </c>
       <c r="S982" t="n">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="T982" t="n">
         <v>18</v>
@@ -78967,7 +78967,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44349</v>
+        <v>44258</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -78995,7 +78995,7 @@
       </c>
       <c r="K983" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L983" t="inlineStr">
@@ -79004,16 +79004,16 @@
         </is>
       </c>
       <c r="M983" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N983" t="n">
         <v>8000</v>
       </c>
       <c r="O983" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="P983" t="n">
-        <v>8000</v>
+        <v>8250</v>
       </c>
       <c r="Q983" t="inlineStr">
         <is>
@@ -79026,7 +79026,7 @@
         </is>
       </c>
       <c r="S983" t="n">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="T983" t="n">
         <v>18</v>
@@ -79047,7 +79047,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44349</v>
+        <v>44258</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -79075,7 +79075,7 @@
       </c>
       <c r="K984" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L984" t="inlineStr">
@@ -79084,16 +79084,16 @@
         </is>
       </c>
       <c r="M984" t="n">
-        <v>150</v>
+        <v>380</v>
       </c>
       <c r="N984" t="n">
         <v>6000</v>
       </c>
       <c r="O984" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P984" t="n">
-        <v>6000</v>
+        <v>6474</v>
       </c>
       <c r="Q984" t="inlineStr">
         <is>
@@ -79102,11 +79102,11 @@
       </c>
       <c r="R984" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S984" t="n">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="T984" t="n">
         <v>18</v>
@@ -79155,29 +79155,29 @@
       </c>
       <c r="K985" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L985" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M985" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N985" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O985" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="P985" t="n">
-        <v>7250</v>
+        <v>8000</v>
       </c>
       <c r="Q985" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R985" t="inlineStr">
@@ -79186,10 +79186,10 @@
         </is>
       </c>
       <c r="S985" t="n">
-        <v>725</v>
+        <v>444</v>
       </c>
       <c r="T985" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="986">
@@ -79207,7 +79207,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44285</v>
+        <v>44349</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -79235,7 +79235,7 @@
       </c>
       <c r="K986" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L986" t="inlineStr">
@@ -79244,16 +79244,16 @@
         </is>
       </c>
       <c r="M986" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N986" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O986" t="n">
         <v>8000</v>
       </c>
       <c r="P986" t="n">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="Q986" t="inlineStr">
         <is>
@@ -79262,11 +79262,11 @@
       </c>
       <c r="R986" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S986" t="n">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="T986" t="n">
         <v>18</v>
@@ -79287,7 +79287,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44285</v>
+        <v>44349</v>
       </c>
       <c r="E987" t="n">
         <v>13</v>
@@ -79315,41 +79315,41 @@
       </c>
       <c r="K987" t="inlineStr">
         <is>
-          <t>Moscatel rosada</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L987" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M987" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="N987" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O987" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P987" t="n">
-        <v>9500</v>
+        <v>6000</v>
       </c>
       <c r="Q987" t="inlineStr">
         <is>
-          <t>$/caja 14 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R987" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S987" t="n">
-        <v>679</v>
+        <v>333</v>
       </c>
       <c r="T987" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="988">
@@ -79367,7 +79367,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44285</v>
+        <v>44349</v>
       </c>
       <c r="E988" t="n">
         <v>13</v>
@@ -79395,41 +79395,41 @@
       </c>
       <c r="K988" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L988" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M988" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N988" t="n">
         <v>7000</v>
       </c>
       <c r="O988" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P988" t="n">
-        <v>7500</v>
+        <v>7250</v>
       </c>
       <c r="Q988" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R988" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S988" t="n">
-        <v>417</v>
+        <v>725</v>
       </c>
       <c r="T988" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="989">
@@ -79475,7 +79475,7 @@
       </c>
       <c r="K989" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L989" t="inlineStr">
@@ -79484,7 +79484,7 @@
         </is>
       </c>
       <c r="M989" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N989" t="n">
         <v>7000</v>
@@ -79555,7 +79555,7 @@
       </c>
       <c r="K990" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Moscatel rosada</t>
         </is>
       </c>
       <c r="L990" t="inlineStr">
@@ -79564,32 +79564,32 @@
         </is>
       </c>
       <c r="M990" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N990" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="O990" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P990" t="n">
-        <v>7750</v>
+        <v>9500</v>
       </c>
       <c r="Q990" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 14 kilos</t>
         </is>
       </c>
       <c r="R990" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S990" t="n">
-        <v>431</v>
+        <v>679</v>
       </c>
       <c r="T990" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="991">
@@ -79640,20 +79640,20 @@
       </c>
       <c r="L991" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M991" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N991" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O991" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P991" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="Q991" t="inlineStr">
         <is>
@@ -79662,11 +79662,11 @@
       </c>
       <c r="R991" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S991" t="n">
-        <v>333</v>
+        <v>417</v>
       </c>
       <c r="T991" t="n">
         <v>18</v>
@@ -79715,7 +79715,7 @@
       </c>
       <c r="K992" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L992" t="inlineStr">
@@ -79724,16 +79724,16 @@
         </is>
       </c>
       <c r="M992" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N992" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O992" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P992" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="Q992" t="inlineStr">
         <is>
@@ -79746,7 +79746,7 @@
         </is>
       </c>
       <c r="S992" t="n">
-        <v>667</v>
+        <v>417</v>
       </c>
       <c r="T992" t="n">
         <v>18</v>
@@ -79795,7 +79795,7 @@
       </c>
       <c r="K993" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L993" t="inlineStr">
@@ -79804,20 +79804,20 @@
         </is>
       </c>
       <c r="M993" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="N993" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="O993" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P993" t="n">
-        <v>15000</v>
+        <v>7750</v>
       </c>
       <c r="Q993" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R993" t="inlineStr">
@@ -79826,10 +79826,10 @@
         </is>
       </c>
       <c r="S993" t="n">
-        <v>750</v>
+        <v>431</v>
       </c>
       <c r="T993" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="994">
@@ -79875,7 +79875,7 @@
       </c>
       <c r="K994" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L994" t="inlineStr">
@@ -79884,16 +79884,16 @@
         </is>
       </c>
       <c r="M994" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N994" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O994" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P994" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q994" t="inlineStr">
         <is>
@@ -79906,7 +79906,7 @@
         </is>
       </c>
       <c r="S994" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="T994" t="n">
         <v>18</v>
@@ -79960,20 +79960,20 @@
       </c>
       <c r="L995" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M995" t="n">
         <v>200</v>
       </c>
       <c r="N995" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O995" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="P995" t="n">
-        <v>8250</v>
+        <v>12000</v>
       </c>
       <c r="Q995" t="inlineStr">
         <is>
@@ -79986,7 +79986,7 @@
         </is>
       </c>
       <c r="S995" t="n">
-        <v>458</v>
+        <v>667</v>
       </c>
       <c r="T995" t="n">
         <v>18</v>
@@ -80007,7 +80007,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44418</v>
+        <v>44285</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -80035,29 +80035,29 @@
       </c>
       <c r="K996" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L996" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M996" t="n">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="N996" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="O996" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P996" t="n">
-        <v>8750</v>
+        <v>15000</v>
       </c>
       <c r="Q996" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R996" t="inlineStr">
@@ -80066,10 +80066,10 @@
         </is>
       </c>
       <c r="S996" t="n">
-        <v>1094</v>
+        <v>750</v>
       </c>
       <c r="T996" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="997">
@@ -80087,7 +80087,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44418</v>
+        <v>44285</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -80115,7 +80115,7 @@
       </c>
       <c r="K997" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L997" t="inlineStr">
@@ -80124,32 +80124,32 @@
         </is>
       </c>
       <c r="M997" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="N997" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="O997" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P997" t="n">
-        <v>8750</v>
+        <v>10000</v>
       </c>
       <c r="Q997" t="inlineStr">
         <is>
-          <t>$/bandeja 8 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R997" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S997" t="n">
-        <v>1094</v>
+        <v>556</v>
       </c>
       <c r="T997" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="998">
@@ -80167,7 +80167,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44595</v>
+        <v>44285</v>
       </c>
       <c r="E998" t="n">
         <v>13</v>
@@ -80195,25 +80195,25 @@
       </c>
       <c r="K998" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L998" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M998" t="n">
-        <v>1080</v>
+        <v>200</v>
       </c>
       <c r="N998" t="n">
         <v>8000</v>
       </c>
       <c r="O998" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="P998" t="n">
-        <v>8556</v>
+        <v>8250</v>
       </c>
       <c r="Q998" t="inlineStr">
         <is>
@@ -80226,7 +80226,7 @@
         </is>
       </c>
       <c r="S998" t="n">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="T998" t="n">
         <v>18</v>
@@ -80247,7 +80247,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44595</v>
+        <v>44418</v>
       </c>
       <c r="E999" t="n">
         <v>13</v>
@@ -80275,41 +80275,41 @@
       </c>
       <c r="K999" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L999" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M999" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N999" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O999" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="P999" t="n">
-        <v>12400</v>
+        <v>8750</v>
       </c>
       <c r="Q999" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R999" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S999" t="n">
-        <v>689</v>
+        <v>1094</v>
       </c>
       <c r="T999" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1000">
@@ -80327,7 +80327,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44595</v>
+        <v>44418</v>
       </c>
       <c r="E1000" t="n">
         <v>13</v>
@@ -80355,41 +80355,41 @@
       </c>
       <c r="K1000" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L1000" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1000" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N1000" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="O1000" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P1000" t="n">
-        <v>10000</v>
+        <v>8750</v>
       </c>
       <c r="Q1000" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 8 kilos</t>
         </is>
       </c>
       <c r="R1000" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1000" t="n">
-        <v>556</v>
+        <v>1094</v>
       </c>
       <c r="T1000" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1001">
@@ -80435,7 +80435,7 @@
       </c>
       <c r="K1001" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Flame Seedless</t>
         </is>
       </c>
       <c r="L1001" t="inlineStr">
@@ -80444,16 +80444,16 @@
         </is>
       </c>
       <c r="M1001" t="n">
-        <v>940</v>
+        <v>1080</v>
       </c>
       <c r="N1001" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O1001" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P1001" t="n">
-        <v>10553</v>
+        <v>8556</v>
       </c>
       <c r="Q1001" t="inlineStr">
         <is>
@@ -80462,11 +80462,11 @@
       </c>
       <c r="R1001" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1001" t="n">
-        <v>586</v>
+        <v>475</v>
       </c>
       <c r="T1001" t="n">
         <v>18</v>
@@ -80487,7 +80487,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44628</v>
+        <v>44595</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -80515,7 +80515,7 @@
       </c>
       <c r="K1002" t="inlineStr">
         <is>
-          <t>Moscatel rosada</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L1002" t="inlineStr">
@@ -80524,16 +80524,16 @@
         </is>
       </c>
       <c r="M1002" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N1002" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="O1002" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P1002" t="n">
-        <v>16500</v>
+        <v>12400</v>
       </c>
       <c r="Q1002" t="inlineStr">
         <is>
@@ -80542,11 +80542,11 @@
       </c>
       <c r="R1002" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1002" t="n">
-        <v>917</v>
+        <v>689</v>
       </c>
       <c r="T1002" t="n">
         <v>18</v>
@@ -80567,7 +80567,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44628</v>
+        <v>44595</v>
       </c>
       <c r="E1003" t="n">
         <v>13</v>
@@ -80595,41 +80595,41 @@
       </c>
       <c r="K1003" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L1003" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1003" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N1003" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O1003" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P1003" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q1003" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R1003" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S1003" t="n">
-        <v>700</v>
+        <v>556</v>
       </c>
       <c r="T1003" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1004">
@@ -80647,7 +80647,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44628</v>
+        <v>44595</v>
       </c>
       <c r="E1004" t="n">
         <v>13</v>
@@ -80675,7 +80675,7 @@
       </c>
       <c r="K1004" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Superior Seedless</t>
         </is>
       </c>
       <c r="L1004" t="inlineStr">
@@ -80684,32 +80684,32 @@
         </is>
       </c>
       <c r="M1004" t="n">
-        <v>300</v>
+        <v>940</v>
       </c>
       <c r="N1004" t="n">
         <v>10000</v>
       </c>
       <c r="O1004" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P1004" t="n">
-        <v>10000</v>
+        <v>10553</v>
       </c>
       <c r="Q1004" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R1004" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1004" t="n">
-        <v>1000</v>
+        <v>586</v>
       </c>
       <c r="T1004" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1005">
@@ -80755,7 +80755,7 @@
       </c>
       <c r="K1005" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Moscatel rosada</t>
         </is>
       </c>
       <c r="L1005" t="inlineStr">
@@ -80764,16 +80764,16 @@
         </is>
       </c>
       <c r="M1005" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N1005" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O1005" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P1005" t="n">
-        <v>11500</v>
+        <v>16500</v>
       </c>
       <c r="Q1005" t="inlineStr">
         <is>
@@ -80786,7 +80786,7 @@
         </is>
       </c>
       <c r="S1005" t="n">
-        <v>639</v>
+        <v>917</v>
       </c>
       <c r="T1005" t="n">
         <v>18</v>
@@ -80835,41 +80835,41 @@
       </c>
       <c r="K1006" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L1006" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1006" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N1006" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O1006" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P1006" t="n">
-        <v>11500</v>
+        <v>7000</v>
       </c>
       <c r="Q1006" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R1006" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1006" t="n">
-        <v>639</v>
+        <v>700</v>
       </c>
       <c r="T1006" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1007">
@@ -80915,7 +80915,7 @@
       </c>
       <c r="K1007" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L1007" t="inlineStr">
@@ -80924,32 +80924,32 @@
         </is>
       </c>
       <c r="M1007" t="n">
+        <v>300</v>
+      </c>
+      <c r="N1007" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O1007" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P1007" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q1007" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R1007" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S1007" t="n">
         <v>1000</v>
       </c>
-      <c r="N1007" t="n">
-        <v>11000</v>
-      </c>
-      <c r="O1007" t="n">
-        <v>12000</v>
-      </c>
-      <c r="P1007" t="n">
-        <v>11500</v>
-      </c>
-      <c r="Q1007" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="R1007" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S1007" t="n">
-        <v>639</v>
-      </c>
       <c r="T1007" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1008">
@@ -81000,20 +81000,20 @@
       </c>
       <c r="L1008" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1008" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N1008" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O1008" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P1008" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="Q1008" t="inlineStr">
         <is>
@@ -81026,7 +81026,7 @@
         </is>
       </c>
       <c r="S1008" t="n">
-        <v>528</v>
+        <v>639</v>
       </c>
       <c r="T1008" t="n">
         <v>18</v>
@@ -81080,20 +81080,20 @@
       </c>
       <c r="L1009" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1009" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N1009" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O1009" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P1009" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="Q1009" t="inlineStr">
         <is>
@@ -81102,11 +81102,11 @@
       </c>
       <c r="R1009" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1009" t="n">
-        <v>528</v>
+        <v>639</v>
       </c>
       <c r="T1009" t="n">
         <v>18</v>
@@ -81127,7 +81127,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44335</v>
+        <v>44628</v>
       </c>
       <c r="E1010" t="n">
         <v>13</v>
@@ -81155,7 +81155,7 @@
       </c>
       <c r="K1010" t="inlineStr">
         <is>
-          <t>Crimpson Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L1010" t="inlineStr">
@@ -81164,16 +81164,16 @@
         </is>
       </c>
       <c r="M1010" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N1010" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O1010" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P1010" t="n">
-        <v>7700</v>
+        <v>11500</v>
       </c>
       <c r="Q1010" t="inlineStr">
         <is>
@@ -81182,11 +81182,11 @@
       </c>
       <c r="R1010" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1010" t="n">
-        <v>428</v>
+        <v>639</v>
       </c>
       <c r="T1010" t="n">
         <v>18</v>
@@ -81207,7 +81207,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44335</v>
+        <v>44628</v>
       </c>
       <c r="E1011" t="n">
         <v>13</v>
@@ -81235,25 +81235,25 @@
       </c>
       <c r="K1011" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L1011" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1011" t="n">
         <v>250</v>
       </c>
       <c r="N1011" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O1011" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P1011" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q1011" t="inlineStr">
         <is>
@@ -81262,11 +81262,11 @@
       </c>
       <c r="R1011" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S1011" t="n">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="T1011" t="n">
         <v>18</v>
@@ -81287,7 +81287,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44335</v>
+        <v>44628</v>
       </c>
       <c r="E1012" t="n">
         <v>13</v>
@@ -81315,25 +81315,25 @@
       </c>
       <c r="K1012" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L1012" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1012" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="N1012" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O1012" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P1012" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q1012" t="inlineStr">
         <is>
@@ -81346,7 +81346,7 @@
         </is>
       </c>
       <c r="S1012" t="n">
-        <v>444</v>
+        <v>528</v>
       </c>
       <c r="T1012" t="n">
         <v>18</v>
@@ -81395,25 +81395,25 @@
       </c>
       <c r="K1013" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L1013" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1013" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N1013" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O1013" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P1013" t="n">
-        <v>6000</v>
+        <v>7700</v>
       </c>
       <c r="Q1013" t="inlineStr">
         <is>
@@ -81426,7 +81426,7 @@
         </is>
       </c>
       <c r="S1013" t="n">
-        <v>333</v>
+        <v>428</v>
       </c>
       <c r="T1013" t="n">
         <v>18</v>
@@ -81475,25 +81475,25 @@
       </c>
       <c r="K1014" t="inlineStr">
         <is>
-          <t>Rosada pastilla</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L1014" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1014" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N1014" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O1014" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P1014" t="n">
-        <v>10000</v>
+        <v>8500</v>
       </c>
       <c r="Q1014" t="inlineStr">
         <is>
@@ -81506,7 +81506,7 @@
         </is>
       </c>
       <c r="S1014" t="n">
-        <v>556</v>
+        <v>472</v>
       </c>
       <c r="T1014" t="n">
         <v>18</v>
@@ -81555,25 +81555,25 @@
       </c>
       <c r="K1015" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L1015" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1015" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N1015" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="O1015" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="P1015" t="n">
-        <v>23500</v>
+        <v>8000</v>
       </c>
       <c r="Q1015" t="inlineStr">
         <is>
@@ -81582,11 +81582,11 @@
       </c>
       <c r="R1015" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1015" t="n">
-        <v>1306</v>
+        <v>444</v>
       </c>
       <c r="T1015" t="n">
         <v>18</v>
@@ -81635,25 +81635,25 @@
       </c>
       <c r="K1016" t="inlineStr">
         <is>
-          <t>Thompson seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L1016" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1016" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N1016" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="O1016" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="P1016" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="Q1016" t="inlineStr">
         <is>
@@ -81662,11 +81662,11 @@
       </c>
       <c r="R1016" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1016" t="n">
-        <v>1111</v>
+        <v>333</v>
       </c>
       <c r="T1016" t="n">
         <v>18</v>
@@ -81687,7 +81687,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -81715,41 +81715,41 @@
       </c>
       <c r="K1017" t="inlineStr">
         <is>
-          <t>Superior Seedless</t>
+          <t>Rosada pastilla</t>
         </is>
       </c>
       <c r="L1017" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1017" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="N1017" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O1017" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P1017" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q1017" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R1017" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1017" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="T1017" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1018">
@@ -81767,7 +81767,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44544</v>
+        <v>44335</v>
       </c>
       <c r="E1018" t="n">
         <v>13</v>
@@ -81795,25 +81795,25 @@
       </c>
       <c r="K1018" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L1018" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1018" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N1018" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="O1018" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="P1018" t="n">
-        <v>13500</v>
+        <v>23500</v>
       </c>
       <c r="Q1018" t="inlineStr">
         <is>
@@ -81822,11 +81822,11 @@
       </c>
       <c r="R1018" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S1018" t="n">
-        <v>750</v>
+        <v>1306</v>
       </c>
       <c r="T1018" t="n">
         <v>18</v>
@@ -81847,7 +81847,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44160</v>
+        <v>44335</v>
       </c>
       <c r="E1019" t="n">
         <v>13</v>
@@ -81875,7 +81875,7 @@
       </c>
       <c r="K1019" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Thompson seedless</t>
         </is>
       </c>
       <c r="L1019" t="inlineStr">
@@ -81884,32 +81884,32 @@
         </is>
       </c>
       <c r="M1019" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="N1019" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O1019" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P1019" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="Q1019" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R1019" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S1019" t="n">
-        <v>2200</v>
+        <v>1111</v>
       </c>
       <c r="T1019" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1020">
@@ -81927,68 +81927,308 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1020" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1020" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H1020" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I1020" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J1020" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>Superior Seedless</t>
+        </is>
+      </c>
+      <c r="L1020" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1020" t="n">
+        <v>300</v>
+      </c>
+      <c r="N1020" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O1020" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P1020" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q1020" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R1020" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1020" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T1020" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1021" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1021" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1021" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1021" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H1021" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I1021" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J1021" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>Flame Seedless</t>
+        </is>
+      </c>
+      <c r="L1021" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1021" t="n">
+        <v>180</v>
+      </c>
+      <c r="N1021" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O1021" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P1021" t="n">
+        <v>13500</v>
+      </c>
+      <c r="Q1021" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1021" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S1021" t="n">
+        <v>750</v>
+      </c>
+      <c r="T1021" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1022" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1022" s="2" t="n">
         <v>44160</v>
       </c>
-      <c r="E1020" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1020" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G1020" t="n">
-        <v>100109</v>
-      </c>
-      <c r="H1020" t="inlineStr">
-        <is>
-          <t>Uva</t>
-        </is>
-      </c>
-      <c r="I1020" t="n">
-        <v>100109001</v>
-      </c>
-      <c r="J1020" t="inlineStr">
-        <is>
-          <t>Uva</t>
-        </is>
-      </c>
-      <c r="K1020" t="inlineStr">
+      <c r="E1022" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1022" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1022" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H1022" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I1022" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J1022" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>Flame Seedless</t>
+        </is>
+      </c>
+      <c r="L1022" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1022" t="n">
+        <v>200</v>
+      </c>
+      <c r="N1022" t="n">
+        <v>22000</v>
+      </c>
+      <c r="O1022" t="n">
+        <v>22000</v>
+      </c>
+      <c r="P1022" t="n">
+        <v>22000</v>
+      </c>
+      <c r="Q1022" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R1022" t="inlineStr">
+        <is>
+          <t>Provincia de Copiapó</t>
+        </is>
+      </c>
+      <c r="S1022" t="n">
+        <v>2200</v>
+      </c>
+      <c r="T1022" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1023" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1023" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1023" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1023" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H1023" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I1023" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J1023" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K1023" t="inlineStr">
         <is>
           <t>Red Globe</t>
         </is>
       </c>
-      <c r="L1020" t="inlineStr">
+      <c r="L1023" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M1020" t="n">
+      <c r="M1023" t="n">
         <v>160</v>
       </c>
-      <c r="N1020" t="n">
+      <c r="N1023" t="n">
         <v>25000</v>
       </c>
-      <c r="O1020" t="n">
+      <c r="O1023" t="n">
         <v>25000</v>
       </c>
-      <c r="P1020" t="n">
+      <c r="P1023" t="n">
         <v>25000</v>
       </c>
-      <c r="Q1020" t="inlineStr">
+      <c r="Q1023" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R1020" t="inlineStr">
+      <c r="R1023" t="inlineStr">
         <is>
           <t>Provincia de Copiapó</t>
         </is>
       </c>
-      <c r="S1020" t="n">
+      <c r="S1023" t="n">
         <v>2500</v>
       </c>
-      <c r="T1020" t="n">
+      <c r="T1023" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Uva.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Mercado Mayorista Lo Valledor de Santiago - Uva.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1101"/>
+  <dimension ref="A1:T1108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88167,7 +88167,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44432</v>
+        <v>44656</v>
       </c>
       <c r="E1098" t="n">
         <v>13</v>
@@ -88195,41 +88195,41 @@
       </c>
       <c r="K1098" t="inlineStr">
         <is>
-          <t>Red Globe</t>
+          <t>Crimpson Seedless</t>
         </is>
       </c>
       <c r="L1098" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1098" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="N1098" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="O1098" t="n">
         <v>11000</v>
       </c>
       <c r="P1098" t="n">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="Q1098" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R1098" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1098" t="n">
-        <v>1100</v>
+        <v>583</v>
       </c>
       <c r="T1098" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1099">
@@ -88247,7 +88247,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44592</v>
+        <v>44656</v>
       </c>
       <c r="E1099" t="n">
         <v>13</v>
@@ -88275,7 +88275,7 @@
       </c>
       <c r="K1099" t="inlineStr">
         <is>
-          <t>Flame Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L1099" t="inlineStr">
@@ -88284,29 +88284,29 @@
         </is>
       </c>
       <c r="M1099" t="n">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="N1099" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O1099" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="P1099" t="n">
-        <v>10529</v>
+        <v>9000</v>
       </c>
       <c r="Q1099" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R1099" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S1099" t="n">
-        <v>585</v>
+        <v>500</v>
       </c>
       <c r="T1099" t="n">
         <v>18</v>
@@ -88327,7 +88327,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44592</v>
+        <v>44656</v>
       </c>
       <c r="E1100" t="n">
         <v>13</v>
@@ -88355,7 +88355,7 @@
       </c>
       <c r="K1100" t="inlineStr">
         <is>
-          <t>Ralli Seedless</t>
+          <t>Red Globe</t>
         </is>
       </c>
       <c r="L1100" t="inlineStr">
@@ -88364,20 +88364,20 @@
         </is>
       </c>
       <c r="M1100" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N1100" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O1100" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P1100" t="n">
-        <v>13560</v>
+        <v>9500</v>
       </c>
       <c r="Q1100" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="R1100" t="inlineStr">
@@ -88386,7 +88386,7 @@
         </is>
       </c>
       <c r="S1100" t="n">
-        <v>753</v>
+        <v>528</v>
       </c>
       <c r="T1100" t="n">
         <v>18</v>
@@ -88407,68 +88407,628 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
+        <v>44656</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1101" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1101" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H1101" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I1101" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J1101" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K1101" t="inlineStr">
+        <is>
+          <t>Red Globe</t>
+        </is>
+      </c>
+      <c r="L1101" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1101" t="n">
+        <v>250</v>
+      </c>
+      <c r="N1101" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O1101" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P1101" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q1101" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1101" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S1101" t="n">
+        <v>417</v>
+      </c>
+      <c r="T1101" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1102" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1102" s="2" t="n">
+        <v>44656</v>
+      </c>
+      <c r="E1102" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1102" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1102" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H1102" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I1102" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J1102" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K1102" t="inlineStr">
+        <is>
+          <t>Thompson seedless</t>
+        </is>
+      </c>
+      <c r="L1102" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1102" t="n">
+        <v>350</v>
+      </c>
+      <c r="N1102" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O1102" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P1102" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q1102" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1102" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S1102" t="n">
+        <v>667</v>
+      </c>
+      <c r="T1102" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1103" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1103" s="2" t="n">
+        <v>44656</v>
+      </c>
+      <c r="E1103" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1103" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1103" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H1103" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I1103" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J1103" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K1103" t="inlineStr">
+        <is>
+          <t>Thompson seedless</t>
+        </is>
+      </c>
+      <c r="L1103" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1103" t="n">
+        <v>500</v>
+      </c>
+      <c r="N1103" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O1103" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P1103" t="n">
+        <v>10700</v>
+      </c>
+      <c r="Q1103" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1103" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S1103" t="n">
+        <v>594</v>
+      </c>
+      <c r="T1103" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1104" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1104" s="2" t="n">
+        <v>44656</v>
+      </c>
+      <c r="E1104" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1104" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1104" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H1104" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I1104" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J1104" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K1104" t="inlineStr">
+        <is>
+          <t>Thompson seedless</t>
+        </is>
+      </c>
+      <c r="L1104" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1104" t="n">
+        <v>250</v>
+      </c>
+      <c r="N1104" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O1104" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P1104" t="n">
+        <v>8500</v>
+      </c>
+      <c r="Q1104" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1104" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S1104" t="n">
+        <v>472</v>
+      </c>
+      <c r="T1104" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1105" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1105" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1105" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1105" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1105" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H1105" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I1105" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J1105" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K1105" t="inlineStr">
+        <is>
+          <t>Red Globe</t>
+        </is>
+      </c>
+      <c r="L1105" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1105" t="n">
+        <v>480</v>
+      </c>
+      <c r="N1105" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O1105" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P1105" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Q1105" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R1105" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S1105" t="n">
+        <v>1100</v>
+      </c>
+      <c r="T1105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1106" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1106" s="2" t="n">
         <v>44592</v>
       </c>
-      <c r="E1101" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1101" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G1101" t="n">
-        <v>100109</v>
-      </c>
-      <c r="H1101" t="inlineStr">
-        <is>
-          <t>Uva</t>
-        </is>
-      </c>
-      <c r="I1101" t="n">
-        <v>100109001</v>
-      </c>
-      <c r="J1101" t="inlineStr">
-        <is>
-          <t>Uva</t>
-        </is>
-      </c>
-      <c r="K1101" t="inlineStr">
+      <c r="E1106" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1106" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1106" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H1106" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I1106" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J1106" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K1106" t="inlineStr">
+        <is>
+          <t>Flame Seedless</t>
+        </is>
+      </c>
+      <c r="L1106" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1106" t="n">
+        <v>340</v>
+      </c>
+      <c r="N1106" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O1106" t="n">
+        <v>11000</v>
+      </c>
+      <c r="P1106" t="n">
+        <v>10529</v>
+      </c>
+      <c r="Q1106" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1106" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1106" t="n">
+        <v>585</v>
+      </c>
+      <c r="T1106" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1107" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1107" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="E1107" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1107" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1107" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H1107" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I1107" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J1107" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K1107" t="inlineStr">
+        <is>
+          <t>Ralli Seedless</t>
+        </is>
+      </c>
+      <c r="L1107" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1107" t="n">
+        <v>250</v>
+      </c>
+      <c r="N1107" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O1107" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P1107" t="n">
+        <v>13560</v>
+      </c>
+      <c r="Q1107" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R1107" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1107" t="n">
+        <v>753</v>
+      </c>
+      <c r="T1107" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1108" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1108" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1108" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="E1108" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1108" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1108" t="n">
+        <v>100109</v>
+      </c>
+      <c r="H1108" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="I1108" t="n">
+        <v>100109001</v>
+      </c>
+      <c r="J1108" t="inlineStr">
+        <is>
+          <t>Uva</t>
+        </is>
+      </c>
+      <c r="K1108" t="inlineStr">
         <is>
           <t>Superior Seedless</t>
         </is>
       </c>
-      <c r="L1101" t="inlineStr">
+      <c r="L1108" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M1101" t="n">
+      <c r="M1108" t="n">
         <v>450</v>
       </c>
-      <c r="N1101" t="n">
+      <c r="N1108" t="n">
         <v>12000</v>
       </c>
-      <c r="O1101" t="n">
+      <c r="O1108" t="n">
         <v>13000</v>
       </c>
-      <c r="P1101" t="n">
+      <c r="P1108" t="n">
         <v>12533</v>
       </c>
-      <c r="Q1101" t="inlineStr">
+      <c r="Q1108" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="R1101" t="inlineStr">
+      <c r="R1108" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S1101" t="n">
+      <c r="S1108" t="n">
         <v>696</v>
       </c>
-      <c r="T1101" t="n">
+      <c r="T1108" t="n">
         <v>18</v>
       </c>
     </row>
